--- a/FinancialPlanner/data/usa_var_data.xlsx
+++ b/FinancialPlanner/data/usa_var_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja_portfela\FinancialPlanner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5521916-684B-4D05-A4AE-60AF818355A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B0E9A-2986-400A-9FFE-42B51265B1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Meta" sheetId="2" r:id="rId2"/>
+    <sheet name="Quarterly" sheetId="3" r:id="rId2"/>
+    <sheet name="Meta" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -177,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -226,6 +227,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:L873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
-      <selection activeCell="A874" sqref="A874:XFD874"/>
+    <sheetView topLeftCell="A861" workbookViewId="0">
+      <selection activeCell="A870" sqref="A870:XFD870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36750,6 +36757,7199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDE22BA-DCEF-4BC8-89DB-35E0BBFC15EC}">
+  <dimension ref="A1:F288"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>19450</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP($A2,Data!$A$2:$L$873,3)</f>
+        <v>103.35708178710458</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP($A2,Data!$A$2:$L$873,4)</f>
+        <v>24.84</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($A2,Data!$A$2:$L$873,5)</f>
+        <v>1.4166700000000001</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($A2,Data!$A$2:$L$873,6)</f>
+        <v>2.4566699999999999</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP($A2,Data!$A$2:$L$873,7)</f>
+        <v>12.141970791867783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>19541</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP($A3,Data!$A$2:$L$873,3)</f>
+        <v>104.25161152285783</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP($A3,Data!$A$2:$L$873,4)</f>
+        <v>24.39</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($A3,Data!$A$2:$L$873,5)</f>
+        <v>1.42</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($A3,Data!$A$2:$L$873,6)</f>
+        <v>2.5233300000000001</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP($A3,Data!$A$2:$L$873,7)</f>
+        <v>11.715076201734002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>19633</v>
+      </c>
+      <c r="B4">
+        <f>VLOOKUP($A4,Data!$A$2:$L$873,3)</f>
+        <v>107.51481421900029</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP($A4,Data!$A$2:$L$873,4)</f>
+        <v>24.5</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($A4,Data!$A$2:$L$873,5)</f>
+        <v>1.44</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($A4,Data!$A$2:$L$873,6)</f>
+        <v>2.53667</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP($A4,Data!$A$2:$L$873,7)</f>
+        <v>11.644070268505772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>19725</v>
+      </c>
+      <c r="B5">
+        <f>VLOOKUP($A5,Data!$A$2:$L$873,3)</f>
+        <v>110.23002420747434</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP($A5,Data!$A$2:$L$873,4)</f>
+        <v>26.02</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($A5,Data!$A$2:$L$873,5)</f>
+        <v>1.46333</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($A5,Data!$A$2:$L$873,6)</f>
+        <v>2.5233300000000001</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP($A5,Data!$A$2:$L$873,7)</f>
+        <v>12.215052485432837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>19815</v>
+      </c>
+      <c r="B6">
+        <f>VLOOKUP($A6,Data!$A$2:$L$873,3)</f>
+        <v>112.40052654698172</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP($A6,Data!$A$2:$L$873,4)</f>
+        <v>28.73</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP($A6,Data!$A$2:$L$873,5)</f>
+        <v>1.4566699999999999</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($A6,Data!$A$2:$L$873,6)</f>
+        <v>2.5733299999999999</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP($A6,Data!$A$2:$L$873,7)</f>
+        <v>13.312042238025857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>19906</v>
+      </c>
+      <c r="B7">
+        <f>VLOOKUP($A7,Data!$A$2:$L$873,3)</f>
+        <v>112.56762229929461</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP($A7,Data!$A$2:$L$873,4)</f>
+        <v>30.73</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP($A7,Data!$A$2:$L$873,5)</f>
+        <v>1.46333</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($A7,Data!$A$2:$L$873,6)</f>
+        <v>2.6233300000000002</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP($A7,Data!$A$2:$L$873,7)</f>
+        <v>14.042112347320577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>19998</v>
+      </c>
+      <c r="B8">
+        <f>VLOOKUP($A8,Data!$A$2:$L$873,3)</f>
+        <v>112.7254598955605</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP($A8,Data!$A$2:$L$873,4)</f>
+        <v>33.44</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP($A8,Data!$A$2:$L$873,5)</f>
+        <v>1.51667</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($A8,Data!$A$2:$L$873,6)</f>
+        <v>2.6766700000000001</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP($A8,Data!$A$2:$L$873,7)</f>
+        <v>15.117311697434388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>20090</v>
+      </c>
+      <c r="B9">
+        <f>VLOOKUP($A9,Data!$A$2:$L$873,3)</f>
+        <v>111.43257036767581</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP($A9,Data!$A$2:$L$873,4)</f>
+        <v>36.79</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP($A9,Data!$A$2:$L$873,5)</f>
+        <v>1.5533300000000001</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP($A9,Data!$A$2:$L$873,6)</f>
+        <v>2.8333300000000001</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP($A9,Data!$A$2:$L$873,7)</f>
+        <v>16.437728215987121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>20180</v>
+      </c>
+      <c r="B10">
+        <f>VLOOKUP($A10,Data!$A$2:$L$873,3)</f>
+        <v>111.06909335252925</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP($A10,Data!$A$2:$L$873,4)</f>
+        <v>37.6</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP($A10,Data!$A$2:$L$873,5)</f>
+        <v>1.56667</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($A10,Data!$A$2:$L$873,6)</f>
+        <v>3.0466700000000002</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP($A10,Data!$A$2:$L$873,7)</f>
+        <v>16.518057827257806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>20271</v>
+      </c>
+      <c r="B11">
+        <f>VLOOKUP($A11,Data!$A$2:$L$873,3)</f>
+        <v>109.71913073344803</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP($A11,Data!$A$2:$L$873,4)</f>
+        <v>42.43</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP($A11,Data!$A$2:$L$873,5)</f>
+        <v>1.6033299999999999</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($A11,Data!$A$2:$L$873,6)</f>
+        <v>3.2933300000000001</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP($A11,Data!$A$2:$L$873,7)</f>
+        <v>18.222326463047757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>20363</v>
+      </c>
+      <c r="B12">
+        <f>VLOOKUP($A12,Data!$A$2:$L$873,3)</f>
+        <v>112.18982634568164</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP($A12,Data!$A$2:$L$873,4)</f>
+        <v>44.95</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP($A12,Data!$A$2:$L$873,5)</f>
+        <v>1.6333299999999999</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($A12,Data!$A$2:$L$873,6)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP($A12,Data!$A$2:$L$873,7)</f>
+        <v>18.835559288273906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>20455</v>
+      </c>
+      <c r="B13">
+        <f>VLOOKUP($A13,Data!$A$2:$L$873,3)</f>
+        <v>112.8952421514422</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP($A13,Data!$A$2:$L$873,4)</f>
+        <v>44.43</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP($A13,Data!$A$2:$L$873,5)</f>
+        <v>1.7</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($A13,Data!$A$2:$L$873,6)</f>
+        <v>3.6433300000000002</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP($A13,Data!$A$2:$L$873,7)</f>
+        <v>18.266116815127784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>20546</v>
+      </c>
+      <c r="B14">
+        <f>VLOOKUP($A14,Data!$A$2:$L$873,3)</f>
+        <v>111.24090820987053</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP($A14,Data!$A$2:$L$873,4)</f>
+        <v>46.54</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP($A14,Data!$A$2:$L$873,5)</f>
+        <v>1.77667</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($A14,Data!$A$2:$L$873,6)</f>
+        <v>3.66</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP($A14,Data!$A$2:$L$873,7)</f>
+        <v>18.544506591754441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>20637</v>
+      </c>
+      <c r="B15">
+        <f>VLOOKUP($A15,Data!$A$2:$L$873,3)</f>
+        <v>110.84107884152219</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP($A15,Data!$A$2:$L$873,4)</f>
+        <v>48.49</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP($A15,Data!$A$2:$L$873,5)</f>
+        <v>1.82667</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($A15,Data!$A$2:$L$873,6)</f>
+        <v>3.5533299999999999</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP($A15,Data!$A$2:$L$873,7)</f>
+        <v>18.670937110186426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>20729</v>
+      </c>
+      <c r="B16">
+        <f>VLOOKUP($A16,Data!$A$2:$L$873,3)</f>
+        <v>109.17345016540517</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP($A16,Data!$A$2:$L$873,4)</f>
+        <v>45.76</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP($A16,Data!$A$2:$L$873,5)</f>
+        <v>1.7733300000000001</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($A16,Data!$A$2:$L$873,6)</f>
+        <v>3.44333</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP($A16,Data!$A$2:$L$873,7)</f>
+        <v>17.12033973662826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>20821</v>
+      </c>
+      <c r="B17">
+        <f>VLOOKUP($A17,Data!$A$2:$L$873,3)</f>
+        <v>112.45472024156231</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP($A17,Data!$A$2:$L$873,4)</f>
+        <v>43.47</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP($A17,Data!$A$2:$L$873,5)</f>
+        <v>1.73333</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP($A17,Data!$A$2:$L$873,6)</f>
+        <v>3.4066700000000001</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP($A17,Data!$A$2:$L$873,7)</f>
+        <v>15.843733142229745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>20911</v>
+      </c>
+      <c r="B18">
+        <f>VLOOKUP($A18,Data!$A$2:$L$873,3)</f>
+        <v>110.4684924416264</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP($A18,Data!$A$2:$L$873,4)</f>
+        <v>46.78</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP($A18,Data!$A$2:$L$873,5)</f>
+        <v>1.73</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP($A18,Data!$A$2:$L$873,6)</f>
+        <v>3.4066700000000001</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP($A18,Data!$A$2:$L$873,7)</f>
+        <v>16.598110789114269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>21002</v>
+      </c>
+      <c r="B19">
+        <f>VLOOKUP($A19,Data!$A$2:$L$873,3)</f>
+        <v>108.27198996213124</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP($A19,Data!$A$2:$L$873,4)</f>
+        <v>45.84</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP($A19,Data!$A$2:$L$873,5)</f>
+        <v>1.75</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP($A19,Data!$A$2:$L$873,6)</f>
+        <v>3.4366699999999999</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP($A19,Data!$A$2:$L$873,7)</f>
+        <v>15.868942729452247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>21094</v>
+      </c>
+      <c r="B20">
+        <f>VLOOKUP($A20,Data!$A$2:$L$873,3)</f>
+        <v>109.03883262371572</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP($A20,Data!$A$2:$L$873,4)</f>
+        <v>40.35</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP($A20,Data!$A$2:$L$873,5)</f>
+        <v>1.78</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP($A20,Data!$A$2:$L$873,6)</f>
+        <v>3.4366699999999999</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP($A20,Data!$A$2:$L$873,7)</f>
+        <v>13.736242235298489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>21186</v>
+      </c>
+      <c r="B21">
+        <f>VLOOKUP($A21,Data!$A$2:$L$873,3)</f>
+        <v>117.09781808374686</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP($A21,Data!$A$2:$L$873,4)</f>
+        <v>41.26</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP($A21,Data!$A$2:$L$873,5)</f>
+        <v>1.77667</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP($A21,Data!$A$2:$L$873,6)</f>
+        <v>3.2933300000000001</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP($A21,Data!$A$2:$L$873,7)</f>
+        <v>13.784906390337683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>21276</v>
+      </c>
+      <c r="B22">
+        <f>VLOOKUP($A22,Data!$A$2:$L$873,3)</f>
+        <v>121.48402771221005</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP($A22,Data!$A$2:$L$873,4)</f>
+        <v>43.7</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP($A22,Data!$A$2:$L$873,5)</f>
+        <v>1.74333</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP($A22,Data!$A$2:$L$873,6)</f>
+        <v>3.07</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP($A22,Data!$A$2:$L$873,7)</f>
+        <v>14.323824968409234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>21367</v>
+      </c>
+      <c r="B23">
+        <f>VLOOKUP($A23,Data!$A$2:$L$873,3)</f>
+        <v>118.68630979556438</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP($A23,Data!$A$2:$L$873,4)</f>
+        <v>47.7</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP($A23,Data!$A$2:$L$873,5)</f>
+        <v>1.73</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP($A23,Data!$A$2:$L$873,6)</f>
+        <v>2.9133300000000002</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP($A23,Data!$A$2:$L$873,7)</f>
+        <v>15.544566891165928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>21459</v>
+      </c>
+      <c r="B24">
+        <f>VLOOKUP($A24,Data!$A$2:$L$873,3)</f>
+        <v>114.47194784497455</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP($A24,Data!$A$2:$L$873,4)</f>
+        <v>52.5</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP($A24,Data!$A$2:$L$873,5)</f>
+        <v>1.74333</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP($A24,Data!$A$2:$L$873,6)</f>
+        <v>2.8833299999999999</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP($A24,Data!$A$2:$L$873,7)</f>
+        <v>16.988883579386336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>21551</v>
+      </c>
+      <c r="B25">
+        <f>VLOOKUP($A25,Data!$A$2:$L$873,3)</f>
+        <v>112.89838431077885</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP($A25,Data!$A$2:$L$873,4)</f>
+        <v>54.77</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP($A25,Data!$A$2:$L$873,5)</f>
+        <v>1.7633300000000001</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP($A25,Data!$A$2:$L$873,6)</f>
+        <v>2.96333</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP($A25,Data!$A$2:$L$873,7)</f>
+        <v>17.759169263611426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>21641</v>
+      </c>
+      <c r="B26">
+        <f>VLOOKUP($A26,Data!$A$2:$L$873,3)</f>
+        <v>112.10255637401174</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP($A26,Data!$A$2:$L$873,4)</f>
+        <v>57.96</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP($A26,Data!$A$2:$L$873,5)</f>
+        <v>1.7833300000000001</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP($A26,Data!$A$2:$L$873,6)</f>
+        <v>3.2066699999999999</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP($A26,Data!$A$2:$L$873,7)</f>
+        <v>18.692721439594187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>21732</v>
+      </c>
+      <c r="B27">
+        <f>VLOOKUP($A27,Data!$A$2:$L$873,3)</f>
+        <v>111.23881250590929</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP($A27,Data!$A$2:$L$873,4)</f>
+        <v>59.4</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP($A27,Data!$A$2:$L$873,5)</f>
+        <v>1.8033300000000001</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP($A27,Data!$A$2:$L$873,6)</f>
+        <v>3.41</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP($A27,Data!$A$2:$L$873,7)</f>
+        <v>18.958803640750222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>21824</v>
+      </c>
+      <c r="B28">
+        <f>VLOOKUP($A28,Data!$A$2:$L$873,3)</f>
+        <v>111.75972767704461</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP($A28,Data!$A$2:$L$873,4)</f>
+        <v>57.23</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP($A28,Data!$A$2:$L$873,5)</f>
+        <v>1.8233299999999999</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP($A28,Data!$A$2:$L$873,6)</f>
+        <v>3.4166699999999999</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP($A28,Data!$A$2:$L$873,7)</f>
+        <v>18.07178913057022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>21916</v>
+      </c>
+      <c r="B29">
+        <f>VLOOKUP($A29,Data!$A$2:$L$873,3)</f>
+        <v>111.74159832524694</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP($A29,Data!$A$2:$L$873,4)</f>
+        <v>55.78</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP($A29,Data!$A$2:$L$873,5)</f>
+        <v>1.90333</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP($A29,Data!$A$2:$L$873,6)</f>
+        <v>3.39</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP($A29,Data!$A$2:$L$873,7)</f>
+        <v>17.54527510894599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>22007</v>
+      </c>
+      <c r="B30">
+        <f>VLOOKUP($A30,Data!$A$2:$L$873,3)</f>
+        <v>115.63763343272477</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP($A30,Data!$A$2:$L$873,4)</f>
+        <v>55.22</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP($A30,Data!$A$2:$L$873,5)</f>
+        <v>1.9466699999999999</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP($A30,Data!$A$2:$L$873,6)</f>
+        <v>3.34667</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP($A30,Data!$A$2:$L$873,7)</f>
+        <v>17.256170578727925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>22098</v>
+      </c>
+      <c r="B31">
+        <f>VLOOKUP($A31,Data!$A$2:$L$873,3)</f>
+        <v>122.21386301151982</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP($A31,Data!$A$2:$L$873,4)</f>
+        <v>56.51</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP($A31,Data!$A$2:$L$873,5)</f>
+        <v>1.95</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP($A31,Data!$A$2:$L$873,6)</f>
+        <v>3.2633299999999998</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP($A31,Data!$A$2:$L$873,7)</f>
+        <v>17.582113039577685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>22190</v>
+      </c>
+      <c r="B32">
+        <f>VLOOKUP($A32,Data!$A$2:$L$873,3)</f>
+        <v>122.61524751282987</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP($A32,Data!$A$2:$L$873,4)</f>
+        <v>55.47</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP($A32,Data!$A$2:$L$873,5)</f>
+        <v>1.95</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP($A32,Data!$A$2:$L$873,6)</f>
+        <v>3.27</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP($A32,Data!$A$2:$L$873,7)</f>
+        <v>17.146088452419015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>22282</v>
+      </c>
+      <c r="B33">
+        <f>VLOOKUP($A33,Data!$A$2:$L$873,3)</f>
+        <v>124.22825893638445</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP($A33,Data!$A$2:$L$873,4)</f>
+        <v>62.17</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP($A33,Data!$A$2:$L$873,5)</f>
+        <v>1.94333</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP($A33,Data!$A$2:$L$873,6)</f>
+        <v>3.21</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP($A33,Data!$A$2:$L$873,7)</f>
+        <v>19.234014498298368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>22372</v>
+      </c>
+      <c r="B34">
+        <f>VLOOKUP($A34,Data!$A$2:$L$873,3)</f>
+        <v>126.43988268613847</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP($A34,Data!$A$2:$L$873,4)</f>
+        <v>66.5</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP($A34,Data!$A$2:$L$873,5)</f>
+        <v>1.94</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP($A34,Data!$A$2:$L$873,6)</f>
+        <v>3.07</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP($A34,Data!$A$2:$L$873,7)</f>
+        <v>20.598606843297354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <v>22463</v>
+      </c>
+      <c r="B35">
+        <f>VLOOKUP($A35,Data!$A$2:$L$873,3)</f>
+        <v>125.01499864951342</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP($A35,Data!$A$2:$L$873,4)</f>
+        <v>67.790000000000006</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP($A35,Data!$A$2:$L$873,5)</f>
+        <v>1.95333</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP($A35,Data!$A$2:$L$873,6)</f>
+        <v>3.03667</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP($A35,Data!$A$2:$L$873,7)</f>
+        <v>20.941688475215198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>22555</v>
+      </c>
+      <c r="B36">
+        <f>VLOOKUP($A36,Data!$A$2:$L$873,3)</f>
+        <v>127.33752526219598</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP($A36,Data!$A$2:$L$873,4)</f>
+        <v>71.08</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP($A36,Data!$A$2:$L$873,5)</f>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP($A36,Data!$A$2:$L$873,6)</f>
+        <v>3.09667</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP($A36,Data!$A$2:$L$873,7)</f>
+        <v>21.857957721959679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <v>22647</v>
+      </c>
+      <c r="B37">
+        <f>VLOOKUP($A37,Data!$A$2:$L$873,3)</f>
+        <v>126.25131898870998</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP($A37,Data!$A$2:$L$873,4)</f>
+        <v>70.22</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP($A37,Data!$A$2:$L$873,5)</f>
+        <v>2.0333299999999999</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP($A37,Data!$A$2:$L$873,6)</f>
+        <v>3.25</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP($A37,Data!$A$2:$L$873,7)</f>
+        <v>21.451687754873387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>22737</v>
+      </c>
+      <c r="B38">
+        <f>VLOOKUP($A38,Data!$A$2:$L$873,3)</f>
+        <v>130.01199037498918</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP($A38,Data!$A$2:$L$873,4)</f>
+        <v>62.99</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP($A38,Data!$A$2:$L$873,5)</f>
+        <v>2.0533299999999999</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP($A38,Data!$A$2:$L$873,6)</f>
+        <v>3.40333</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP($A38,Data!$A$2:$L$873,7)</f>
+        <v>19.089367498116655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="20">
+        <v>22828</v>
+      </c>
+      <c r="B39">
+        <f>VLOOKUP($A39,Data!$A$2:$L$873,3)</f>
+        <v>129.38457940646862</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP($A39,Data!$A$2:$L$873,4)</f>
+        <v>58.52</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP($A39,Data!$A$2:$L$873,5)</f>
+        <v>2.0733299999999999</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP($A39,Data!$A$2:$L$873,6)</f>
+        <v>3.49</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP($A39,Data!$A$2:$L$873,7)</f>
+        <v>17.571262631045535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>22920</v>
+      </c>
+      <c r="B40">
+        <f>VLOOKUP($A40,Data!$A$2:$L$873,3)</f>
+        <v>131.95145920355648</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP($A40,Data!$A$2:$L$873,4)</f>
+        <v>60.04</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP($A40,Data!$A$2:$L$873,5)</f>
+        <v>2.1133299999999999</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP($A40,Data!$A$2:$L$873,6)</f>
+        <v>3.57667</v>
+      </c>
+      <c r="F40">
+        <f>VLOOKUP($A40,Data!$A$2:$L$873,7)</f>
+        <v>17.854386489497148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <v>23012</v>
+      </c>
+      <c r="B41">
+        <f>VLOOKUP($A41,Data!$A$2:$L$873,3)</f>
+        <v>133.78312006469727</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP($A41,Data!$A$2:$L$873,4)</f>
+        <v>65.92</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP($A41,Data!$A$2:$L$873,5)</f>
+        <v>2.1433300000000002</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP($A41,Data!$A$2:$L$873,6)</f>
+        <v>3.6833300000000002</v>
+      </c>
+      <c r="F41">
+        <f>VLOOKUP($A41,Data!$A$2:$L$873,7)</f>
+        <v>19.469191309671416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>23102</v>
+      </c>
+      <c r="B42">
+        <f>VLOOKUP($A42,Data!$A$2:$L$873,3)</f>
+        <v>134.22185545996049</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP($A42,Data!$A$2:$L$873,4)</f>
+        <v>70.14</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP($A42,Data!$A$2:$L$873,5)</f>
+        <v>2.1833300000000002</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP($A42,Data!$A$2:$L$873,6)</f>
+        <v>3.7533300000000001</v>
+      </c>
+      <c r="F42">
+        <f>VLOOKUP($A42,Data!$A$2:$L$873,7)</f>
+        <v>20.50758586495261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="20">
+        <v>23193</v>
+      </c>
+      <c r="B43">
+        <f>VLOOKUP($A43,Data!$A$2:$L$873,3)</f>
+        <v>135.01000031182048</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP($A43,Data!$A$2:$L$873,4)</f>
+        <v>70.98</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP($A43,Data!$A$2:$L$873,5)</f>
+        <v>2.2066699999999999</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP($A43,Data!$A$2:$L$873,6)</f>
+        <v>3.88</v>
+      </c>
+      <c r="F43">
+        <f>VLOOKUP($A43,Data!$A$2:$L$873,7)</f>
+        <v>20.47263790052768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
+        <v>23285</v>
+      </c>
+      <c r="B44">
+        <f>VLOOKUP($A44,Data!$A$2:$L$873,3)</f>
+        <v>134.73351709955392</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP($A44,Data!$A$2:$L$873,4)</f>
+        <v>72.62</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP($A44,Data!$A$2:$L$873,5)</f>
+        <v>2.2566700000000002</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP($A44,Data!$A$2:$L$873,6)</f>
+        <v>3.98</v>
+      </c>
+      <c r="F44">
+        <f>VLOOKUP($A44,Data!$A$2:$L$873,7)</f>
+        <v>20.720399335339703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="20">
+        <v>23377</v>
+      </c>
+      <c r="B45">
+        <f>VLOOKUP($A45,Data!$A$2:$L$873,3)</f>
+        <v>136.12559357702352</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP($A45,Data!$A$2:$L$873,4)</f>
+        <v>77.39</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP($A45,Data!$A$2:$L$873,5)</f>
+        <v>2.3133300000000001</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP($A45,Data!$A$2:$L$873,6)</f>
+        <v>4.0733300000000003</v>
+      </c>
+      <c r="F45">
+        <f>VLOOKUP($A45,Data!$A$2:$L$873,7)</f>
+        <v>21.832670826710324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
+        <v>23468</v>
+      </c>
+      <c r="B46">
+        <f>VLOOKUP($A46,Data!$A$2:$L$873,3)</f>
+        <v>136.78457827824982</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP($A46,Data!$A$2:$L$873,4)</f>
+        <v>80.72</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP($A46,Data!$A$2:$L$873,5)</f>
+        <v>2.3633299999999999</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP($A46,Data!$A$2:$L$873,6)</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F46">
+        <f>VLOOKUP($A46,Data!$A$2:$L$873,7)</f>
+        <v>22.574330769563833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="20">
+        <v>23559</v>
+      </c>
+      <c r="B47">
+        <f>VLOOKUP($A47,Data!$A$2:$L$873,3)</f>
+        <v>138.55316130470038</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP($A47,Data!$A$2:$L$873,4)</f>
+        <v>82</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP($A47,Data!$A$2:$L$873,5)</f>
+        <v>2.42</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP($A47,Data!$A$2:$L$873,6)</f>
+        <v>4.3766699999999998</v>
+      </c>
+      <c r="F47">
+        <f>VLOOKUP($A47,Data!$A$2:$L$873,7)</f>
+        <v>22.650407292938802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="19">
+        <v>23651</v>
+      </c>
+      <c r="B48">
+        <f>VLOOKUP($A48,Data!$A$2:$L$873,3)</f>
+        <v>140.34788539897437</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP($A48,Data!$A$2:$L$873,4)</f>
+        <v>85.44</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP($A48,Data!$A$2:$L$873,5)</f>
+        <v>2.48</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP($A48,Data!$A$2:$L$873,6)</f>
+        <v>4.4966699999999999</v>
+      </c>
+      <c r="F48">
+        <f>VLOOKUP($A48,Data!$A$2:$L$873,7)</f>
+        <v>23.225019793095818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="20">
+        <v>23743</v>
+      </c>
+      <c r="B49">
+        <f>VLOOKUP($A49,Data!$A$2:$L$873,3)</f>
+        <v>141.4817626561009</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP($A49,Data!$A$2:$L$873,4)</f>
+        <v>86.75</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP($A49,Data!$A$2:$L$873,5)</f>
+        <v>2.5333299999999999</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP($A49,Data!$A$2:$L$873,6)</f>
+        <v>4.5933299999999999</v>
+      </c>
+      <c r="F49">
+        <f>VLOOKUP($A49,Data!$A$2:$L$873,7)</f>
+        <v>23.372068272751331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>23833</v>
+      </c>
+      <c r="B50">
+        <f>VLOOKUP($A50,Data!$A$2:$L$873,3)</f>
+        <v>142.74445005699152</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP($A50,Data!$A$2:$L$873,4)</f>
+        <v>89.28</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP($A50,Data!$A$2:$L$873,5)</f>
+        <v>2.59</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP($A50,Data!$A$2:$L$873,6)</f>
+        <v>4.7333299999999996</v>
+      </c>
+      <c r="F50">
+        <f>VLOOKUP($A50,Data!$A$2:$L$873,7)</f>
+        <v>23.708808308861943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="20">
+        <v>23924</v>
+      </c>
+      <c r="B51">
+        <f>VLOOKUP($A51,Data!$A$2:$L$873,3)</f>
+        <v>144.13749847565458</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP($A51,Data!$A$2:$L$873,4)</f>
+        <v>86.49</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP($A51,Data!$A$2:$L$873,5)</f>
+        <v>2.6433300000000002</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP($A51,Data!$A$2:$L$873,6)</f>
+        <v>4.8866699999999996</v>
+      </c>
+      <c r="F51">
+        <f>VLOOKUP($A51,Data!$A$2:$L$873,7)</f>
+        <v>22.665971845964393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>24016</v>
+      </c>
+      <c r="B52">
+        <f>VLOOKUP($A52,Data!$A$2:$L$873,3)</f>
+        <v>143.49334526028875</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP($A52,Data!$A$2:$L$873,4)</f>
+        <v>92.15</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP($A52,Data!$A$2:$L$873,5)</f>
+        <v>2.7</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP($A52,Data!$A$2:$L$873,6)</f>
+        <v>5.05</v>
+      </c>
+      <c r="F52">
+        <f>VLOOKUP($A52,Data!$A$2:$L$873,7)</f>
+        <v>23.92546115667373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="20">
+        <v>24108</v>
+      </c>
+      <c r="B53">
+        <f>VLOOKUP($A53,Data!$A$2:$L$873,3)</f>
+        <v>141.94511474922894</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP($A53,Data!$A$2:$L$873,4)</f>
+        <v>92.69</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP($A53,Data!$A$2:$L$873,5)</f>
+        <v>2.76</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP($A53,Data!$A$2:$L$873,6)</f>
+        <v>5.24</v>
+      </c>
+      <c r="F53">
+        <f>VLOOKUP($A53,Data!$A$2:$L$873,7)</f>
+        <v>23.700027145579401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
+        <v>24198</v>
+      </c>
+      <c r="B54">
+        <f>VLOOKUP($A54,Data!$A$2:$L$873,3)</f>
+        <v>142.50342384172941</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP($A54,Data!$A$2:$L$873,4)</f>
+        <v>86.78</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP($A54,Data!$A$2:$L$873,5)</f>
+        <v>2.8133300000000001</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP($A54,Data!$A$2:$L$873,6)</f>
+        <v>5.38</v>
+      </c>
+      <c r="F54">
+        <f>VLOOKUP($A54,Data!$A$2:$L$873,7)</f>
+        <v>21.852177976763095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="20">
+        <v>24289</v>
+      </c>
+      <c r="B55">
+        <f>VLOOKUP($A55,Data!$A$2:$L$873,3)</f>
+        <v>141.35907909494594</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP($A55,Data!$A$2:$L$873,4)</f>
+        <v>80.650000000000006</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP($A55,Data!$A$2:$L$873,5)</f>
+        <v>2.87</v>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP($A55,Data!$A$2:$L$873,6)</f>
+        <v>5.4766700000000004</v>
+      </c>
+      <c r="F55">
+        <f>VLOOKUP($A55,Data!$A$2:$L$873,7)</f>
+        <v>19.913903864009814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="19">
+        <v>24381</v>
+      </c>
+      <c r="B56">
+        <f>VLOOKUP($A56,Data!$A$2:$L$873,3)</f>
+        <v>144.03426715828331</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP($A56,Data!$A$2:$L$873,4)</f>
+        <v>80.989999999999995</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP($A56,Data!$A$2:$L$873,5)</f>
+        <v>2.8766699999999998</v>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP($A56,Data!$A$2:$L$873,6)</f>
+        <v>5.5233299999999996</v>
+      </c>
+      <c r="F56">
+        <f>VLOOKUP($A56,Data!$A$2:$L$873,7)</f>
+        <v>19.711251211928971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="20">
+        <v>24473</v>
+      </c>
+      <c r="B57">
+        <f>VLOOKUP($A57,Data!$A$2:$L$873,3)</f>
+        <v>150.97451934576293</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP($A57,Data!$A$2:$L$873,4)</f>
+        <v>87.36</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP($A57,Data!$A$2:$L$873,5)</f>
+        <v>2.89</v>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP($A57,Data!$A$2:$L$873,6)</f>
+        <v>5.5166700000000004</v>
+      </c>
+      <c r="F57">
+        <f>VLOOKUP($A57,Data!$A$2:$L$873,7)</f>
+        <v>21.074443163678438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
+        <v>24563</v>
+      </c>
+      <c r="B58">
+        <f>VLOOKUP($A58,Data!$A$2:$L$873,3)</f>
+        <v>149.59592238227182</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP($A58,Data!$A$2:$L$873,4)</f>
+        <v>92.59</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP($A58,Data!$A$2:$L$873,5)</f>
+        <v>2.9</v>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP($A58,Data!$A$2:$L$873,6)</f>
+        <v>5.41</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP($A58,Data!$A$2:$L$873,7)</f>
+        <v>21.948477389658404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="20">
+        <v>24654</v>
+      </c>
+      <c r="B59">
+        <f>VLOOKUP($A59,Data!$A$2:$L$873,3)</f>
+        <v>147.03884228446171</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP($A59,Data!$A$2:$L$873,4)</f>
+        <v>94.49</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP($A59,Data!$A$2:$L$873,5)</f>
+        <v>2.9133300000000002</v>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP($A59,Data!$A$2:$L$873,6)</f>
+        <v>5.32</v>
+      </c>
+      <c r="F59">
+        <f>VLOOKUP($A59,Data!$A$2:$L$873,7)</f>
+        <v>22.030627049126025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="19">
+        <v>24746</v>
+      </c>
+      <c r="B60">
+        <f>VLOOKUP($A60,Data!$A$2:$L$873,3)</f>
+        <v>143.64185101868381</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP($A60,Data!$A$2:$L$873,4)</f>
+        <v>92.66</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP($A60,Data!$A$2:$L$873,5)</f>
+        <v>2.92</v>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP($A60,Data!$A$2:$L$873,6)</f>
+        <v>5.31</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP($A60,Data!$A$2:$L$873,7)</f>
+        <v>21.26310296833628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="20">
+        <v>24838</v>
+      </c>
+      <c r="B61">
+        <f>VLOOKUP($A61,Data!$A$2:$L$873,3)</f>
+        <v>146.78680964987095</v>
+      </c>
+      <c r="C61">
+        <f>VLOOKUP($A61,Data!$A$2:$L$873,4)</f>
+        <v>90.75</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP($A61,Data!$A$2:$L$873,5)</f>
+        <v>2.94</v>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP($A61,Data!$A$2:$L$873,6)</f>
+        <v>5.3666700000000001</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP($A61,Data!$A$2:$L$873,7)</f>
+        <v>20.424992376214231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
+        <v>24929</v>
+      </c>
+      <c r="B62">
+        <f>VLOOKUP($A62,Data!$A$2:$L$873,3)</f>
+        <v>146.64138642924397</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP($A62,Data!$A$2:$L$873,4)</f>
+        <v>97.87</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP($A62,Data!$A$2:$L$873,5)</f>
+        <v>2.9766699999999999</v>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP($A62,Data!$A$2:$L$873,6)</f>
+        <v>5.4833299999999996</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP($A62,Data!$A$2:$L$873,7)</f>
+        <v>21.630227142779887</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="20">
+        <v>25020</v>
+      </c>
+      <c r="B63">
+        <f>VLOOKUP($A63,Data!$A$2:$L$873,3)</f>
+        <v>152.69833863541442</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP($A63,Data!$A$2:$L$873,4)</f>
+        <v>98.11</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP($A63,Data!$A$2:$L$873,5)</f>
+        <v>3.01667</v>
+      </c>
+      <c r="E63">
+        <f>VLOOKUP($A63,Data!$A$2:$L$873,6)</f>
+        <v>5.6</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP($A63,Data!$A$2:$L$873,7)</f>
+        <v>21.13776679361786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>25112</v>
+      </c>
+      <c r="B64">
+        <f>VLOOKUP($A64,Data!$A$2:$L$873,3)</f>
+        <v>152.23503176760391</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP($A64,Data!$A$2:$L$873,4)</f>
+        <v>105.4</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP($A64,Data!$A$2:$L$873,5)</f>
+        <v>3.05667</v>
+      </c>
+      <c r="E64">
+        <f>VLOOKUP($A64,Data!$A$2:$L$873,6)</f>
+        <v>5.6933299999999996</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP($A64,Data!$A$2:$L$873,7)</f>
+        <v>22.195529227158154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="20">
+        <v>25204</v>
+      </c>
+      <c r="B65">
+        <f>VLOOKUP($A65,Data!$A$2:$L$873,3)</f>
+        <v>147.96264560658645</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP($A65,Data!$A$2:$L$873,4)</f>
+        <v>101.5</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP($A65,Data!$A$2:$L$873,5)</f>
+        <v>3.09</v>
+      </c>
+      <c r="E65">
+        <f>VLOOKUP($A65,Data!$A$2:$L$873,6)</f>
+        <v>5.78</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP($A65,Data!$A$2:$L$873,7)</f>
+        <v>20.895729901987238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
+        <v>25294</v>
+      </c>
+      <c r="B66">
+        <f>VLOOKUP($A66,Data!$A$2:$L$873,3)</f>
+        <v>150.17459687166479</v>
+      </c>
+      <c r="C66">
+        <f>VLOOKUP($A66,Data!$A$2:$L$873,4)</f>
+        <v>104.6</v>
+      </c>
+      <c r="D66">
+        <f>VLOOKUP($A66,Data!$A$2:$L$873,5)</f>
+        <v>3.12</v>
+      </c>
+      <c r="E66">
+        <f>VLOOKUP($A66,Data!$A$2:$L$873,6)</f>
+        <v>5.82667</v>
+      </c>
+      <c r="F66">
+        <f>VLOOKUP($A66,Data!$A$2:$L$873,7)</f>
+        <v>20.972258271972102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="20">
+        <v>25385</v>
+      </c>
+      <c r="B67">
+        <f>VLOOKUP($A67,Data!$A$2:$L$873,3)</f>
+        <v>147.62323628647124</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP($A67,Data!$A$2:$L$873,4)</f>
+        <v>94.18</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP($A67,Data!$A$2:$L$873,5)</f>
+        <v>3.1433300000000002</v>
+      </c>
+      <c r="E67">
+        <f>VLOOKUP($A67,Data!$A$2:$L$873,6)</f>
+        <v>5.8566700000000003</v>
+      </c>
+      <c r="F67">
+        <f>VLOOKUP($A67,Data!$A$2:$L$873,7)</f>
+        <v>18.429515590207746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
+        <v>25477</v>
+      </c>
+      <c r="B68">
+        <f>VLOOKUP($A68,Data!$A$2:$L$873,3)</f>
+        <v>147.16118144171793</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP($A68,Data!$A$2:$L$873,4)</f>
+        <v>96.21</v>
+      </c>
+      <c r="D68">
+        <f>VLOOKUP($A68,Data!$A$2:$L$873,5)</f>
+        <v>3.1566700000000001</v>
+      </c>
+      <c r="E68">
+        <f>VLOOKUP($A68,Data!$A$2:$L$873,6)</f>
+        <v>5.8533299999999997</v>
+      </c>
+      <c r="F68">
+        <f>VLOOKUP($A68,Data!$A$2:$L$873,7)</f>
+        <v>18.437760084691046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="20">
+        <v>25569</v>
+      </c>
+      <c r="B69">
+        <f>VLOOKUP($A69,Data!$A$2:$L$873,3)</f>
+        <v>141.66433390547346</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP($A69,Data!$A$2:$L$873,4)</f>
+        <v>87.16</v>
+      </c>
+      <c r="D69">
+        <f>VLOOKUP($A69,Data!$A$2:$L$873,5)</f>
+        <v>3.1666699999999999</v>
+      </c>
+      <c r="E69">
+        <f>VLOOKUP($A69,Data!$A$2:$L$873,6)</f>
+        <v>5.73</v>
+      </c>
+      <c r="F69">
+        <f>VLOOKUP($A69,Data!$A$2:$L$873,7)</f>
+        <v>16.372586787159854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
+        <v>25659</v>
+      </c>
+      <c r="B70">
+        <f>VLOOKUP($A70,Data!$A$2:$L$873,3)</f>
+        <v>143.39948604597396</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP($A70,Data!$A$2:$L$873,4)</f>
+        <v>76.06</v>
+      </c>
+      <c r="D70">
+        <f>VLOOKUP($A70,Data!$A$2:$L$873,5)</f>
+        <v>3.1766700000000001</v>
+      </c>
+      <c r="E70">
+        <f>VLOOKUP($A70,Data!$A$2:$L$873,6)</f>
+        <v>5.5933299999999999</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP($A70,Data!$A$2:$L$873,7)</f>
+        <v>13.983836060789194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="20">
+        <v>25750</v>
+      </c>
+      <c r="B71">
+        <f>VLOOKUP($A71,Data!$A$2:$L$873,3)</f>
+        <v>150.6616902687613</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP($A71,Data!$A$2:$L$873,4)</f>
+        <v>77.92</v>
+      </c>
+      <c r="D71">
+        <f>VLOOKUP($A71,Data!$A$2:$L$873,5)</f>
+        <v>3.1866699999999999</v>
+      </c>
+      <c r="E71">
+        <f>VLOOKUP($A71,Data!$A$2:$L$873,6)</f>
+        <v>5.4666699999999997</v>
+      </c>
+      <c r="F71">
+        <f>VLOOKUP($A71,Data!$A$2:$L$873,7)</f>
+        <v>14.10045651681545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
+        <v>25842</v>
+      </c>
+      <c r="B72">
+        <f>VLOOKUP($A72,Data!$A$2:$L$873,3)</f>
+        <v>153.98510449354157</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP($A72,Data!$A$2:$L$873,4)</f>
+        <v>84.28</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP($A72,Data!$A$2:$L$873,5)</f>
+        <v>3.1566700000000001</v>
+      </c>
+      <c r="E72">
+        <f>VLOOKUP($A72,Data!$A$2:$L$873,6)</f>
+        <v>5.2833300000000003</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP($A72,Data!$A$2:$L$873,7)</f>
+        <v>14.950761908791737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="20">
+        <v>25934</v>
+      </c>
+      <c r="B73">
+        <f>VLOOKUP($A73,Data!$A$2:$L$873,3)</f>
+        <v>170.9230249727562</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP($A73,Data!$A$2:$L$873,4)</f>
+        <v>97.11</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP($A73,Data!$A$2:$L$873,5)</f>
+        <v>3.12</v>
+      </c>
+      <c r="E73">
+        <f>VLOOKUP($A73,Data!$A$2:$L$873,6)</f>
+        <v>5.16</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP($A73,Data!$A$2:$L$873,7)</f>
+        <v>17.034534781502131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="19">
+        <v>26024</v>
+      </c>
+      <c r="B74">
+        <f>VLOOKUP($A74,Data!$A$2:$L$873,3)</f>
+        <v>173.46649443162178</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP($A74,Data!$A$2:$L$873,4)</f>
+        <v>101.6</v>
+      </c>
+      <c r="D74">
+        <f>VLOOKUP($A74,Data!$A$2:$L$873,5)</f>
+        <v>3.1033300000000001</v>
+      </c>
+      <c r="E74">
+        <f>VLOOKUP($A74,Data!$A$2:$L$873,6)</f>
+        <v>5.2533300000000001</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP($A74,Data!$A$2:$L$873,7)</f>
+        <v>17.564153279699379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="20">
+        <v>26115</v>
+      </c>
+      <c r="B75">
+        <f>VLOOKUP($A75,Data!$A$2:$L$873,3)</f>
+        <v>166.71032204603148</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP($A75,Data!$A$2:$L$873,4)</f>
+        <v>97.24</v>
+      </c>
+      <c r="D75">
+        <f>VLOOKUP($A75,Data!$A$2:$L$873,5)</f>
+        <v>3.0933299999999999</v>
+      </c>
+      <c r="E75">
+        <f>VLOOKUP($A75,Data!$A$2:$L$873,6)</f>
+        <v>5.3566700000000003</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP($A75,Data!$A$2:$L$873,7)</f>
+        <v>16.51944944305156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="19">
+        <v>26207</v>
+      </c>
+      <c r="B76">
+        <f>VLOOKUP($A76,Data!$A$2:$L$873,3)</f>
+        <v>181.75345875974534</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP($A76,Data!$A$2:$L$873,4)</f>
+        <v>92.78</v>
+      </c>
+      <c r="D76">
+        <f>VLOOKUP($A76,Data!$A$2:$L$873,5)</f>
+        <v>3.07667</v>
+      </c>
+      <c r="E76">
+        <f>VLOOKUP($A76,Data!$A$2:$L$873,6)</f>
+        <v>5.52</v>
+      </c>
+      <c r="F76">
+        <f>VLOOKUP($A76,Data!$A$2:$L$873,7)</f>
+        <v>15.638712654326651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="20">
+        <v>26299</v>
+      </c>
+      <c r="B77">
+        <f>VLOOKUP($A77,Data!$A$2:$L$873,3)</f>
+        <v>181.473511097363</v>
+      </c>
+      <c r="C77">
+        <f>VLOOKUP($A77,Data!$A$2:$L$873,4)</f>
+        <v>105.2</v>
+      </c>
+      <c r="D77">
+        <f>VLOOKUP($A77,Data!$A$2:$L$873,5)</f>
+        <v>3.07</v>
+      </c>
+      <c r="E77">
+        <f>VLOOKUP($A77,Data!$A$2:$L$873,6)</f>
+        <v>5.7366700000000002</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP($A77,Data!$A$2:$L$873,7)</f>
+        <v>17.464147605486168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="19">
+        <v>26390</v>
+      </c>
+      <c r="B78">
+        <f>VLOOKUP($A78,Data!$A$2:$L$873,3)</f>
+        <v>183.57282453370996</v>
+      </c>
+      <c r="C78">
+        <f>VLOOKUP($A78,Data!$A$2:$L$873,4)</f>
+        <v>107.7</v>
+      </c>
+      <c r="D78">
+        <f>VLOOKUP($A78,Data!$A$2:$L$873,5)</f>
+        <v>3.07</v>
+      </c>
+      <c r="E78">
+        <f>VLOOKUP($A78,Data!$A$2:$L$873,6)</f>
+        <v>5.8633300000000004</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP($A78,Data!$A$2:$L$873,7)</f>
+        <v>17.662646200372553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="20">
+        <v>26481</v>
+      </c>
+      <c r="B79">
+        <f>VLOOKUP($A79,Data!$A$2:$L$873,3)</f>
+        <v>186.66185286656142</v>
+      </c>
+      <c r="C79">
+        <f>VLOOKUP($A79,Data!$A$2:$L$873,4)</f>
+        <v>111</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP($A79,Data!$A$2:$L$873,5)</f>
+        <v>3.07667</v>
+      </c>
+      <c r="E79">
+        <f>VLOOKUP($A79,Data!$A$2:$L$873,6)</f>
+        <v>6.0266700000000002</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP($A79,Data!$A$2:$L$873,7)</f>
+        <v>17.943404688029798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="19">
+        <v>26573</v>
+      </c>
+      <c r="B80">
+        <f>VLOOKUP($A80,Data!$A$2:$L$873,3)</f>
+        <v>185.66839598352962</v>
+      </c>
+      <c r="C80">
+        <f>VLOOKUP($A80,Data!$A$2:$L$873,4)</f>
+        <v>115.1</v>
+      </c>
+      <c r="D80">
+        <f>VLOOKUP($A80,Data!$A$2:$L$873,5)</f>
+        <v>3.1266699999999998</v>
+      </c>
+      <c r="E80">
+        <f>VLOOKUP($A80,Data!$A$2:$L$873,6)</f>
+        <v>6.2333299999999996</v>
+      </c>
+      <c r="F80">
+        <f>VLOOKUP($A80,Data!$A$2:$L$873,7)</f>
+        <v>18.338894714968056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="20">
+        <v>26665</v>
+      </c>
+      <c r="B81">
+        <f>VLOOKUP($A81,Data!$A$2:$L$873,3)</f>
+        <v>186.87350055534293</v>
+      </c>
+      <c r="C81">
+        <f>VLOOKUP($A81,Data!$A$2:$L$873,4)</f>
+        <v>114.2</v>
+      </c>
+      <c r="D81">
+        <f>VLOOKUP($A81,Data!$A$2:$L$873,5)</f>
+        <v>3.1633300000000002</v>
+      </c>
+      <c r="E81">
+        <f>VLOOKUP($A81,Data!$A$2:$L$873,6)</f>
+        <v>6.5466699999999998</v>
+      </c>
+      <c r="F81">
+        <f>VLOOKUP($A81,Data!$A$2:$L$873,7)</f>
+        <v>17.889889599193751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="19">
+        <v>26755</v>
+      </c>
+      <c r="B82">
+        <f>VLOOKUP($A82,Data!$A$2:$L$873,3)</f>
+        <v>187.82736200637186</v>
+      </c>
+      <c r="C82">
+        <f>VLOOKUP($A82,Data!$A$2:$L$873,4)</f>
+        <v>107.2</v>
+      </c>
+      <c r="D82">
+        <f>VLOOKUP($A82,Data!$A$2:$L$873,5)</f>
+        <v>3.2033299999999998</v>
+      </c>
+      <c r="E82">
+        <f>VLOOKUP($A82,Data!$A$2:$L$873,6)</f>
+        <v>6.9433299999999996</v>
+      </c>
+      <c r="F82">
+        <f>VLOOKUP($A82,Data!$A$2:$L$873,7)</f>
+        <v>16.314338759668569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="20">
+        <v>26846</v>
+      </c>
+      <c r="B83">
+        <f>VLOOKUP($A83,Data!$A$2:$L$873,3)</f>
+        <v>181.49390721169883</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP($A83,Data!$A$2:$L$873,4)</f>
+        <v>103.8</v>
+      </c>
+      <c r="D83">
+        <f>VLOOKUP($A83,Data!$A$2:$L$873,5)</f>
+        <v>3.2533300000000001</v>
+      </c>
+      <c r="E83">
+        <f>VLOOKUP($A83,Data!$A$2:$L$873,6)</f>
+        <v>7.3833299999999999</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP($A83,Data!$A$2:$L$873,7)</f>
+        <v>15.278501094706121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="19">
+        <v>26938</v>
+      </c>
+      <c r="B84">
+        <f>VLOOKUP($A84,Data!$A$2:$L$873,3)</f>
+        <v>194.29804190264898</v>
+      </c>
+      <c r="C84">
+        <f>VLOOKUP($A84,Data!$A$2:$L$873,4)</f>
+        <v>102</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP($A84,Data!$A$2:$L$873,5)</f>
+        <v>3.3433299999999999</v>
+      </c>
+      <c r="E84">
+        <f>VLOOKUP($A84,Data!$A$2:$L$873,6)</f>
+        <v>7.8466699999999996</v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP($A84,Data!$A$2:$L$873,7)</f>
+        <v>14.651845159710566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="20">
+        <v>27030</v>
+      </c>
+      <c r="B85">
+        <f>VLOOKUP($A85,Data!$A$2:$L$873,3)</f>
+        <v>193.58282949653295</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP($A85,Data!$A$2:$L$873,4)</f>
+        <v>93.45</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP($A85,Data!$A$2:$L$873,5)</f>
+        <v>3.42</v>
+      </c>
+      <c r="E85">
+        <f>VLOOKUP($A85,Data!$A$2:$L$873,6)</f>
+        <v>8.2266700000000004</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP($A85,Data!$A$2:$L$873,7)</f>
+        <v>12.957321280205386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="19">
+        <v>27120</v>
+      </c>
+      <c r="B86">
+        <f>VLOOKUP($A86,Data!$A$2:$L$873,3)</f>
+        <v>188.22464302070486</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP($A86,Data!$A$2:$L$873,4)</f>
+        <v>89.67</v>
+      </c>
+      <c r="D86">
+        <f>VLOOKUP($A86,Data!$A$2:$L$873,5)</f>
+        <v>3.48</v>
+      </c>
+      <c r="E86">
+        <f>VLOOKUP($A86,Data!$A$2:$L$873,6)</f>
+        <v>8.4866700000000002</v>
+      </c>
+      <c r="F86">
+        <f>VLOOKUP($A86,Data!$A$2:$L$873,7)</f>
+        <v>11.995436947329654</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="20">
+        <v>27211</v>
+      </c>
+      <c r="B87">
+        <f>VLOOKUP($A87,Data!$A$2:$L$873,3)</f>
+        <v>188.84280131407752</v>
+      </c>
+      <c r="C87">
+        <f>VLOOKUP($A87,Data!$A$2:$L$873,4)</f>
+        <v>76.03</v>
+      </c>
+      <c r="D87">
+        <f>VLOOKUP($A87,Data!$A$2:$L$873,5)</f>
+        <v>3.56</v>
+      </c>
+      <c r="E87">
+        <f>VLOOKUP($A87,Data!$A$2:$L$873,6)</f>
+        <v>8.8633299999999995</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP($A87,Data!$A$2:$L$873,7)</f>
+        <v>9.824195723141198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="19">
+        <v>27303</v>
+      </c>
+      <c r="B88">
+        <f>VLOOKUP($A88,Data!$A$2:$L$873,3)</f>
+        <v>193.92658039207905</v>
+      </c>
+      <c r="C88">
+        <f>VLOOKUP($A88,Data!$A$2:$L$873,4)</f>
+        <v>71.739999999999995</v>
+      </c>
+      <c r="D88">
+        <f>VLOOKUP($A88,Data!$A$2:$L$873,5)</f>
+        <v>3.59667</v>
+      </c>
+      <c r="E88">
+        <f>VLOOKUP($A88,Data!$A$2:$L$873,6)</f>
+        <v>9.0366700000000009</v>
+      </c>
+      <c r="F88">
+        <f>VLOOKUP($A88,Data!$A$2:$L$873,7)</f>
+        <v>8.9489845127556062</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="20">
+        <v>27395</v>
+      </c>
+      <c r="B89">
+        <f>VLOOKUP($A89,Data!$A$2:$L$873,3)</f>
+        <v>201.15683995508414</v>
+      </c>
+      <c r="C89">
+        <f>VLOOKUP($A89,Data!$A$2:$L$873,4)</f>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D89">
+        <f>VLOOKUP($A89,Data!$A$2:$L$873,5)</f>
+        <v>3.6466699999999999</v>
+      </c>
+      <c r="E89">
+        <f>VLOOKUP($A89,Data!$A$2:$L$873,6)</f>
+        <v>8.7433300000000003</v>
+      </c>
+      <c r="F89">
+        <f>VLOOKUP($A89,Data!$A$2:$L$873,7)</f>
+        <v>9.7622467161664712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="19">
+        <v>27485</v>
+      </c>
+      <c r="B90">
+        <f>VLOOKUP($A90,Data!$A$2:$L$873,3)</f>
+        <v>194.4754409448667</v>
+      </c>
+      <c r="C90">
+        <f>VLOOKUP($A90,Data!$A$2:$L$873,4)</f>
+        <v>90.1</v>
+      </c>
+      <c r="D90">
+        <f>VLOOKUP($A90,Data!$A$2:$L$873,5)</f>
+        <v>3.6966700000000001</v>
+      </c>
+      <c r="E90">
+        <f>VLOOKUP($A90,Data!$A$2:$L$873,6)</f>
+        <v>8.2866700000000009</v>
+      </c>
+      <c r="F90">
+        <f>VLOOKUP($A90,Data!$A$2:$L$873,7)</f>
+        <v>10.818139119335813</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="20">
+        <v>27576</v>
+      </c>
+      <c r="B91">
+        <f>VLOOKUP($A91,Data!$A$2:$L$873,3)</f>
+        <v>199.87425970722757</v>
+      </c>
+      <c r="C91">
+        <f>VLOOKUP($A91,Data!$A$2:$L$873,4)</f>
+        <v>85.71</v>
+      </c>
+      <c r="D91">
+        <f>VLOOKUP($A91,Data!$A$2:$L$873,5)</f>
+        <v>3.71</v>
+      </c>
+      <c r="E91">
+        <f>VLOOKUP($A91,Data!$A$2:$L$873,6)</f>
+        <v>7.8933299999999997</v>
+      </c>
+      <c r="F91">
+        <f>VLOOKUP($A91,Data!$A$2:$L$873,7)</f>
+        <v>10.089769593328025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="19">
+        <v>27668</v>
+      </c>
+      <c r="B92">
+        <f>VLOOKUP($A92,Data!$A$2:$L$873,3)</f>
+        <v>207.98849202012971</v>
+      </c>
+      <c r="C92">
+        <f>VLOOKUP($A92,Data!$A$2:$L$873,4)</f>
+        <v>90.07</v>
+      </c>
+      <c r="D92">
+        <f>VLOOKUP($A92,Data!$A$2:$L$873,5)</f>
+        <v>3.69</v>
+      </c>
+      <c r="E92">
+        <f>VLOOKUP($A92,Data!$A$2:$L$873,6)</f>
+        <v>7.82667</v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP($A92,Data!$A$2:$L$873,7)</f>
+        <v>10.435859457947902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="20">
+        <v>27760</v>
+      </c>
+      <c r="B93">
+        <f>VLOOKUP($A93,Data!$A$2:$L$873,3)</f>
+        <v>213.69112027359466</v>
+      </c>
+      <c r="C93">
+        <f>VLOOKUP($A93,Data!$A$2:$L$873,4)</f>
+        <v>100.6</v>
+      </c>
+      <c r="D93">
+        <f>VLOOKUP($A93,Data!$A$2:$L$873,5)</f>
+        <v>3.6866699999999999</v>
+      </c>
+      <c r="E93">
+        <f>VLOOKUP($A93,Data!$A$2:$L$873,6)</f>
+        <v>8.1933299999999996</v>
+      </c>
+      <c r="F93">
+        <f>VLOOKUP($A93,Data!$A$2:$L$873,7)</f>
+        <v>11.586092994449697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="19">
+        <v>27851</v>
+      </c>
+      <c r="B94">
+        <f>VLOOKUP($A94,Data!$A$2:$L$873,3)</f>
+        <v>219.78466606204498</v>
+      </c>
+      <c r="C94">
+        <f>VLOOKUP($A94,Data!$A$2:$L$873,4)</f>
+        <v>101.2</v>
+      </c>
+      <c r="D94">
+        <f>VLOOKUP($A94,Data!$A$2:$L$873,5)</f>
+        <v>3.7366700000000002</v>
+      </c>
+      <c r="E94">
+        <f>VLOOKUP($A94,Data!$A$2:$L$873,6)</f>
+        <v>8.8566699999999994</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP($A94,Data!$A$2:$L$873,7)</f>
+        <v>11.532053585609429</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="20">
+        <v>27942</v>
+      </c>
+      <c r="B95">
+        <f>VLOOKUP($A95,Data!$A$2:$L$873,3)</f>
+        <v>221.22750724838005</v>
+      </c>
+      <c r="C95">
+        <f>VLOOKUP($A95,Data!$A$2:$L$873,4)</f>
+        <v>103.3</v>
+      </c>
+      <c r="D95">
+        <f>VLOOKUP($A95,Data!$A$2:$L$873,5)</f>
+        <v>3.82</v>
+      </c>
+      <c r="E95">
+        <f>VLOOKUP($A95,Data!$A$2:$L$873,6)</f>
+        <v>9.35</v>
+      </c>
+      <c r="F95">
+        <f>VLOOKUP($A95,Data!$A$2:$L$873,7)</f>
+        <v>11.597986002509257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="19">
+        <v>28034</v>
+      </c>
+      <c r="B96">
+        <f>VLOOKUP($A96,Data!$A$2:$L$873,3)</f>
+        <v>232.36687692830481</v>
+      </c>
+      <c r="C96">
+        <f>VLOOKUP($A96,Data!$A$2:$L$873,4)</f>
+        <v>101.2</v>
+      </c>
+      <c r="D96">
+        <f>VLOOKUP($A96,Data!$A$2:$L$873,5)</f>
+        <v>3.98333</v>
+      </c>
+      <c r="E96">
+        <f>VLOOKUP($A96,Data!$A$2:$L$873,6)</f>
+        <v>9.67</v>
+      </c>
+      <c r="F96">
+        <f>VLOOKUP($A96,Data!$A$2:$L$873,7)</f>
+        <v>11.248855860507968</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="20">
+        <v>28126</v>
+      </c>
+      <c r="B97">
+        <f>VLOOKUP($A97,Data!$A$2:$L$873,3)</f>
+        <v>236.7107140466025</v>
+      </c>
+      <c r="C97">
+        <f>VLOOKUP($A97,Data!$A$2:$L$873,4)</f>
+        <v>101</v>
+      </c>
+      <c r="D97">
+        <f>VLOOKUP($A97,Data!$A$2:$L$873,5)</f>
+        <v>4.1433299999999997</v>
+      </c>
+      <c r="E97">
+        <f>VLOOKUP($A97,Data!$A$2:$L$873,6)</f>
+        <v>9.9666700000000006</v>
+      </c>
+      <c r="F97">
+        <f>VLOOKUP($A97,Data!$A$2:$L$873,7)</f>
+        <v>11.014841854222778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="19">
+        <v>28216</v>
+      </c>
+      <c r="B98">
+        <f>VLOOKUP($A98,Data!$A$2:$L$873,3)</f>
+        <v>240.30082574196052</v>
+      </c>
+      <c r="C98">
+        <f>VLOOKUP($A98,Data!$A$2:$L$873,4)</f>
+        <v>98.76</v>
+      </c>
+      <c r="D98">
+        <f>VLOOKUP($A98,Data!$A$2:$L$873,5)</f>
+        <v>4.3033299999999999</v>
+      </c>
+      <c r="E98">
+        <f>VLOOKUP($A98,Data!$A$2:$L$873,6)</f>
+        <v>10.193300000000001</v>
+      </c>
+      <c r="F98">
+        <f>VLOOKUP($A98,Data!$A$2:$L$873,7)</f>
+        <v>10.548486693556997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="20">
+        <v>28307</v>
+      </c>
+      <c r="B99">
+        <f>VLOOKUP($A99,Data!$A$2:$L$873,3)</f>
+        <v>245.22696348264517</v>
+      </c>
+      <c r="C99">
+        <f>VLOOKUP($A99,Data!$A$2:$L$873,4)</f>
+        <v>97.75</v>
+      </c>
+      <c r="D99">
+        <f>VLOOKUP($A99,Data!$A$2:$L$873,5)</f>
+        <v>4.4533300000000002</v>
+      </c>
+      <c r="E99">
+        <f>VLOOKUP($A99,Data!$A$2:$L$873,6)</f>
+        <v>10.5167</v>
+      </c>
+      <c r="F99">
+        <f>VLOOKUP($A99,Data!$A$2:$L$873,7)</f>
+        <v>10.268385666710993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="19">
+        <v>28399</v>
+      </c>
+      <c r="B100">
+        <f>VLOOKUP($A100,Data!$A$2:$L$873,3)</f>
+        <v>246.35248222469528</v>
+      </c>
+      <c r="C100">
+        <f>VLOOKUP($A100,Data!$A$2:$L$873,4)</f>
+        <v>94.28</v>
+      </c>
+      <c r="D100">
+        <f>VLOOKUP($A100,Data!$A$2:$L$873,5)</f>
+        <v>4.6133300000000004</v>
+      </c>
+      <c r="E100">
+        <f>VLOOKUP($A100,Data!$A$2:$L$873,6)</f>
+        <v>10.77</v>
+      </c>
+      <c r="F100">
+        <f>VLOOKUP($A100,Data!$A$2:$L$873,7)</f>
+        <v>9.7662999836601951</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="20">
+        <v>28491</v>
+      </c>
+      <c r="B101">
+        <f>VLOOKUP($A101,Data!$A$2:$L$873,3)</f>
+        <v>245.68802386270744</v>
+      </c>
+      <c r="C101">
+        <f>VLOOKUP($A101,Data!$A$2:$L$873,4)</f>
+        <v>88.98</v>
+      </c>
+      <c r="D101">
+        <f>VLOOKUP($A101,Data!$A$2:$L$873,5)</f>
+        <v>4.7566699999999997</v>
+      </c>
+      <c r="E101">
+        <f>VLOOKUP($A101,Data!$A$2:$L$873,6)</f>
+        <v>10.9</v>
+      </c>
+      <c r="F101">
+        <f>VLOOKUP($A101,Data!$A$2:$L$873,7)</f>
+        <v>9.0452635707047335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="19">
+        <v>28581</v>
+      </c>
+      <c r="B102">
+        <f>VLOOKUP($A102,Data!$A$2:$L$873,3)</f>
+        <v>245.67792602725447</v>
+      </c>
+      <c r="C102">
+        <f>VLOOKUP($A102,Data!$A$2:$L$873,4)</f>
+        <v>97.41</v>
+      </c>
+      <c r="D102">
+        <f>VLOOKUP($A102,Data!$A$2:$L$873,5)</f>
+        <v>4.8733300000000002</v>
+      </c>
+      <c r="E102">
+        <f>VLOOKUP($A102,Data!$A$2:$L$873,6)</f>
+        <v>11.023300000000001</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP($A102,Data!$A$2:$L$873,7)</f>
+        <v>9.6349107285984417</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="20">
+        <v>28672</v>
+      </c>
+      <c r="B103">
+        <f>VLOOKUP($A103,Data!$A$2:$L$873,3)</f>
+        <v>245.63693772680264</v>
+      </c>
+      <c r="C103">
+        <f>VLOOKUP($A103,Data!$A$2:$L$873,4)</f>
+        <v>103.9</v>
+      </c>
+      <c r="D103">
+        <f>VLOOKUP($A103,Data!$A$2:$L$873,5)</f>
+        <v>4.9833299999999996</v>
+      </c>
+      <c r="E103">
+        <f>VLOOKUP($A103,Data!$A$2:$L$873,6)</f>
+        <v>11.343299999999999</v>
+      </c>
+      <c r="F103">
+        <f>VLOOKUP($A103,Data!$A$2:$L$873,7)</f>
+        <v>10.023970854003741</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="19">
+        <v>28764</v>
+      </c>
+      <c r="B104">
+        <f>VLOOKUP($A104,Data!$A$2:$L$873,3)</f>
+        <v>244.42681530363816</v>
+      </c>
+      <c r="C104">
+        <f>VLOOKUP($A104,Data!$A$2:$L$873,4)</f>
+        <v>94.71</v>
+      </c>
+      <c r="D104">
+        <f>VLOOKUP($A104,Data!$A$2:$L$873,5)</f>
+        <v>5.0533299999999999</v>
+      </c>
+      <c r="E104">
+        <f>VLOOKUP($A104,Data!$A$2:$L$873,6)</f>
+        <v>11.8233</v>
+      </c>
+      <c r="F104">
+        <f>VLOOKUP($A104,Data!$A$2:$L$873,7)</f>
+        <v>8.9284189022931404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="20">
+        <v>28856</v>
+      </c>
+      <c r="B105">
+        <f>VLOOKUP($A105,Data!$A$2:$L$873,3)</f>
+        <v>250.09872905794535</v>
+      </c>
+      <c r="C105">
+        <f>VLOOKUP($A105,Data!$A$2:$L$873,4)</f>
+        <v>98.23</v>
+      </c>
+      <c r="D105">
+        <f>VLOOKUP($A105,Data!$A$2:$L$873,5)</f>
+        <v>5.1566700000000001</v>
+      </c>
+      <c r="E105">
+        <f>VLOOKUP($A105,Data!$A$2:$L$873,6)</f>
+        <v>12.6533</v>
+      </c>
+      <c r="F105">
+        <f>VLOOKUP($A105,Data!$A$2:$L$873,7)</f>
+        <v>9.0037403710456214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="19">
+        <v>28946</v>
+      </c>
+      <c r="B106">
+        <f>VLOOKUP($A106,Data!$A$2:$L$873,3)</f>
+        <v>249.35209311012102</v>
+      </c>
+      <c r="C106">
+        <f>VLOOKUP($A106,Data!$A$2:$L$873,4)</f>
+        <v>99.73</v>
+      </c>
+      <c r="D106">
+        <f>VLOOKUP($A106,Data!$A$2:$L$873,5)</f>
+        <v>5.2933300000000001</v>
+      </c>
+      <c r="E106">
+        <f>VLOOKUP($A106,Data!$A$2:$L$873,6)</f>
+        <v>13.5267</v>
+      </c>
+      <c r="F106">
+        <f>VLOOKUP($A106,Data!$A$2:$L$873,7)</f>
+        <v>8.7943832898149452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="20">
+        <v>29037</v>
+      </c>
+      <c r="B107">
+        <f>VLOOKUP($A107,Data!$A$2:$L$873,3)</f>
+        <v>260.60260062050207</v>
+      </c>
+      <c r="C107">
+        <f>VLOOKUP($A107,Data!$A$2:$L$873,4)</f>
+        <v>107.4</v>
+      </c>
+      <c r="D107">
+        <f>VLOOKUP($A107,Data!$A$2:$L$873,5)</f>
+        <v>5.4533300000000002</v>
+      </c>
+      <c r="E107">
+        <f>VLOOKUP($A107,Data!$A$2:$L$873,6)</f>
+        <v>14.1967</v>
+      </c>
+      <c r="F107">
+        <f>VLOOKUP($A107,Data!$A$2:$L$873,7)</f>
+        <v>9.1271657972150191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="19">
+        <v>29129</v>
+      </c>
+      <c r="B108">
+        <f>VLOOKUP($A108,Data!$A$2:$L$873,3)</f>
+        <v>239.62799213841697</v>
+      </c>
+      <c r="C108">
+        <f>VLOOKUP($A108,Data!$A$2:$L$873,4)</f>
+        <v>103.7</v>
+      </c>
+      <c r="D108">
+        <f>VLOOKUP($A108,Data!$A$2:$L$873,5)</f>
+        <v>5.6033299999999997</v>
+      </c>
+      <c r="E108">
+        <f>VLOOKUP($A108,Data!$A$2:$L$873,6)</f>
+        <v>14.7067</v>
+      </c>
+      <c r="F108">
+        <f>VLOOKUP($A108,Data!$A$2:$L$873,7)</f>
+        <v>8.5187843029835477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="20">
+        <v>29221</v>
+      </c>
+      <c r="B109">
+        <f>VLOOKUP($A109,Data!$A$2:$L$873,3)</f>
+        <v>239.96452427475219</v>
+      </c>
+      <c r="C109">
+        <f>VLOOKUP($A109,Data!$A$2:$L$873,4)</f>
+        <v>115.3</v>
+      </c>
+      <c r="D109">
+        <f>VLOOKUP($A109,Data!$A$2:$L$873,5)</f>
+        <v>5.75</v>
+      </c>
+      <c r="E109">
+        <f>VLOOKUP($A109,Data!$A$2:$L$873,6)</f>
+        <v>15.003299999999999</v>
+      </c>
+      <c r="F109">
+        <f>VLOOKUP($A109,Data!$A$2:$L$873,7)</f>
+        <v>9.0544760921925072</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="19">
+        <v>29312</v>
+      </c>
+      <c r="B110">
+        <f>VLOOKUP($A110,Data!$A$2:$L$873,3)</f>
+        <v>252.04898373400792</v>
+      </c>
+      <c r="C110">
+        <f>VLOOKUP($A110,Data!$A$2:$L$873,4)</f>
+        <v>107.7</v>
+      </c>
+      <c r="D110">
+        <f>VLOOKUP($A110,Data!$A$2:$L$873,5)</f>
+        <v>5.8933299999999997</v>
+      </c>
+      <c r="E110">
+        <f>VLOOKUP($A110,Data!$A$2:$L$873,6)</f>
+        <v>15.173299999999999</v>
+      </c>
+      <c r="F110">
+        <f>VLOOKUP($A110,Data!$A$2:$L$873,7)</f>
+        <v>8.1042258071764834</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="20">
+        <v>29403</v>
+      </c>
+      <c r="B111">
+        <f>VLOOKUP($A111,Data!$A$2:$L$873,3)</f>
+        <v>258.52590497824218</v>
+      </c>
+      <c r="C111">
+        <f>VLOOKUP($A111,Data!$A$2:$L$873,4)</f>
+        <v>123.5</v>
+      </c>
+      <c r="D111">
+        <f>VLOOKUP($A111,Data!$A$2:$L$873,5)</f>
+        <v>6.0266700000000002</v>
+      </c>
+      <c r="E111">
+        <f>VLOOKUP($A111,Data!$A$2:$L$873,6)</f>
+        <v>14.84</v>
+      </c>
+      <c r="F111">
+        <f>VLOOKUP($A111,Data!$A$2:$L$873,7)</f>
+        <v>9.0710059816183737</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="19">
+        <v>29495</v>
+      </c>
+      <c r="B112">
+        <f>VLOOKUP($A112,Data!$A$2:$L$873,3)</f>
+        <v>241.06890378407581</v>
+      </c>
+      <c r="C112">
+        <f>VLOOKUP($A112,Data!$A$2:$L$873,4)</f>
+        <v>135.69999999999999</v>
+      </c>
+      <c r="D112">
+        <f>VLOOKUP($A112,Data!$A$2:$L$873,5)</f>
+        <v>6.13</v>
+      </c>
+      <c r="E112">
+        <f>VLOOKUP($A112,Data!$A$2:$L$873,6)</f>
+        <v>14.7</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP($A112,Data!$A$2:$L$873,7)</f>
+        <v>9.6540436632333808</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="20">
+        <v>29587</v>
+      </c>
+      <c r="B113">
+        <f>VLOOKUP($A113,Data!$A$2:$L$873,3)</f>
+        <v>245.67656785864168</v>
+      </c>
+      <c r="C113">
+        <f>VLOOKUP($A113,Data!$A$2:$L$873,4)</f>
+        <v>128.4</v>
+      </c>
+      <c r="D113">
+        <f>VLOOKUP($A113,Data!$A$2:$L$873,5)</f>
+        <v>6.24</v>
+      </c>
+      <c r="E113">
+        <f>VLOOKUP($A113,Data!$A$2:$L$873,6)</f>
+        <v>14.74</v>
+      </c>
+      <c r="F113">
+        <f>VLOOKUP($A113,Data!$A$2:$L$873,7)</f>
+        <v>8.8298993538313031</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="19">
+        <v>29677</v>
+      </c>
+      <c r="B114">
+        <f>VLOOKUP($A114,Data!$A$2:$L$873,3)</f>
+        <v>234.97354484727975</v>
+      </c>
+      <c r="C114">
+        <f>VLOOKUP($A114,Data!$A$2:$L$873,4)</f>
+        <v>131.69999999999999</v>
+      </c>
+      <c r="D114">
+        <f>VLOOKUP($A114,Data!$A$2:$L$873,5)</f>
+        <v>6.3533299999999997</v>
+      </c>
+      <c r="E114">
+        <f>VLOOKUP($A114,Data!$A$2:$L$873,6)</f>
+        <v>14.7233</v>
+      </c>
+      <c r="F114">
+        <f>VLOOKUP($A114,Data!$A$2:$L$873,7)</f>
+        <v>8.8184834665480611</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="20">
+        <v>29768</v>
+      </c>
+      <c r="B115">
+        <f>VLOOKUP($A115,Data!$A$2:$L$873,3)</f>
+        <v>236.19068985025439</v>
+      </c>
+      <c r="C115">
+        <f>VLOOKUP($A115,Data!$A$2:$L$873,4)</f>
+        <v>129.6</v>
+      </c>
+      <c r="D115">
+        <f>VLOOKUP($A115,Data!$A$2:$L$873,5)</f>
+        <v>6.4766700000000004</v>
+      </c>
+      <c r="E115">
+        <f>VLOOKUP($A115,Data!$A$2:$L$873,6)</f>
+        <v>15.0967</v>
+      </c>
+      <c r="F115">
+        <f>VLOOKUP($A115,Data!$A$2:$L$873,7)</f>
+        <v>8.3998063165664387</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="19">
+        <v>29860</v>
+      </c>
+      <c r="B116">
+        <f>VLOOKUP($A116,Data!$A$2:$L$873,3)</f>
+        <v>245.67178386189372</v>
+      </c>
+      <c r="C116">
+        <f>VLOOKUP($A116,Data!$A$2:$L$873,4)</f>
+        <v>122.9</v>
+      </c>
+      <c r="D116">
+        <f>VLOOKUP($A116,Data!$A$2:$L$873,5)</f>
+        <v>6.5933299999999999</v>
+      </c>
+      <c r="E116">
+        <f>VLOOKUP($A116,Data!$A$2:$L$873,6)</f>
+        <v>15.3</v>
+      </c>
+      <c r="F116">
+        <f>VLOOKUP($A116,Data!$A$2:$L$873,7)</f>
+        <v>7.8107525657161085</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="20">
+        <v>29952</v>
+      </c>
+      <c r="B117">
+        <f>VLOOKUP($A117,Data!$A$2:$L$873,3)</f>
+        <v>260.50326313620286</v>
+      </c>
+      <c r="C117">
+        <f>VLOOKUP($A117,Data!$A$2:$L$873,4)</f>
+        <v>114.5</v>
+      </c>
+      <c r="D117">
+        <f>VLOOKUP($A117,Data!$A$2:$L$873,5)</f>
+        <v>6.69</v>
+      </c>
+      <c r="E117">
+        <f>VLOOKUP($A117,Data!$A$2:$L$873,6)</f>
+        <v>15.1767</v>
+      </c>
+      <c r="F117">
+        <f>VLOOKUP($A117,Data!$A$2:$L$873,7)</f>
+        <v>7.1818234505467293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="19">
+        <v>30042</v>
+      </c>
+      <c r="B118">
+        <f>VLOOKUP($A118,Data!$A$2:$L$873,3)</f>
+        <v>273.61748018213353</v>
+      </c>
+      <c r="C118">
+        <f>VLOOKUP($A118,Data!$A$2:$L$873,4)</f>
+        <v>116.4</v>
+      </c>
+      <c r="D118">
+        <f>VLOOKUP($A118,Data!$A$2:$L$873,5)</f>
+        <v>6.78</v>
+      </c>
+      <c r="E118">
+        <f>VLOOKUP($A118,Data!$A$2:$L$873,6)</f>
+        <v>14.5967</v>
+      </c>
+      <c r="F118">
+        <f>VLOOKUP($A118,Data!$A$2:$L$873,7)</f>
+        <v>7.1926124844646226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="20">
+        <v>30133</v>
+      </c>
+      <c r="B119">
+        <f>VLOOKUP($A119,Data!$A$2:$L$873,3)</f>
+        <v>286.03694268854855</v>
+      </c>
+      <c r="C119">
+        <f>VLOOKUP($A119,Data!$A$2:$L$873,4)</f>
+        <v>109.7</v>
+      </c>
+      <c r="D119">
+        <f>VLOOKUP($A119,Data!$A$2:$L$873,5)</f>
+        <v>6.8366699999999998</v>
+      </c>
+      <c r="E119">
+        <f>VLOOKUP($A119,Data!$A$2:$L$873,6)</f>
+        <v>13.966699999999999</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP($A119,Data!$A$2:$L$873,7)</f>
+        <v>6.6434227521660896</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="19">
+        <v>30225</v>
+      </c>
+      <c r="B120">
+        <f>VLOOKUP($A120,Data!$A$2:$L$873,3)</f>
+        <v>348.32390602191862</v>
+      </c>
+      <c r="C120">
+        <f>VLOOKUP($A120,Data!$A$2:$L$873,4)</f>
+        <v>138.1</v>
+      </c>
+      <c r="D120">
+        <f>VLOOKUP($A120,Data!$A$2:$L$873,5)</f>
+        <v>6.8633300000000004</v>
+      </c>
+      <c r="E120">
+        <f>VLOOKUP($A120,Data!$A$2:$L$873,6)</f>
+        <v>13.253299999999999</v>
+      </c>
+      <c r="F120">
+        <f>VLOOKUP($A120,Data!$A$2:$L$873,7)</f>
+        <v>8.3474769381554292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="20">
+        <v>30317</v>
+      </c>
+      <c r="B121">
+        <f>VLOOKUP($A121,Data!$A$2:$L$873,3)</f>
+        <v>355.66350734658397</v>
+      </c>
+      <c r="C121">
+        <f>VLOOKUP($A121,Data!$A$2:$L$873,4)</f>
+        <v>146.80000000000001</v>
+      </c>
+      <c r="D121">
+        <f>VLOOKUP($A121,Data!$A$2:$L$873,5)</f>
+        <v>6.8966700000000003</v>
+      </c>
+      <c r="E121">
+        <f>VLOOKUP($A121,Data!$A$2:$L$873,6)</f>
+        <v>12.566700000000001</v>
+      </c>
+      <c r="F121">
+        <f>VLOOKUP($A121,Data!$A$2:$L$873,7)</f>
+        <v>8.9104934366241224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="19">
+        <v>30407</v>
+      </c>
+      <c r="B122">
+        <f>VLOOKUP($A122,Data!$A$2:$L$873,3)</f>
+        <v>376.84272869456453</v>
+      </c>
+      <c r="C122">
+        <f>VLOOKUP($A122,Data!$A$2:$L$873,4)</f>
+        <v>164.1</v>
+      </c>
+      <c r="D122">
+        <f>VLOOKUP($A122,Data!$A$2:$L$873,5)</f>
+        <v>6.93</v>
+      </c>
+      <c r="E122">
+        <f>VLOOKUP($A122,Data!$A$2:$L$873,6)</f>
+        <v>12.476699999999999</v>
+      </c>
+      <c r="F122">
+        <f>VLOOKUP($A122,Data!$A$2:$L$873,7)</f>
+        <v>9.8744565046684016</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="20">
+        <v>30498</v>
+      </c>
+      <c r="B123">
+        <f>VLOOKUP($A123,Data!$A$2:$L$873,3)</f>
+        <v>354.28871377498217</v>
+      </c>
+      <c r="C123">
+        <f>VLOOKUP($A123,Data!$A$2:$L$873,4)</f>
+        <v>162.4</v>
+      </c>
+      <c r="D123">
+        <f>VLOOKUP($A123,Data!$A$2:$L$873,5)</f>
+        <v>6.98</v>
+      </c>
+      <c r="E123">
+        <f>VLOOKUP($A123,Data!$A$2:$L$873,6)</f>
+        <v>12.826700000000001</v>
+      </c>
+      <c r="F123">
+        <f>VLOOKUP($A123,Data!$A$2:$L$873,7)</f>
+        <v>9.7280569356652116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="19">
+        <v>30590</v>
+      </c>
+      <c r="B124">
+        <f>VLOOKUP($A124,Data!$A$2:$L$873,3)</f>
+        <v>365.11598475085623</v>
+      </c>
+      <c r="C124">
+        <f>VLOOKUP($A124,Data!$A$2:$L$873,4)</f>
+        <v>165.2</v>
+      </c>
+      <c r="D124">
+        <f>VLOOKUP($A124,Data!$A$2:$L$873,5)</f>
+        <v>7.06</v>
+      </c>
+      <c r="E124">
+        <f>VLOOKUP($A124,Data!$A$2:$L$873,6)</f>
+        <v>13.5433</v>
+      </c>
+      <c r="F124">
+        <f>VLOOKUP($A124,Data!$A$2:$L$873,7)</f>
+        <v>9.8535816493642852</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="20">
+        <v>30682</v>
+      </c>
+      <c r="B125">
+        <f>VLOOKUP($A125,Data!$A$2:$L$873,3)</f>
+        <v>377.42357330830879</v>
+      </c>
+      <c r="C125">
+        <f>VLOOKUP($A125,Data!$A$2:$L$873,4)</f>
+        <v>157.30000000000001</v>
+      </c>
+      <c r="D125">
+        <f>VLOOKUP($A125,Data!$A$2:$L$873,5)</f>
+        <v>7.15</v>
+      </c>
+      <c r="E125">
+        <f>VLOOKUP($A125,Data!$A$2:$L$873,6)</f>
+        <v>14.44</v>
+      </c>
+      <c r="F125">
+        <f>VLOOKUP($A125,Data!$A$2:$L$873,7)</f>
+        <v>9.3245296457279849</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="19">
+        <v>30773</v>
+      </c>
+      <c r="B126">
+        <f>VLOOKUP($A126,Data!$A$2:$L$873,3)</f>
+        <v>364.61107322492398</v>
+      </c>
+      <c r="C126">
+        <f>VLOOKUP($A126,Data!$A$2:$L$873,4)</f>
+        <v>156.6</v>
+      </c>
+      <c r="D126">
+        <f>VLOOKUP($A126,Data!$A$2:$L$873,5)</f>
+        <v>7.2666700000000004</v>
+      </c>
+      <c r="E126">
+        <f>VLOOKUP($A126,Data!$A$2:$L$873,6)</f>
+        <v>15.5733</v>
+      </c>
+      <c r="F126">
+        <f>VLOOKUP($A126,Data!$A$2:$L$873,7)</f>
+        <v>9.2318318168960474</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="20">
+        <v>30864</v>
+      </c>
+      <c r="B127">
+        <f>VLOOKUP($A127,Data!$A$2:$L$873,3)</f>
+        <v>374.91624733368036</v>
+      </c>
+      <c r="C127">
+        <f>VLOOKUP($A127,Data!$A$2:$L$873,4)</f>
+        <v>164.4</v>
+      </c>
+      <c r="D127">
+        <f>VLOOKUP($A127,Data!$A$2:$L$873,5)</f>
+        <v>7.3566700000000003</v>
+      </c>
+      <c r="E127">
+        <f>VLOOKUP($A127,Data!$A$2:$L$873,6)</f>
+        <v>16.32</v>
+      </c>
+      <c r="F127">
+        <f>VLOOKUP($A127,Data!$A$2:$L$873,7)</f>
+        <v>9.62306325737317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="19">
+        <v>30956</v>
+      </c>
+      <c r="B128">
+        <f>VLOOKUP($A128,Data!$A$2:$L$873,3)</f>
+        <v>411.78281352312331</v>
+      </c>
+      <c r="C128">
+        <f>VLOOKUP($A128,Data!$A$2:$L$873,4)</f>
+        <v>166.3</v>
+      </c>
+      <c r="D128">
+        <f>VLOOKUP($A128,Data!$A$2:$L$873,5)</f>
+        <v>7.48</v>
+      </c>
+      <c r="E128">
+        <f>VLOOKUP($A128,Data!$A$2:$L$873,6)</f>
+        <v>16.5867</v>
+      </c>
+      <c r="F128">
+        <f>VLOOKUP($A128,Data!$A$2:$L$873,7)</f>
+        <v>9.6919732217830887</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="20">
+        <v>31048</v>
+      </c>
+      <c r="B129">
+        <f>VLOOKUP($A129,Data!$A$2:$L$873,3)</f>
+        <v>439.29524982929462</v>
+      </c>
+      <c r="C129">
+        <f>VLOOKUP($A129,Data!$A$2:$L$873,4)</f>
+        <v>180.9</v>
+      </c>
+      <c r="D129">
+        <f>VLOOKUP($A129,Data!$A$2:$L$873,5)</f>
+        <v>7.6166700000000001</v>
+      </c>
+      <c r="E129">
+        <f>VLOOKUP($A129,Data!$A$2:$L$873,6)</f>
+        <v>16.556699999999999</v>
+      </c>
+      <c r="F129">
+        <f>VLOOKUP($A129,Data!$A$2:$L$873,7)</f>
+        <v>10.494935172607079</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="19">
+        <v>31138</v>
+      </c>
+      <c r="B130">
+        <f>VLOOKUP($A130,Data!$A$2:$L$873,3)</f>
+        <v>445.70447137075973</v>
+      </c>
+      <c r="C130">
+        <f>VLOOKUP($A130,Data!$A$2:$L$873,4)</f>
+        <v>184.9</v>
+      </c>
+      <c r="D130">
+        <f>VLOOKUP($A130,Data!$A$2:$L$873,5)</f>
+        <v>7.71333</v>
+      </c>
+      <c r="E130">
+        <f>VLOOKUP($A130,Data!$A$2:$L$873,6)</f>
+        <v>16.13</v>
+      </c>
+      <c r="F130">
+        <f>VLOOKUP($A130,Data!$A$2:$L$873,7)</f>
+        <v>10.608120467860093</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="20">
+        <v>31229</v>
+      </c>
+      <c r="B131">
+        <f>VLOOKUP($A131,Data!$A$2:$L$873,3)</f>
+        <v>480.54689894343016</v>
+      </c>
+      <c r="C131">
+        <f>VLOOKUP($A131,Data!$A$2:$L$873,4)</f>
+        <v>188.3</v>
+      </c>
+      <c r="D131">
+        <f>VLOOKUP($A131,Data!$A$2:$L$873,5)</f>
+        <v>7.8066700000000004</v>
+      </c>
+      <c r="E131">
+        <f>VLOOKUP($A131,Data!$A$2:$L$873,6)</f>
+        <v>15.4833</v>
+      </c>
+      <c r="F131">
+        <f>VLOOKUP($A131,Data!$A$2:$L$873,7)</f>
+        <v>10.73879980887728</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="19">
+        <v>31321</v>
+      </c>
+      <c r="B132">
+        <f>VLOOKUP($A132,Data!$A$2:$L$873,3)</f>
+        <v>510.14081620469949</v>
+      </c>
+      <c r="C132">
+        <f>VLOOKUP($A132,Data!$A$2:$L$873,4)</f>
+        <v>197.5</v>
+      </c>
+      <c r="D132">
+        <f>VLOOKUP($A132,Data!$A$2:$L$873,5)</f>
+        <v>7.88</v>
+      </c>
+      <c r="E132">
+        <f>VLOOKUP($A132,Data!$A$2:$L$873,6)</f>
+        <v>15.023300000000001</v>
+      </c>
+      <c r="F132">
+        <f>VLOOKUP($A132,Data!$A$2:$L$873,7)</f>
+        <v>11.164611128667463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="20">
+        <v>31413</v>
+      </c>
+      <c r="B133">
+        <f>VLOOKUP($A133,Data!$A$2:$L$873,3)</f>
+        <v>553.57787917726989</v>
+      </c>
+      <c r="C133">
+        <f>VLOOKUP($A133,Data!$A$2:$L$873,4)</f>
+        <v>219.4</v>
+      </c>
+      <c r="D133">
+        <f>VLOOKUP($A133,Data!$A$2:$L$873,5)</f>
+        <v>7.98</v>
+      </c>
+      <c r="E133">
+        <f>VLOOKUP($A133,Data!$A$2:$L$873,6)</f>
+        <v>14.58</v>
+      </c>
+      <c r="F133">
+        <f>VLOOKUP($A133,Data!$A$2:$L$873,7)</f>
+        <v>12.388219099418121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="19">
+        <v>31503</v>
+      </c>
+      <c r="B134">
+        <f>VLOOKUP($A134,Data!$A$2:$L$873,3)</f>
+        <v>631.89365416471935</v>
+      </c>
+      <c r="C134">
+        <f>VLOOKUP($A134,Data!$A$2:$L$873,4)</f>
+        <v>238.5</v>
+      </c>
+      <c r="D134">
+        <f>VLOOKUP($A134,Data!$A$2:$L$873,5)</f>
+        <v>8.0733300000000003</v>
+      </c>
+      <c r="E134">
+        <f>VLOOKUP($A134,Data!$A$2:$L$873,6)</f>
+        <v>14.583299999999999</v>
+      </c>
+      <c r="F134">
+        <f>VLOOKUP($A134,Data!$A$2:$L$873,7)</f>
+        <v>13.560046199232328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="20">
+        <v>31594</v>
+      </c>
+      <c r="B135">
+        <f>VLOOKUP($A135,Data!$A$2:$L$873,3)</f>
+        <v>645.24070420671046</v>
+      </c>
+      <c r="C135">
+        <f>VLOOKUP($A135,Data!$A$2:$L$873,4)</f>
+        <v>245</v>
+      </c>
+      <c r="D135">
+        <f>VLOOKUP($A135,Data!$A$2:$L$873,5)</f>
+        <v>8.1866699999999994</v>
+      </c>
+      <c r="E135">
+        <f>VLOOKUP($A135,Data!$A$2:$L$873,6)</f>
+        <v>14.7567</v>
+      </c>
+      <c r="F135">
+        <f>VLOOKUP($A135,Data!$A$2:$L$873,7)</f>
+        <v>13.887667550866048</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="19">
+        <v>31686</v>
+      </c>
+      <c r="B136">
+        <f>VLOOKUP($A136,Data!$A$2:$L$873,3)</f>
+        <v>656.75629394803707</v>
+      </c>
+      <c r="C136">
+        <f>VLOOKUP($A136,Data!$A$2:$L$873,4)</f>
+        <v>245.1</v>
+      </c>
+      <c r="D136">
+        <f>VLOOKUP($A136,Data!$A$2:$L$873,5)</f>
+        <v>8.2633299999999998</v>
+      </c>
+      <c r="E136">
+        <f>VLOOKUP($A136,Data!$A$2:$L$873,6)</f>
+        <v>14.726699999999999</v>
+      </c>
+      <c r="F136">
+        <f>VLOOKUP($A136,Data!$A$2:$L$873,7)</f>
+        <v>13.8729855961386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="20">
+        <v>31778</v>
+      </c>
+      <c r="B137">
+        <f>VLOOKUP($A137,Data!$A$2:$L$873,3)</f>
+        <v>676.15647030980972</v>
+      </c>
+      <c r="C137">
+        <f>VLOOKUP($A137,Data!$A$2:$L$873,4)</f>
+        <v>280.89999999999998</v>
+      </c>
+      <c r="D137">
+        <f>VLOOKUP($A137,Data!$A$2:$L$873,5)</f>
+        <v>8.32</v>
+      </c>
+      <c r="E137">
+        <f>VLOOKUP($A137,Data!$A$2:$L$873,6)</f>
+        <v>14.6867</v>
+      </c>
+      <c r="F137">
+        <f>VLOOKUP($A137,Data!$A$2:$L$873,7)</f>
+        <v>15.822318142836449</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="19">
+        <v>31868</v>
+      </c>
+      <c r="B138">
+        <f>VLOOKUP($A138,Data!$A$2:$L$873,3)</f>
+        <v>641.61978533948866</v>
+      </c>
+      <c r="C138">
+        <f>VLOOKUP($A138,Data!$A$2:$L$873,4)</f>
+        <v>289.10000000000002</v>
+      </c>
+      <c r="D138">
+        <f>VLOOKUP($A138,Data!$A$2:$L$873,5)</f>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="E138">
+        <f>VLOOKUP($A138,Data!$A$2:$L$873,6)</f>
+        <v>14.8733</v>
+      </c>
+      <c r="F138">
+        <f>VLOOKUP($A138,Data!$A$2:$L$873,7)</f>
+        <v>16.160311952655739</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="20">
+        <v>31959</v>
+      </c>
+      <c r="B139">
+        <f>VLOOKUP($A139,Data!$A$2:$L$873,3)</f>
+        <v>635.91532579395312</v>
+      </c>
+      <c r="C139">
+        <f>VLOOKUP($A139,Data!$A$2:$L$873,4)</f>
+        <v>329.4</v>
+      </c>
+      <c r="D139">
+        <f>VLOOKUP($A139,Data!$A$2:$L$873,5)</f>
+        <v>8.6133299999999995</v>
+      </c>
+      <c r="E139">
+        <f>VLOOKUP($A139,Data!$A$2:$L$873,6)</f>
+        <v>14.9</v>
+      </c>
+      <c r="F139">
+        <f>VLOOKUP($A139,Data!$A$2:$L$873,7)</f>
+        <v>18.326907245856344</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="19">
+        <v>32051</v>
+      </c>
+      <c r="B140">
+        <f>VLOOKUP($A140,Data!$A$2:$L$873,3)</f>
+        <v>640.79761248589807</v>
+      </c>
+      <c r="C140">
+        <f>VLOOKUP($A140,Data!$A$2:$L$873,4)</f>
+        <v>245</v>
+      </c>
+      <c r="D140">
+        <f>VLOOKUP($A140,Data!$A$2:$L$873,5)</f>
+        <v>8.76</v>
+      </c>
+      <c r="E140">
+        <f>VLOOKUP($A140,Data!$A$2:$L$873,6)</f>
+        <v>16.406700000000001</v>
+      </c>
+      <c r="F140">
+        <f>VLOOKUP($A140,Data!$A$2:$L$873,7)</f>
+        <v>13.590885143189082</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="20">
+        <v>32143</v>
+      </c>
+      <c r="B141">
+        <f>VLOOKUP($A141,Data!$A$2:$L$873,3)</f>
+        <v>682.1116619978186</v>
+      </c>
+      <c r="C141">
+        <f>VLOOKUP($A141,Data!$A$2:$L$873,4)</f>
+        <v>258.10000000000002</v>
+      </c>
+      <c r="D141">
+        <f>VLOOKUP($A141,Data!$A$2:$L$873,5)</f>
+        <v>8.9033300000000004</v>
+      </c>
+      <c r="E141">
+        <f>VLOOKUP($A141,Data!$A$2:$L$873,6)</f>
+        <v>17.863299999999999</v>
+      </c>
+      <c r="F141">
+        <f>VLOOKUP($A141,Data!$A$2:$L$873,7)</f>
+        <v>14.298270962469523</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="19">
+        <v>32234</v>
+      </c>
+      <c r="B142">
+        <f>VLOOKUP($A142,Data!$A$2:$L$873,3)</f>
+        <v>669.01632527996424</v>
+      </c>
+      <c r="C142">
+        <f>VLOOKUP($A142,Data!$A$2:$L$873,4)</f>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="D142">
+        <f>VLOOKUP($A142,Data!$A$2:$L$873,5)</f>
+        <v>9.1366700000000005</v>
+      </c>
+      <c r="E142">
+        <f>VLOOKUP($A142,Data!$A$2:$L$873,6)</f>
+        <v>19.616700000000002</v>
+      </c>
+      <c r="F142">
+        <f>VLOOKUP($A142,Data!$A$2:$L$873,7)</f>
+        <v>14.031891348027772</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="20">
+        <v>32325</v>
+      </c>
+      <c r="B143">
+        <f>VLOOKUP($A143,Data!$A$2:$L$873,3)</f>
+        <v>673.058774924678</v>
+      </c>
+      <c r="C143">
+        <f>VLOOKUP($A143,Data!$A$2:$L$873,4)</f>
+        <v>263.7</v>
+      </c>
+      <c r="D143">
+        <f>VLOOKUP($A143,Data!$A$2:$L$873,5)</f>
+        <v>9.3833300000000008</v>
+      </c>
+      <c r="E143">
+        <f>VLOOKUP($A143,Data!$A$2:$L$873,6)</f>
+        <v>22.023299999999999</v>
+      </c>
+      <c r="F143">
+        <f>VLOOKUP($A143,Data!$A$2:$L$873,7)</f>
+        <v>14.244946310675651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="19">
+        <v>32417</v>
+      </c>
+      <c r="B144">
+        <f>VLOOKUP($A144,Data!$A$2:$L$873,3)</f>
+        <v>709.55388098041942</v>
+      </c>
+      <c r="C144">
+        <f>VLOOKUP($A144,Data!$A$2:$L$873,4)</f>
+        <v>271</v>
+      </c>
+      <c r="D144">
+        <f>VLOOKUP($A144,Data!$A$2:$L$873,5)</f>
+        <v>9.64</v>
+      </c>
+      <c r="E144">
+        <f>VLOOKUP($A144,Data!$A$2:$L$873,6)</f>
+        <v>23.0733</v>
+      </c>
+      <c r="F144">
+        <f>VLOOKUP($A144,Data!$A$2:$L$873,7)</f>
+        <v>14.445530680872892</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="20">
+        <v>32509</v>
+      </c>
+      <c r="B145">
+        <f>VLOOKUP($A145,Data!$A$2:$L$873,3)</f>
+        <v>708.74617140322232</v>
+      </c>
+      <c r="C145">
+        <f>VLOOKUP($A145,Data!$A$2:$L$873,4)</f>
+        <v>294</v>
+      </c>
+      <c r="D145">
+        <f>VLOOKUP($A145,Data!$A$2:$L$873,5)</f>
+        <v>9.8966700000000003</v>
+      </c>
+      <c r="E145">
+        <f>VLOOKUP($A145,Data!$A$2:$L$873,6)</f>
+        <v>24.16</v>
+      </c>
+      <c r="F145">
+        <f>VLOOKUP($A145,Data!$A$2:$L$873,7)</f>
+        <v>15.467060462734754</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="19">
+        <v>32599</v>
+      </c>
+      <c r="B146">
+        <f>VLOOKUP($A146,Data!$A$2:$L$873,3)</f>
+        <v>724.63757793827267</v>
+      </c>
+      <c r="C146">
+        <f>VLOOKUP($A146,Data!$A$2:$L$873,4)</f>
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D146">
+        <f>VLOOKUP($A146,Data!$A$2:$L$873,5)</f>
+        <v>10.193300000000001</v>
+      </c>
+      <c r="E146">
+        <f>VLOOKUP($A146,Data!$A$2:$L$873,6)</f>
+        <v>25.046700000000001</v>
+      </c>
+      <c r="F146">
+        <f>VLOOKUP($A146,Data!$A$2:$L$873,7)</f>
+        <v>16.186353538544555</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="20">
+        <v>32690</v>
+      </c>
+      <c r="B147">
+        <f>VLOOKUP($A147,Data!$A$2:$L$873,3)</f>
+        <v>800.88994972120281</v>
+      </c>
+      <c r="C147">
+        <f>VLOOKUP($A147,Data!$A$2:$L$873,4)</f>
+        <v>346.6</v>
+      </c>
+      <c r="D147">
+        <f>VLOOKUP($A147,Data!$A$2:$L$873,5)</f>
+        <v>10.5467</v>
+      </c>
+      <c r="E147">
+        <f>VLOOKUP($A147,Data!$A$2:$L$873,6)</f>
+        <v>24.71</v>
+      </c>
+      <c r="F147">
+        <f>VLOOKUP($A147,Data!$A$2:$L$873,7)</f>
+        <v>17.734251436577328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="19">
+        <v>32782</v>
+      </c>
+      <c r="B148">
+        <f>VLOOKUP($A148,Data!$A$2:$L$873,3)</f>
+        <v>811.55288968755713</v>
+      </c>
+      <c r="C148">
+        <f>VLOOKUP($A148,Data!$A$2:$L$873,4)</f>
+        <v>340.2</v>
+      </c>
+      <c r="D148">
+        <f>VLOOKUP($A148,Data!$A$2:$L$873,5)</f>
+        <v>10.923299999999999</v>
+      </c>
+      <c r="E148">
+        <f>VLOOKUP($A148,Data!$A$2:$L$873,6)</f>
+        <v>23.4267</v>
+      </c>
+      <c r="F148">
+        <f>VLOOKUP($A148,Data!$A$2:$L$873,7)</f>
+        <v>17.242369266947424</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="20">
+        <v>32874</v>
+      </c>
+      <c r="B149">
+        <f>VLOOKUP($A149,Data!$A$2:$L$873,3)</f>
+        <v>799.8669058863162</v>
+      </c>
+      <c r="C149">
+        <f>VLOOKUP($A149,Data!$A$2:$L$873,4)</f>
+        <v>330.45</v>
+      </c>
+      <c r="D149">
+        <f>VLOOKUP($A149,Data!$A$2:$L$873,5)</f>
+        <v>11.23</v>
+      </c>
+      <c r="E149">
+        <f>VLOOKUP($A149,Data!$A$2:$L$873,6)</f>
+        <v>22.49</v>
+      </c>
+      <c r="F149">
+        <f>VLOOKUP($A149,Data!$A$2:$L$873,7)</f>
+        <v>16.50809351649028</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="19">
+        <v>32964</v>
+      </c>
+      <c r="B150">
+        <f>VLOOKUP($A150,Data!$A$2:$L$873,3)</f>
+        <v>785.19349645598174</v>
+      </c>
+      <c r="C150">
+        <f>VLOOKUP($A150,Data!$A$2:$L$873,4)</f>
+        <v>350.25</v>
+      </c>
+      <c r="D150">
+        <f>VLOOKUP($A150,Data!$A$2:$L$873,5)</f>
+        <v>11.5533</v>
+      </c>
+      <c r="E150">
+        <f>VLOOKUP($A150,Data!$A$2:$L$873,6)</f>
+        <v>21.533300000000001</v>
+      </c>
+      <c r="F150">
+        <f>VLOOKUP($A150,Data!$A$2:$L$873,7)</f>
+        <v>17.392413588644999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="20">
+        <v>33055</v>
+      </c>
+      <c r="B151">
+        <f>VLOOKUP($A151,Data!$A$2:$L$873,3)</f>
+        <v>838.54169978533992</v>
+      </c>
+      <c r="C151">
+        <f>VLOOKUP($A151,Data!$A$2:$L$873,4)</f>
+        <v>330.75</v>
+      </c>
+      <c r="D151">
+        <f>VLOOKUP($A151,Data!$A$2:$L$873,5)</f>
+        <v>11.783300000000001</v>
+      </c>
+      <c r="E151">
+        <f>VLOOKUP($A151,Data!$A$2:$L$873,6)</f>
+        <v>21.42</v>
+      </c>
+      <c r="F151">
+        <f>VLOOKUP($A151,Data!$A$2:$L$873,7)</f>
+        <v>16.168334756508969</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="19">
+        <v>33147</v>
+      </c>
+      <c r="B152">
+        <f>VLOOKUP($A152,Data!$A$2:$L$873,3)</f>
+        <v>840.53730923660976</v>
+      </c>
+      <c r="C152">
+        <f>VLOOKUP($A152,Data!$A$2:$L$873,4)</f>
+        <v>315.29000000000002</v>
+      </c>
+      <c r="D152">
+        <f>VLOOKUP($A152,Data!$A$2:$L$873,5)</f>
+        <v>12.013299999999999</v>
+      </c>
+      <c r="E152">
+        <f>VLOOKUP($A152,Data!$A$2:$L$873,6)</f>
+        <v>21.6067</v>
+      </c>
+      <c r="F152">
+        <f>VLOOKUP($A152,Data!$A$2:$L$873,7)</f>
+        <v>15.187607599503181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="20">
+        <v>33239</v>
+      </c>
+      <c r="B153">
+        <f>VLOOKUP($A153,Data!$A$2:$L$873,3)</f>
+        <v>893.94842728897356</v>
+      </c>
+      <c r="C153">
+        <f>VLOOKUP($A153,Data!$A$2:$L$873,4)</f>
+        <v>362.26</v>
+      </c>
+      <c r="D153">
+        <f>VLOOKUP($A153,Data!$A$2:$L$873,5)</f>
+        <v>12.113300000000001</v>
+      </c>
+      <c r="E153">
+        <f>VLOOKUP($A153,Data!$A$2:$L$873,6)</f>
+        <v>21.183299999999999</v>
+      </c>
+      <c r="F153">
+        <f>VLOOKUP($A153,Data!$A$2:$L$873,7)</f>
+        <v>17.354664745205103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="19">
+        <v>33329</v>
+      </c>
+      <c r="B154">
+        <f>VLOOKUP($A154,Data!$A$2:$L$873,3)</f>
+        <v>912.63271874812324</v>
+      </c>
+      <c r="C154">
+        <f>VLOOKUP($A154,Data!$A$2:$L$873,4)</f>
+        <v>377.99</v>
+      </c>
+      <c r="D154">
+        <f>VLOOKUP($A154,Data!$A$2:$L$873,5)</f>
+        <v>12.14</v>
+      </c>
+      <c r="E154">
+        <f>VLOOKUP($A154,Data!$A$2:$L$873,6)</f>
+        <v>20.363299999999999</v>
+      </c>
+      <c r="F154">
+        <f>VLOOKUP($A154,Data!$A$2:$L$873,7)</f>
+        <v>18.035430911004045</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="20">
+        <v>33420</v>
+      </c>
+      <c r="B155">
+        <f>VLOOKUP($A155,Data!$A$2:$L$873,3)</f>
+        <v>920.09756170009541</v>
+      </c>
+      <c r="C155">
+        <f>VLOOKUP($A155,Data!$A$2:$L$873,4)</f>
+        <v>389.4</v>
+      </c>
+      <c r="D155">
+        <f>VLOOKUP($A155,Data!$A$2:$L$873,5)</f>
+        <v>12.236700000000001</v>
+      </c>
+      <c r="E155">
+        <f>VLOOKUP($A155,Data!$A$2:$L$873,6)</f>
+        <v>18.84</v>
+      </c>
+      <c r="F155">
+        <f>VLOOKUP($A155,Data!$A$2:$L$873,7)</f>
+        <v>18.512258455337705</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="19">
+        <v>33512</v>
+      </c>
+      <c r="B156">
+        <f>VLOOKUP($A156,Data!$A$2:$L$873,3)</f>
+        <v>985.49683136355384</v>
+      </c>
+      <c r="C156">
+        <f>VLOOKUP($A156,Data!$A$2:$L$873,4)</f>
+        <v>385.92</v>
+      </c>
+      <c r="D156">
+        <f>VLOOKUP($A156,Data!$A$2:$L$873,5)</f>
+        <v>12.226699999999999</v>
+      </c>
+      <c r="E156">
+        <f>VLOOKUP($A156,Data!$A$2:$L$873,6)</f>
+        <v>17.203299999999999</v>
+      </c>
+      <c r="F156">
+        <f>VLOOKUP($A156,Data!$A$2:$L$873,7)</f>
+        <v>18.288868169301328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="20">
+        <v>33604</v>
+      </c>
+      <c r="B157">
+        <f>VLOOKUP($A157,Data!$A$2:$L$873,3)</f>
+        <v>1013.6917409640306</v>
+      </c>
+      <c r="C157">
+        <f>VLOOKUP($A157,Data!$A$2:$L$873,4)</f>
+        <v>412.56</v>
+      </c>
+      <c r="D157">
+        <f>VLOOKUP($A157,Data!$A$2:$L$873,5)</f>
+        <v>12.28</v>
+      </c>
+      <c r="E157">
+        <f>VLOOKUP($A157,Data!$A$2:$L$873,6)</f>
+        <v>16.046700000000001</v>
+      </c>
+      <c r="F157">
+        <f>VLOOKUP($A157,Data!$A$2:$L$873,7)</f>
+        <v>19.58298297038673</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="19">
+        <v>33695</v>
+      </c>
+      <c r="B158">
+        <f>VLOOKUP($A158,Data!$A$2:$L$873,3)</f>
+        <v>1011.3348074366055</v>
+      </c>
+      <c r="C158">
+        <f>VLOOKUP($A158,Data!$A$2:$L$873,4)</f>
+        <v>414.81</v>
+      </c>
+      <c r="D158">
+        <f>VLOOKUP($A158,Data!$A$2:$L$873,5)</f>
+        <v>12.32</v>
+      </c>
+      <c r="E158">
+        <f>VLOOKUP($A158,Data!$A$2:$L$873,6)</f>
+        <v>16.4833</v>
+      </c>
+      <c r="F158">
+        <f>VLOOKUP($A158,Data!$A$2:$L$873,7)</f>
+        <v>19.662279795641673</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="20">
+        <v>33786</v>
+      </c>
+      <c r="B159">
+        <f>VLOOKUP($A159,Data!$A$2:$L$873,3)</f>
+        <v>1095.7114583910843</v>
+      </c>
+      <c r="C159">
+        <f>VLOOKUP($A159,Data!$A$2:$L$873,4)</f>
+        <v>417.93</v>
+      </c>
+      <c r="D159">
+        <f>VLOOKUP($A159,Data!$A$2:$L$873,5)</f>
+        <v>12.3667</v>
+      </c>
+      <c r="E159">
+        <f>VLOOKUP($A159,Data!$A$2:$L$873,6)</f>
+        <v>17.38</v>
+      </c>
+      <c r="F159">
+        <f>VLOOKUP($A159,Data!$A$2:$L$873,7)</f>
+        <v>19.722137498351515</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="19">
+        <v>33878</v>
+      </c>
+      <c r="B160">
+        <f>VLOOKUP($A160,Data!$A$2:$L$873,3)</f>
+        <v>1107.2183015371702</v>
+      </c>
+      <c r="C160">
+        <f>VLOOKUP($A160,Data!$A$2:$L$873,4)</f>
+        <v>422.84</v>
+      </c>
+      <c r="D160">
+        <f>VLOOKUP($A160,Data!$A$2:$L$873,5)</f>
+        <v>12.3833</v>
+      </c>
+      <c r="E160">
+        <f>VLOOKUP($A160,Data!$A$2:$L$873,6)</f>
+        <v>18.39</v>
+      </c>
+      <c r="F160">
+        <f>VLOOKUP($A160,Data!$A$2:$L$873,7)</f>
+        <v>19.833656038801216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="20">
+        <v>33970</v>
+      </c>
+      <c r="B161">
+        <f>VLOOKUP($A161,Data!$A$2:$L$873,3)</f>
+        <v>1159.5264971946094</v>
+      </c>
+      <c r="C161">
+        <f>VLOOKUP($A161,Data!$A$2:$L$873,4)</f>
+        <v>441.7</v>
+      </c>
+      <c r="D161">
+        <f>VLOOKUP($A161,Data!$A$2:$L$873,5)</f>
+        <v>12.4467</v>
+      </c>
+      <c r="E161">
+        <f>VLOOKUP($A161,Data!$A$2:$L$873,6)</f>
+        <v>19.34</v>
+      </c>
+      <c r="F161">
+        <f>VLOOKUP($A161,Data!$A$2:$L$873,7)</f>
+        <v>20.545336792900436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="19">
+        <v>34060</v>
+      </c>
+      <c r="B162">
+        <f>VLOOKUP($A162,Data!$A$2:$L$873,3)</f>
+        <v>1206.8009793856781</v>
+      </c>
+      <c r="C162">
+        <f>VLOOKUP($A162,Data!$A$2:$L$873,4)</f>
+        <v>445.25</v>
+      </c>
+      <c r="D162">
+        <f>VLOOKUP($A162,Data!$A$2:$L$873,5)</f>
+        <v>12.5067</v>
+      </c>
+      <c r="E162">
+        <f>VLOOKUP($A162,Data!$A$2:$L$873,6)</f>
+        <v>19.670000000000002</v>
+      </c>
+      <c r="F162">
+        <f>VLOOKUP($A162,Data!$A$2:$L$873,7)</f>
+        <v>20.517605633764852</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="20">
+        <v>34151</v>
+      </c>
+      <c r="B163">
+        <f>VLOOKUP($A163,Data!$A$2:$L$873,3)</f>
+        <v>1244.8626241118186</v>
+      </c>
+      <c r="C163">
+        <f>VLOOKUP($A163,Data!$A$2:$L$873,4)</f>
+        <v>454.13</v>
+      </c>
+      <c r="D163">
+        <f>VLOOKUP($A163,Data!$A$2:$L$873,5)</f>
+        <v>12.52</v>
+      </c>
+      <c r="E163">
+        <f>VLOOKUP($A163,Data!$A$2:$L$873,6)</f>
+        <v>19.690000000000001</v>
+      </c>
+      <c r="F163">
+        <f>VLOOKUP($A163,Data!$A$2:$L$873,7)</f>
+        <v>20.812227546627383</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="19">
+        <v>34243</v>
+      </c>
+      <c r="B164">
+        <f>VLOOKUP($A164,Data!$A$2:$L$873,3)</f>
+        <v>1300.4020544604605</v>
+      </c>
+      <c r="C164">
+        <f>VLOOKUP($A164,Data!$A$2:$L$873,4)</f>
+        <v>462.89</v>
+      </c>
+      <c r="D164">
+        <f>VLOOKUP($A164,Data!$A$2:$L$873,5)</f>
+        <v>12.56</v>
+      </c>
+      <c r="E164">
+        <f>VLOOKUP($A164,Data!$A$2:$L$873,6)</f>
+        <v>20.9</v>
+      </c>
+      <c r="F164">
+        <f>VLOOKUP($A164,Data!$A$2:$L$873,7)</f>
+        <v>21.037901189606373</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="20">
+        <v>34335</v>
+      </c>
+      <c r="B165">
+        <f>VLOOKUP($A165,Data!$A$2:$L$873,3)</f>
+        <v>1292.2861190619744</v>
+      </c>
+      <c r="C165">
+        <f>VLOOKUP($A165,Data!$A$2:$L$873,4)</f>
+        <v>471.58</v>
+      </c>
+      <c r="D165">
+        <f>VLOOKUP($A165,Data!$A$2:$L$873,5)</f>
+        <v>12.666700000000001</v>
+      </c>
+      <c r="E165">
+        <f>VLOOKUP($A165,Data!$A$2:$L$873,6)</f>
+        <v>22.156700000000001</v>
+      </c>
+      <c r="F165">
+        <f>VLOOKUP($A165,Data!$A$2:$L$873,7)</f>
+        <v>21.263840187313019</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="19">
+        <v>34425</v>
+      </c>
+      <c r="B166">
+        <f>VLOOKUP($A166,Data!$A$2:$L$873,3)</f>
+        <v>1188.7373716816264</v>
+      </c>
+      <c r="C166">
+        <f>VLOOKUP($A166,Data!$A$2:$L$873,4)</f>
+        <v>450.9</v>
+      </c>
+      <c r="D166">
+        <f>VLOOKUP($A166,Data!$A$2:$L$873,5)</f>
+        <v>12.7967</v>
+      </c>
+      <c r="E166">
+        <f>VLOOKUP($A166,Data!$A$2:$L$873,6)</f>
+        <v>23.54</v>
+      </c>
+      <c r="F166">
+        <f>VLOOKUP($A166,Data!$A$2:$L$873,7)</f>
+        <v>20.196492421281452</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="20">
+        <v>34516</v>
+      </c>
+      <c r="B167">
+        <f>VLOOKUP($A167,Data!$A$2:$L$873,3)</f>
+        <v>1205.0684801697175</v>
+      </c>
+      <c r="C167">
+        <f>VLOOKUP($A167,Data!$A$2:$L$873,4)</f>
+        <v>464.24</v>
+      </c>
+      <c r="D167">
+        <f>VLOOKUP($A167,Data!$A$2:$L$873,5)</f>
+        <v>12.9</v>
+      </c>
+      <c r="E167">
+        <f>VLOOKUP($A167,Data!$A$2:$L$873,6)</f>
+        <v>25.91</v>
+      </c>
+      <c r="F167">
+        <f>VLOOKUP($A167,Data!$A$2:$L$873,7)</f>
+        <v>20.535549404755642</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="19">
+        <v>34608</v>
+      </c>
+      <c r="B168">
+        <f>VLOOKUP($A168,Data!$A$2:$L$873,3)</f>
+        <v>1170.1195054889938</v>
+      </c>
+      <c r="C168">
+        <f>VLOOKUP($A168,Data!$A$2:$L$873,4)</f>
+        <v>461.01</v>
+      </c>
+      <c r="D168">
+        <f>VLOOKUP($A168,Data!$A$2:$L$873,5)</f>
+        <v>13.0967</v>
+      </c>
+      <c r="E168">
+        <f>VLOOKUP($A168,Data!$A$2:$L$873,6)</f>
+        <v>28.42</v>
+      </c>
+      <c r="F168">
+        <f>VLOOKUP($A168,Data!$A$2:$L$873,7)</f>
+        <v>20.209473020394057</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="20">
+        <v>34700</v>
+      </c>
+      <c r="B169">
+        <f>VLOOKUP($A169,Data!$A$2:$L$873,3)</f>
+        <v>1210.3392966621791</v>
+      </c>
+      <c r="C169">
+        <f>VLOOKUP($A169,Data!$A$2:$L$873,4)</f>
+        <v>481.92</v>
+      </c>
+      <c r="D169">
+        <f>VLOOKUP($A169,Data!$A$2:$L$873,5)</f>
+        <v>13.18</v>
+      </c>
+      <c r="E169">
+        <f>VLOOKUP($A169,Data!$A$2:$L$873,6)</f>
+        <v>31.25</v>
+      </c>
+      <c r="F169">
+        <f>VLOOKUP($A169,Data!$A$2:$L$873,7)</f>
+        <v>20.802571764332683</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="19">
+        <v>34790</v>
+      </c>
+      <c r="B170">
+        <f>VLOOKUP($A170,Data!$A$2:$L$873,3)</f>
+        <v>1278.5398818886499</v>
+      </c>
+      <c r="C170">
+        <f>VLOOKUP($A170,Data!$A$2:$L$873,4)</f>
+        <v>523.80999999999995</v>
+      </c>
+      <c r="D170">
+        <f>VLOOKUP($A170,Data!$A$2:$L$873,5)</f>
+        <v>13.306699999999999</v>
+      </c>
+      <c r="E170">
+        <f>VLOOKUP($A170,Data!$A$2:$L$873,6)</f>
+        <v>33.176699999999997</v>
+      </c>
+      <c r="F170">
+        <f>VLOOKUP($A170,Data!$A$2:$L$873,7)</f>
+        <v>22.195426698019954</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="20">
+        <v>34881</v>
+      </c>
+      <c r="B171">
+        <f>VLOOKUP($A171,Data!$A$2:$L$873,3)</f>
+        <v>1357.1691265192158</v>
+      </c>
+      <c r="C171">
+        <f>VLOOKUP($A171,Data!$A$2:$L$873,4)</f>
+        <v>559.11</v>
+      </c>
+      <c r="D171">
+        <f>VLOOKUP($A171,Data!$A$2:$L$873,5)</f>
+        <v>13.51</v>
+      </c>
+      <c r="E171">
+        <f>VLOOKUP($A171,Data!$A$2:$L$873,6)</f>
+        <v>34.68</v>
+      </c>
+      <c r="F171">
+        <f>VLOOKUP($A171,Data!$A$2:$L$873,7)</f>
+        <v>23.284070256230532</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="19">
+        <v>34973</v>
+      </c>
+      <c r="B172">
+        <f>VLOOKUP($A172,Data!$A$2:$L$873,3)</f>
+        <v>1421.3432789646808</v>
+      </c>
+      <c r="C172">
+        <f>VLOOKUP($A172,Data!$A$2:$L$873,4)</f>
+        <v>595.53</v>
+      </c>
+      <c r="D172">
+        <f>VLOOKUP($A172,Data!$A$2:$L$873,5)</f>
+        <v>13.72</v>
+      </c>
+      <c r="E172">
+        <f>VLOOKUP($A172,Data!$A$2:$L$873,6)</f>
+        <v>34.773299999999999</v>
+      </c>
+      <c r="F172">
+        <f>VLOOKUP($A172,Data!$A$2:$L$873,7)</f>
+        <v>24.347586881114815</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="20">
+        <v>35065</v>
+      </c>
+      <c r="B173">
+        <f>VLOOKUP($A173,Data!$A$2:$L$873,3)</f>
+        <v>1488.603334530573</v>
+      </c>
+      <c r="C173">
+        <f>VLOOKUP($A173,Data!$A$2:$L$873,4)</f>
+        <v>649.54</v>
+      </c>
+      <c r="D173">
+        <f>VLOOKUP($A173,Data!$A$2:$L$873,5)</f>
+        <v>13.996700000000001</v>
+      </c>
+      <c r="E173">
+        <f>VLOOKUP($A173,Data!$A$2:$L$873,6)</f>
+        <v>33.986699999999999</v>
+      </c>
+      <c r="F173">
+        <f>VLOOKUP($A173,Data!$A$2:$L$873,7)</f>
+        <v>25.97606555059339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="19">
+        <v>35156</v>
+      </c>
+      <c r="B174">
+        <f>VLOOKUP($A174,Data!$A$2:$L$873,3)</f>
+        <v>1397.7878410483372</v>
+      </c>
+      <c r="C174">
+        <f>VLOOKUP($A174,Data!$A$2:$L$873,4)</f>
+        <v>661.23</v>
+      </c>
+      <c r="D174">
+        <f>VLOOKUP($A174,Data!$A$2:$L$873,5)</f>
+        <v>14.2133</v>
+      </c>
+      <c r="E174">
+        <f>VLOOKUP($A174,Data!$A$2:$L$873,6)</f>
+        <v>34.33</v>
+      </c>
+      <c r="F174">
+        <f>VLOOKUP($A174,Data!$A$2:$L$873,7)</f>
+        <v>25.81404382769902</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="20">
+        <v>35247</v>
+      </c>
+      <c r="B175">
+        <f>VLOOKUP($A175,Data!$A$2:$L$873,3)</f>
+        <v>1407.3402249059043</v>
+      </c>
+      <c r="C175">
+        <f>VLOOKUP($A175,Data!$A$2:$L$873,4)</f>
+        <v>662.68</v>
+      </c>
+      <c r="D175">
+        <f>VLOOKUP($A175,Data!$A$2:$L$873,5)</f>
+        <v>14.53</v>
+      </c>
+      <c r="E175">
+        <f>VLOOKUP($A175,Data!$A$2:$L$873,6)</f>
+        <v>35.273299999999999</v>
+      </c>
+      <c r="F175">
+        <f>VLOOKUP($A175,Data!$A$2:$L$873,7)</f>
+        <v>25.412529121454941</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="19">
+        <v>35339</v>
+      </c>
+      <c r="B176">
+        <f>VLOOKUP($A176,Data!$A$2:$L$873,3)</f>
+        <v>1475.9607863925548</v>
+      </c>
+      <c r="C176">
+        <f>VLOOKUP($A176,Data!$A$2:$L$873,4)</f>
+        <v>735.67</v>
+      </c>
+      <c r="D176">
+        <f>VLOOKUP($A176,Data!$A$2:$L$873,5)</f>
+        <v>14.82</v>
+      </c>
+      <c r="E176">
+        <f>VLOOKUP($A176,Data!$A$2:$L$873,6)</f>
+        <v>36.909999999999997</v>
+      </c>
+      <c r="F176">
+        <f>VLOOKUP($A176,Data!$A$2:$L$873,7)</f>
+        <v>27.585612049012788</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="20">
+        <v>35431</v>
+      </c>
+      <c r="B177">
+        <f>VLOOKUP($A177,Data!$A$2:$L$873,3)</f>
+        <v>1481.7311539889376</v>
+      </c>
+      <c r="C177">
+        <f>VLOOKUP($A177,Data!$A$2:$L$873,4)</f>
+        <v>798.39</v>
+      </c>
+      <c r="D177">
+        <f>VLOOKUP($A177,Data!$A$2:$L$873,5)</f>
+        <v>15.0067</v>
+      </c>
+      <c r="E177">
+        <f>VLOOKUP($A177,Data!$A$2:$L$873,6)</f>
+        <v>39.2333</v>
+      </c>
+      <c r="F177">
+        <f>VLOOKUP($A177,Data!$A$2:$L$873,7)</f>
+        <v>29.265634883575942</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="19">
+        <v>35521</v>
+      </c>
+      <c r="B178">
+        <f>VLOOKUP($A178,Data!$A$2:$L$873,3)</f>
+        <v>1486.0177038879592</v>
+      </c>
+      <c r="C178">
+        <f>VLOOKUP($A178,Data!$A$2:$L$873,4)</f>
+        <v>833.09</v>
+      </c>
+      <c r="D178">
+        <f>VLOOKUP($A178,Data!$A$2:$L$873,5)</f>
+        <v>15.1267</v>
+      </c>
+      <c r="E178">
+        <f>VLOOKUP($A178,Data!$A$2:$L$873,6)</f>
+        <v>40.343299999999999</v>
+      </c>
+      <c r="F178">
+        <f>VLOOKUP($A178,Data!$A$2:$L$873,7)</f>
+        <v>29.928362224688758</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="20">
+        <v>35612</v>
+      </c>
+      <c r="B179">
+        <f>VLOOKUP($A179,Data!$A$2:$L$873,3)</f>
+        <v>1588.8162273869782</v>
+      </c>
+      <c r="C179">
+        <f>VLOOKUP($A179,Data!$A$2:$L$873,4)</f>
+        <v>927.24</v>
+      </c>
+      <c r="D179">
+        <f>VLOOKUP($A179,Data!$A$2:$L$873,5)</f>
+        <v>15.273300000000001</v>
+      </c>
+      <c r="E179">
+        <f>VLOOKUP($A179,Data!$A$2:$L$873,6)</f>
+        <v>40.58</v>
+      </c>
+      <c r="F179">
+        <f>VLOOKUP($A179,Data!$A$2:$L$873,7)</f>
+        <v>32.58628348671315</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="19">
+        <v>35704</v>
+      </c>
+      <c r="B180">
+        <f>VLOOKUP($A180,Data!$A$2:$L$873,3)</f>
+        <v>1634.6004831417126</v>
+      </c>
+      <c r="C180">
+        <f>VLOOKUP($A180,Data!$A$2:$L$873,4)</f>
+        <v>938.92</v>
+      </c>
+      <c r="D180">
+        <f>VLOOKUP($A180,Data!$A$2:$L$873,5)</f>
+        <v>15.443300000000001</v>
+      </c>
+      <c r="E180">
+        <f>VLOOKUP($A180,Data!$A$2:$L$873,6)</f>
+        <v>40.333300000000001</v>
+      </c>
+      <c r="F180">
+        <f>VLOOKUP($A180,Data!$A$2:$L$873,7)</f>
+        <v>32.336600532812653</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="20">
+        <v>35796</v>
+      </c>
+      <c r="B181">
+        <f>VLOOKUP($A181,Data!$A$2:$L$873,3)</f>
+        <v>1697.205456675629</v>
+      </c>
+      <c r="C181">
+        <f>VLOOKUP($A181,Data!$A$2:$L$873,4)</f>
+        <v>1023.74</v>
+      </c>
+      <c r="D181">
+        <f>VLOOKUP($A181,Data!$A$2:$L$873,5)</f>
+        <v>15.6</v>
+      </c>
+      <c r="E181">
+        <f>VLOOKUP($A181,Data!$A$2:$L$873,6)</f>
+        <v>39.659999999999997</v>
+      </c>
+      <c r="F181">
+        <f>VLOOKUP($A181,Data!$A$2:$L$873,7)</f>
+        <v>34.709677782269949</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="19">
+        <v>35886</v>
+      </c>
+      <c r="B182">
+        <f>VLOOKUP($A182,Data!$A$2:$L$873,3)</f>
+        <v>1701.847047748503</v>
+      </c>
+      <c r="C182">
+        <f>VLOOKUP($A182,Data!$A$2:$L$873,4)</f>
+        <v>1108.42</v>
+      </c>
+      <c r="D182">
+        <f>VLOOKUP($A182,Data!$A$2:$L$873,5)</f>
+        <v>15.85</v>
+      </c>
+      <c r="E182">
+        <f>VLOOKUP($A182,Data!$A$2:$L$873,6)</f>
+        <v>39.35</v>
+      </c>
+      <c r="F182">
+        <f>VLOOKUP($A182,Data!$A$2:$L$873,7)</f>
+        <v>36.956598518968974</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="20">
+        <v>35977</v>
+      </c>
+      <c r="B183">
+        <f>VLOOKUP($A183,Data!$A$2:$L$873,3)</f>
+        <v>1749.0012380240289</v>
+      </c>
+      <c r="C183">
+        <f>VLOOKUP($A183,Data!$A$2:$L$873,4)</f>
+        <v>1074.6199999999999</v>
+      </c>
+      <c r="D183">
+        <f>VLOOKUP($A183,Data!$A$2:$L$873,5)</f>
+        <v>16.083300000000001</v>
+      </c>
+      <c r="E183">
+        <f>VLOOKUP($A183,Data!$A$2:$L$873,6)</f>
+        <v>38.676699999999997</v>
+      </c>
+      <c r="F183">
+        <f>VLOOKUP($A183,Data!$A$2:$L$873,7)</f>
+        <v>35.423401024878309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="19">
+        <v>36069</v>
+      </c>
+      <c r="B184">
+        <f>VLOOKUP($A184,Data!$A$2:$L$873,3)</f>
+        <v>1890.5829858997984</v>
+      </c>
+      <c r="C184">
+        <f>VLOOKUP($A184,Data!$A$2:$L$873,4)</f>
+        <v>1144.43</v>
+      </c>
+      <c r="D184">
+        <f>VLOOKUP($A184,Data!$A$2:$L$873,5)</f>
+        <v>16.183299999999999</v>
+      </c>
+      <c r="E184">
+        <f>VLOOKUP($A184,Data!$A$2:$L$873,6)</f>
+        <v>37.963299999999997</v>
+      </c>
+      <c r="F184">
+        <f>VLOOKUP($A184,Data!$A$2:$L$873,7)</f>
+        <v>37.36939188392094</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="20">
+        <v>36161</v>
+      </c>
+      <c r="B185">
+        <f>VLOOKUP($A185,Data!$A$2:$L$873,3)</f>
+        <v>1909.7320694440689</v>
+      </c>
+      <c r="C185">
+        <f>VLOOKUP($A185,Data!$A$2:$L$873,4)</f>
+        <v>1246.58</v>
+      </c>
+      <c r="D185">
+        <f>VLOOKUP($A185,Data!$A$2:$L$873,5)</f>
+        <v>16.366666670000001</v>
+      </c>
+      <c r="E185">
+        <f>VLOOKUP($A185,Data!$A$2:$L$873,6)</f>
+        <v>37.933333330000004</v>
+      </c>
+      <c r="F185">
+        <f>VLOOKUP($A185,Data!$A$2:$L$873,7)</f>
+        <v>40.400159229259927</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="19">
+        <v>36251</v>
+      </c>
+      <c r="B186">
+        <f>VLOOKUP($A186,Data!$A$2:$L$873,3)</f>
+        <v>1831.5053872852461</v>
+      </c>
+      <c r="C186">
+        <f>VLOOKUP($A186,Data!$A$2:$L$873,4)</f>
+        <v>1332.07</v>
+      </c>
+      <c r="D186">
+        <f>VLOOKUP($A186,Data!$A$2:$L$873,5)</f>
+        <v>16.45</v>
+      </c>
+      <c r="E186">
+        <f>VLOOKUP($A186,Data!$A$2:$L$873,6)</f>
+        <v>39.26</v>
+      </c>
+      <c r="F186">
+        <f>VLOOKUP($A186,Data!$A$2:$L$873,7)</f>
+        <v>42.55667670951803</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="20">
+        <v>36342</v>
+      </c>
+      <c r="B187">
+        <f>VLOOKUP($A187,Data!$A$2:$L$873,3)</f>
+        <v>1780.8340554894721</v>
+      </c>
+      <c r="C187">
+        <f>VLOOKUP($A187,Data!$A$2:$L$873,4)</f>
+        <v>1327.49</v>
+      </c>
+      <c r="D187">
+        <f>VLOOKUP($A187,Data!$A$2:$L$873,5)</f>
+        <v>16.576666666666668</v>
+      </c>
+      <c r="E187">
+        <f>VLOOKUP($A187,Data!$A$2:$L$873,6)</f>
+        <v>42</v>
+      </c>
+      <c r="F187">
+        <f>VLOOKUP($A187,Data!$A$2:$L$873,7)</f>
+        <v>41.930712159940448</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="19">
+        <v>36434</v>
+      </c>
+      <c r="B188">
+        <f>VLOOKUP($A188,Data!$A$2:$L$873,3)</f>
+        <v>1794.0688107683679</v>
+      </c>
+      <c r="C188">
+        <f>VLOOKUP($A188,Data!$A$2:$L$873,4)</f>
+        <v>1391</v>
+      </c>
+      <c r="D188">
+        <f>VLOOKUP($A188,Data!$A$2:$L$873,5)</f>
+        <v>16.673333333333332</v>
+      </c>
+      <c r="E188">
+        <f>VLOOKUP($A188,Data!$A$2:$L$873,6)</f>
+        <v>45.363333333333337</v>
+      </c>
+      <c r="F188">
+        <f>VLOOKUP($A188,Data!$A$2:$L$873,7)</f>
+        <v>43.208290714613909</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="20">
+        <v>36526</v>
+      </c>
+      <c r="B189">
+        <f>VLOOKUP($A189,Data!$A$2:$L$873,3)</f>
+        <v>1736.8366511755585</v>
+      </c>
+      <c r="C189">
+        <f>VLOOKUP($A189,Data!$A$2:$L$873,4)</f>
+        <v>1388.87</v>
+      </c>
+      <c r="D189">
+        <f>VLOOKUP($A189,Data!$A$2:$L$873,5)</f>
+        <v>16.736666666666668</v>
+      </c>
+      <c r="E189">
+        <f>VLOOKUP($A189,Data!$A$2:$L$873,6)</f>
+        <v>49.096666666666671</v>
+      </c>
+      <c r="F189">
+        <f>VLOOKUP($A189,Data!$A$2:$L$873,7)</f>
+        <v>42.185635887917321</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="19">
+        <v>36617</v>
+      </c>
+      <c r="B190">
+        <f>VLOOKUP($A190,Data!$A$2:$L$873,3)</f>
+        <v>1822.3307306624499</v>
+      </c>
+      <c r="C190">
+        <f>VLOOKUP($A190,Data!$A$2:$L$873,4)</f>
+        <v>1418.48</v>
+      </c>
+      <c r="D190">
+        <f>VLOOKUP($A190,Data!$A$2:$L$873,5)</f>
+        <v>16.72</v>
+      </c>
+      <c r="E190">
+        <f>VLOOKUP($A190,Data!$A$2:$L$873,6)</f>
+        <v>51.273333333333333</v>
+      </c>
+      <c r="F190">
+        <f>VLOOKUP($A190,Data!$A$2:$L$873,7)</f>
+        <v>41.966050503324311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="20">
+        <v>36708</v>
+      </c>
+      <c r="B191">
+        <f>VLOOKUP($A191,Data!$A$2:$L$873,3)</f>
+        <v>1876.3937668845185</v>
+      </c>
+      <c r="C191">
+        <f>VLOOKUP($A191,Data!$A$2:$L$873,4)</f>
+        <v>1485.46</v>
+      </c>
+      <c r="D191">
+        <f>VLOOKUP($A191,Data!$A$2:$L$873,5)</f>
+        <v>16.466666666666669</v>
+      </c>
+      <c r="E191">
+        <f>VLOOKUP($A191,Data!$A$2:$L$873,6)</f>
+        <v>52.513333333333343</v>
+      </c>
+      <c r="F191">
+        <f>VLOOKUP($A191,Data!$A$2:$L$873,7)</f>
+        <v>42.869565494419504</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="19">
+        <v>36800</v>
+      </c>
+      <c r="B192">
+        <f>VLOOKUP($A192,Data!$A$2:$L$873,3)</f>
+        <v>1942.160412221145</v>
+      </c>
+      <c r="C192">
+        <f>VLOOKUP($A192,Data!$A$2:$L$873,4)</f>
+        <v>1378.04</v>
+      </c>
+      <c r="D192">
+        <f>VLOOKUP($A192,Data!$A$2:$L$873,5)</f>
+        <v>16.296666666666667</v>
+      </c>
+      <c r="E192">
+        <f>VLOOKUP($A192,Data!$A$2:$L$873,6)</f>
+        <v>52.466666666666669</v>
+      </c>
+      <c r="F192">
+        <f>VLOOKUP($A192,Data!$A$2:$L$873,7)</f>
+        <v>38.782142456784783</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="20">
+        <v>36892</v>
+      </c>
+      <c r="B193">
+        <f>VLOOKUP($A193,Data!$A$2:$L$873,3)</f>
+        <v>2056.2639231411727</v>
+      </c>
+      <c r="C193">
+        <f>VLOOKUP($A193,Data!$A$2:$L$873,4)</f>
+        <v>1305.75</v>
+      </c>
+      <c r="D193">
+        <f>VLOOKUP($A193,Data!$A$2:$L$873,5)</f>
+        <v>16.07</v>
+      </c>
+      <c r="E193">
+        <f>VLOOKUP($A193,Data!$A$2:$L$873,6)</f>
+        <v>48.48</v>
+      </c>
+      <c r="F193">
+        <f>VLOOKUP($A193,Data!$A$2:$L$873,7)</f>
+        <v>35.834662651431294</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="19">
+        <v>36982</v>
+      </c>
+      <c r="B194">
+        <f>VLOOKUP($A194,Data!$A$2:$L$873,3)</f>
+        <v>2056.3240531438978</v>
+      </c>
+      <c r="C194">
+        <f>VLOOKUP($A194,Data!$A$2:$L$873,4)</f>
+        <v>1270.3699999999999</v>
+      </c>
+      <c r="D194">
+        <f>VLOOKUP($A194,Data!$A$2:$L$873,5)</f>
+        <v>15.783333333333331</v>
+      </c>
+      <c r="E194">
+        <f>VLOOKUP($A194,Data!$A$2:$L$873,6)</f>
+        <v>42.556666666666665</v>
+      </c>
+      <c r="F194">
+        <f>VLOOKUP($A194,Data!$A$2:$L$873,7)</f>
+        <v>34.07464321714005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="20">
+        <v>37073</v>
+      </c>
+      <c r="B195">
+        <f>VLOOKUP($A195,Data!$A$2:$L$873,3)</f>
+        <v>2128.9331628854575</v>
+      </c>
+      <c r="C195">
+        <f>VLOOKUP($A195,Data!$A$2:$L$873,4)</f>
+        <v>1178.5</v>
+      </c>
+      <c r="D195">
+        <f>VLOOKUP($A195,Data!$A$2:$L$873,5)</f>
+        <v>15.723333333333333</v>
+      </c>
+      <c r="E195">
+        <f>VLOOKUP($A195,Data!$A$2:$L$873,6)</f>
+        <v>33.963333333333331</v>
+      </c>
+      <c r="F195">
+        <f>VLOOKUP($A195,Data!$A$2:$L$873,7)</f>
+        <v>31.404318760780153</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="19">
+        <v>37165</v>
+      </c>
+      <c r="B196">
+        <f>VLOOKUP($A196,Data!$A$2:$L$873,3)</f>
+        <v>2288.1352643558375</v>
+      </c>
+      <c r="C196">
+        <f>VLOOKUP($A196,Data!$A$2:$L$873,4)</f>
+        <v>1129.68</v>
+      </c>
+      <c r="D196">
+        <f>VLOOKUP($A196,Data!$A$2:$L$873,5)</f>
+        <v>15.740000000000002</v>
+      </c>
+      <c r="E196">
+        <f>VLOOKUP($A196,Data!$A$2:$L$873,6)</f>
+        <v>27.103333333333335</v>
+      </c>
+      <c r="F196">
+        <f>VLOOKUP($A196,Data!$A$2:$L$873,7)</f>
+        <v>30.005103811056824</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="20">
+        <v>37257</v>
+      </c>
+      <c r="B197">
+        <f>VLOOKUP($A197,Data!$A$2:$L$873,3)</f>
+        <v>2178.8875420991549</v>
+      </c>
+      <c r="C197">
+        <f>VLOOKUP($A197,Data!$A$2:$L$873,4)</f>
+        <v>1100.67</v>
+      </c>
+      <c r="D197">
+        <f>VLOOKUP($A197,Data!$A$2:$L$873,5)</f>
+        <v>15.733333333333334</v>
+      </c>
+      <c r="E197">
+        <f>VLOOKUP($A197,Data!$A$2:$L$873,6)</f>
+        <v>24.693333333333332</v>
+      </c>
+      <c r="F197">
+        <f>VLOOKUP($A197,Data!$A$2:$L$873,7)</f>
+        <v>29.085704152008432</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="19">
+        <v>37347</v>
+      </c>
+      <c r="B198">
+        <f>VLOOKUP($A198,Data!$A$2:$L$873,3)</f>
+        <v>2199.0439950994132</v>
+      </c>
+      <c r="C198">
+        <f>VLOOKUP($A198,Data!$A$2:$L$873,4)</f>
+        <v>1079.25</v>
+      </c>
+      <c r="D198">
+        <f>VLOOKUP($A198,Data!$A$2:$L$873,5)</f>
+        <v>15.936666666666667</v>
+      </c>
+      <c r="E198">
+        <f>VLOOKUP($A198,Data!$A$2:$L$873,6)</f>
+        <v>25.38</v>
+      </c>
+      <c r="F198">
+        <f>VLOOKUP($A198,Data!$A$2:$L$873,7)</f>
+        <v>28.128107508688352</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="20">
+        <v>37438</v>
+      </c>
+      <c r="B199">
+        <f>VLOOKUP($A199,Data!$A$2:$L$873,3)</f>
+        <v>2332.6971214596333</v>
+      </c>
+      <c r="C199">
+        <f>VLOOKUP($A199,Data!$A$2:$L$873,4)</f>
+        <v>912.55</v>
+      </c>
+      <c r="D199">
+        <f>VLOOKUP($A199,Data!$A$2:$L$873,5)</f>
+        <v>15.879999999999999</v>
+      </c>
+      <c r="E199">
+        <f>VLOOKUP($A199,Data!$A$2:$L$873,6)</f>
+        <v>27.84</v>
+      </c>
+      <c r="F199">
+        <f>VLOOKUP($A199,Data!$A$2:$L$873,7)</f>
+        <v>23.588713528842387</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="19">
+        <v>37530</v>
+      </c>
+      <c r="B200">
+        <f>VLOOKUP($A200,Data!$A$2:$L$873,3)</f>
+        <v>2467.046786227655</v>
+      </c>
+      <c r="C200">
+        <f>VLOOKUP($A200,Data!$A$2:$L$873,4)</f>
+        <v>909.93</v>
+      </c>
+      <c r="D200">
+        <f>VLOOKUP($A200,Data!$A$2:$L$873,5)</f>
+        <v>15.98</v>
+      </c>
+      <c r="E200">
+        <f>VLOOKUP($A200,Data!$A$2:$L$873,6)</f>
+        <v>29.223333333333333</v>
+      </c>
+      <c r="F200">
+        <f>VLOOKUP($A200,Data!$A$2:$L$873,7)</f>
+        <v>23.348396502725137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="20">
+        <v>37622</v>
+      </c>
+      <c r="B201">
+        <f>VLOOKUP($A201,Data!$A$2:$L$873,3)</f>
+        <v>2476.7644104452038</v>
+      </c>
+      <c r="C201">
+        <f>VLOOKUP($A201,Data!$A$2:$L$873,4)</f>
+        <v>837.03</v>
+      </c>
+      <c r="D201">
+        <f>VLOOKUP($A201,Data!$A$2:$L$873,5)</f>
+        <v>16.169999999999998</v>
+      </c>
+      <c r="E201">
+        <f>VLOOKUP($A201,Data!$A$2:$L$873,6)</f>
+        <v>28.5</v>
+      </c>
+      <c r="F201">
+        <f>VLOOKUP($A201,Data!$A$2:$L$873,7)</f>
+        <v>21.214102123415294</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="19">
+        <v>37712</v>
+      </c>
+      <c r="B202">
+        <f>VLOOKUP($A202,Data!$A$2:$L$873,3)</f>
+        <v>2522.7226510892638</v>
+      </c>
+      <c r="C202">
+        <f>VLOOKUP($A202,Data!$A$2:$L$873,4)</f>
+        <v>935.96</v>
+      </c>
+      <c r="D202">
+        <f>VLOOKUP($A202,Data!$A$2:$L$873,5)</f>
+        <v>16.186666666666667</v>
+      </c>
+      <c r="E202">
+        <f>VLOOKUP($A202,Data!$A$2:$L$873,6)</f>
+        <v>31.73</v>
+      </c>
+      <c r="F202">
+        <f>VLOOKUP($A202,Data!$A$2:$L$873,7)</f>
+        <v>23.591080453481489</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="20">
+        <v>37803</v>
+      </c>
+      <c r="B203">
+        <f>VLOOKUP($A203,Data!$A$2:$L$873,3)</f>
+        <v>2421.7999560236326</v>
+      </c>
+      <c r="C203">
+        <f>VLOOKUP($A203,Data!$A$2:$L$873,4)</f>
+        <v>989.53</v>
+      </c>
+      <c r="D203">
+        <f>VLOOKUP($A203,Data!$A$2:$L$873,5)</f>
+        <v>16.450000000000003</v>
+      </c>
+      <c r="E203">
+        <f>VLOOKUP($A203,Data!$A$2:$L$873,6)</f>
+        <v>35.893333333333331</v>
+      </c>
+      <c r="F203">
+        <f>VLOOKUP($A203,Data!$A$2:$L$873,7)</f>
+        <v>24.642251409932175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="19">
+        <v>37895</v>
+      </c>
+      <c r="B204">
+        <f>VLOOKUP($A204,Data!$A$2:$L$873,3)</f>
+        <v>2477.9517760072763</v>
+      </c>
+      <c r="C204">
+        <f>VLOOKUP($A204,Data!$A$2:$L$873,4)</f>
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="D204">
+        <f>VLOOKUP($A204,Data!$A$2:$L$873,5)</f>
+        <v>17.123333333333335</v>
+      </c>
+      <c r="E204">
+        <f>VLOOKUP($A204,Data!$A$2:$L$873,6)</f>
+        <v>41.966666666666669</v>
+      </c>
+      <c r="F204">
+        <f>VLOOKUP($A204,Data!$A$2:$L$873,7)</f>
+        <v>25.946798218420131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="20">
+        <v>37987</v>
+      </c>
+      <c r="B205">
+        <f>VLOOKUP($A205,Data!$A$2:$L$873,3)</f>
+        <v>2538.9972266166474</v>
+      </c>
+      <c r="C205">
+        <f>VLOOKUP($A205,Data!$A$2:$L$873,4)</f>
+        <v>1143.3599999999999</v>
+      </c>
+      <c r="D205">
+        <f>VLOOKUP($A205,Data!$A$2:$L$873,5)</f>
+        <v>17.810000000000002</v>
+      </c>
+      <c r="E205">
+        <f>VLOOKUP($A205,Data!$A$2:$L$873,6)</f>
+        <v>49.826666666666675</v>
+      </c>
+      <c r="F205">
+        <f>VLOOKUP($A205,Data!$A$2:$L$873,7)</f>
+        <v>27.650862036740229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="19">
+        <v>38078</v>
+      </c>
+      <c r="B206">
+        <f>VLOOKUP($A206,Data!$A$2:$L$873,3)</f>
+        <v>2488.3967258869602</v>
+      </c>
+      <c r="C206">
+        <f>VLOOKUP($A206,Data!$A$2:$L$873,4)</f>
+        <v>1102.78</v>
+      </c>
+      <c r="D206">
+        <f>VLOOKUP($A206,Data!$A$2:$L$873,5)</f>
+        <v>18.406666666666666</v>
+      </c>
+      <c r="E206">
+        <f>VLOOKUP($A206,Data!$A$2:$L$873,6)</f>
+        <v>53.383333333333333</v>
+      </c>
+      <c r="F206">
+        <f>VLOOKUP($A206,Data!$A$2:$L$873,7)</f>
+        <v>25.902814292943773</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="20">
+        <v>38169</v>
+      </c>
+      <c r="B207">
+        <f>VLOOKUP($A207,Data!$A$2:$L$873,3)</f>
+        <v>2523.0066807984117</v>
+      </c>
+      <c r="C207">
+        <f>VLOOKUP($A207,Data!$A$2:$L$873,4)</f>
+        <v>1088.94</v>
+      </c>
+      <c r="D207">
+        <f>VLOOKUP($A207,Data!$A$2:$L$873,5)</f>
+        <v>18.973333333333333</v>
+      </c>
+      <c r="E207">
+        <f>VLOOKUP($A207,Data!$A$2:$L$873,6)</f>
+        <v>56.69</v>
+      </c>
+      <c r="F207">
+        <f>VLOOKUP($A207,Data!$A$2:$L$873,7)</f>
+        <v>25.174462226477786</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="19">
+        <v>38261</v>
+      </c>
+      <c r="B208">
+        <f>VLOOKUP($A208,Data!$A$2:$L$873,3)</f>
+        <v>2642.7551454263462</v>
+      </c>
+      <c r="C208">
+        <f>VLOOKUP($A208,Data!$A$2:$L$873,4)</f>
+        <v>1168.94</v>
+      </c>
+      <c r="D208">
+        <f>VLOOKUP($A208,Data!$A$2:$L$873,5)</f>
+        <v>19.346666666666668</v>
+      </c>
+      <c r="E208">
+        <f>VLOOKUP($A208,Data!$A$2:$L$873,6)</f>
+        <v>58.03</v>
+      </c>
+      <c r="F208">
+        <f>VLOOKUP($A208,Data!$A$2:$L$873,7)</f>
+        <v>26.465310814818057</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="20">
+        <v>38353</v>
+      </c>
+      <c r="B209">
+        <f>VLOOKUP($A209,Data!$A$2:$L$873,3)</f>
+        <v>2650.9906227621468</v>
+      </c>
+      <c r="C209">
+        <f>VLOOKUP($A209,Data!$A$2:$L$873,4)</f>
+        <v>1199.6300000000001</v>
+      </c>
+      <c r="D209">
+        <f>VLOOKUP($A209,Data!$A$2:$L$873,5)</f>
+        <v>19.966666666666669</v>
+      </c>
+      <c r="E209">
+        <f>VLOOKUP($A209,Data!$A$2:$L$873,6)</f>
+        <v>59.106666666666662</v>
+      </c>
+      <c r="F209">
+        <f>VLOOKUP($A209,Data!$A$2:$L$873,7)</f>
+        <v>26.744863128101194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="19">
+        <v>38443</v>
+      </c>
+      <c r="B210">
+        <f>VLOOKUP($A210,Data!$A$2:$L$873,3)</f>
+        <v>2664.2726936089989</v>
+      </c>
+      <c r="C210">
+        <f>VLOOKUP($A210,Data!$A$2:$L$873,4)</f>
+        <v>1178.28</v>
+      </c>
+      <c r="D210">
+        <f>VLOOKUP($A210,Data!$A$2:$L$873,5)</f>
+        <v>20.696666666666665</v>
+      </c>
+      <c r="E210">
+        <f>VLOOKUP($A210,Data!$A$2:$L$873,6)</f>
+        <v>61.233333333333327</v>
+      </c>
+      <c r="F210">
+        <f>VLOOKUP($A210,Data!$A$2:$L$873,7)</f>
+        <v>25.650230187182977</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="20">
+        <v>38534</v>
+      </c>
+      <c r="B211">
+        <f>VLOOKUP($A211,Data!$A$2:$L$873,3)</f>
+        <v>2675.7213166572342</v>
+      </c>
+      <c r="C211">
+        <f>VLOOKUP($A211,Data!$A$2:$L$873,4)</f>
+        <v>1224.27</v>
+      </c>
+      <c r="D211">
+        <f>VLOOKUP($A211,Data!$A$2:$L$873,5)</f>
+        <v>21.29</v>
+      </c>
+      <c r="E211">
+        <f>VLOOKUP($A211,Data!$A$2:$L$873,6)</f>
+        <v>64.33</v>
+      </c>
+      <c r="F211">
+        <f>VLOOKUP($A211,Data!$A$2:$L$873,7)</f>
+        <v>26.104381410936153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="19">
+        <v>38626</v>
+      </c>
+      <c r="B212">
+        <f>VLOOKUP($A212,Data!$A$2:$L$873,3)</f>
+        <v>2641.7601332747877</v>
+      </c>
+      <c r="C212">
+        <f>VLOOKUP($A212,Data!$A$2:$L$873,4)</f>
+        <v>1237.3699999999999</v>
+      </c>
+      <c r="D212">
+        <f>VLOOKUP($A212,Data!$A$2:$L$873,5)</f>
+        <v>21.97</v>
+      </c>
+      <c r="E212">
+        <f>VLOOKUP($A212,Data!$A$2:$L$873,6)</f>
+        <v>67.589999999999989</v>
+      </c>
+      <c r="F212">
+        <f>VLOOKUP($A212,Data!$A$2:$L$873,7)</f>
+        <v>25.931783309069029</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="20">
+        <v>38718</v>
+      </c>
+      <c r="B213">
+        <f>VLOOKUP($A213,Data!$A$2:$L$873,3)</f>
+        <v>2679.7904699276587</v>
+      </c>
+      <c r="C213">
+        <f>VLOOKUP($A213,Data!$A$2:$L$873,4)</f>
+        <v>1276.6500000000001</v>
+      </c>
+      <c r="D213">
+        <f>VLOOKUP($A213,Data!$A$2:$L$873,5)</f>
+        <v>22.593333333333334</v>
+      </c>
+      <c r="E213">
+        <f>VLOOKUP($A213,Data!$A$2:$L$873,6)</f>
+        <v>70.776666666666657</v>
+      </c>
+      <c r="F213">
+        <f>VLOOKUP($A213,Data!$A$2:$L$873,7)</f>
+        <v>26.249624763583299</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="19">
+        <v>38808</v>
+      </c>
+      <c r="B214">
+        <f>VLOOKUP($A214,Data!$A$2:$L$873,3)</f>
+        <v>2598.9582912552778</v>
+      </c>
+      <c r="C214">
+        <f>VLOOKUP($A214,Data!$A$2:$L$873,4)</f>
+        <v>1290.01</v>
+      </c>
+      <c r="D214">
+        <f>VLOOKUP($A214,Data!$A$2:$L$873,5)</f>
+        <v>23.22</v>
+      </c>
+      <c r="E214">
+        <f>VLOOKUP($A214,Data!$A$2:$L$873,6)</f>
+        <v>73.276666666666657</v>
+      </c>
+      <c r="F214">
+        <f>VLOOKUP($A214,Data!$A$2:$L$873,7)</f>
+        <v>25.650640708757347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="20">
+        <v>38899</v>
+      </c>
+      <c r="B215">
+        <f>VLOOKUP($A215,Data!$A$2:$L$873,3)</f>
+        <v>2648.5001544088459</v>
+      </c>
+      <c r="C215">
+        <f>VLOOKUP($A215,Data!$A$2:$L$873,4)</f>
+        <v>1287.1500000000001</v>
+      </c>
+      <c r="D215">
+        <f>VLOOKUP($A215,Data!$A$2:$L$873,5)</f>
+        <v>23.88</v>
+      </c>
+      <c r="E215">
+        <f>VLOOKUP($A215,Data!$A$2:$L$873,6)</f>
+        <v>75.849999999999994</v>
+      </c>
+      <c r="F215">
+        <f>VLOOKUP($A215,Data!$A$2:$L$873,7)</f>
+        <v>25.051393562010968</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="19">
+        <v>38991</v>
+      </c>
+      <c r="B216">
+        <f>VLOOKUP($A216,Data!$A$2:$L$873,3)</f>
+        <v>2760.5878410266996</v>
+      </c>
+      <c r="C216">
+        <f>VLOOKUP($A216,Data!$A$2:$L$873,4)</f>
+        <v>1388.64</v>
+      </c>
+      <c r="D216">
+        <f>VLOOKUP($A216,Data!$A$2:$L$873,5)</f>
+        <v>24.619999999999997</v>
+      </c>
+      <c r="E216">
+        <f>VLOOKUP($A216,Data!$A$2:$L$873,6)</f>
+        <v>79.55</v>
+      </c>
+      <c r="F216">
+        <f>VLOOKUP($A216,Data!$A$2:$L$873,7)</f>
+        <v>26.928020270856504</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="20">
+        <v>39083</v>
+      </c>
+      <c r="B217">
+        <f>VLOOKUP($A217,Data!$A$2:$L$873,3)</f>
+        <v>2744.4569199021348</v>
+      </c>
+      <c r="C217">
+        <f>VLOOKUP($A217,Data!$A$2:$L$873,4)</f>
+        <v>1444.8</v>
+      </c>
+      <c r="D217">
+        <f>VLOOKUP($A217,Data!$A$2:$L$873,5)</f>
+        <v>25.286666666666665</v>
+      </c>
+      <c r="E217">
+        <f>VLOOKUP($A217,Data!$A$2:$L$873,6)</f>
+        <v>82.056666666666672</v>
+      </c>
+      <c r="F217">
+        <f>VLOOKUP($A217,Data!$A$2:$L$873,7)</f>
+        <v>27.315181413516633</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="19">
+        <v>39173</v>
+      </c>
+      <c r="B218">
+        <f>VLOOKUP($A218,Data!$A$2:$L$873,3)</f>
+        <v>2820.1338635399106</v>
+      </c>
+      <c r="C218">
+        <f>VLOOKUP($A218,Data!$A$2:$L$873,4)</f>
+        <v>1511.14</v>
+      </c>
+      <c r="D218">
+        <f>VLOOKUP($A218,Data!$A$2:$L$873,5)</f>
+        <v>25.943333333333335</v>
+      </c>
+      <c r="E218">
+        <f>VLOOKUP($A218,Data!$A$2:$L$873,6)</f>
+        <v>83.740000000000009</v>
+      </c>
+      <c r="F218">
+        <f>VLOOKUP($A218,Data!$A$2:$L$873,7)</f>
+        <v>27.548490451851283</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="20">
+        <v>39264</v>
+      </c>
+      <c r="B219">
+        <f>VLOOKUP($A219,Data!$A$2:$L$873,3)</f>
+        <v>2820.668569206643</v>
+      </c>
+      <c r="C219">
+        <f>VLOOKUP($A219,Data!$A$2:$L$873,4)</f>
+        <v>1454.62</v>
+      </c>
+      <c r="D219">
+        <f>VLOOKUP($A219,Data!$A$2:$L$873,5)</f>
+        <v>26.71</v>
+      </c>
+      <c r="E219">
+        <f>VLOOKUP($A219,Data!$A$2:$L$873,6)</f>
+        <v>82.813333333333333</v>
+      </c>
+      <c r="F219">
+        <f>VLOOKUP($A219,Data!$A$2:$L$873,7)</f>
+        <v>26.148607189312333</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="19">
+        <v>39356</v>
+      </c>
+      <c r="B220">
+        <f>VLOOKUP($A220,Data!$A$2:$L$873,3)</f>
+        <v>2921.2259964167292</v>
+      </c>
+      <c r="C220">
+        <f>VLOOKUP($A220,Data!$A$2:$L$873,4)</f>
+        <v>1463.39</v>
+      </c>
+      <c r="D220">
+        <f>VLOOKUP($A220,Data!$A$2:$L$873,5)</f>
+        <v>27.480000000000004</v>
+      </c>
+      <c r="E220">
+        <f>VLOOKUP($A220,Data!$A$2:$L$873,6)</f>
+        <v>74.460000000000008</v>
+      </c>
+      <c r="F220">
+        <f>VLOOKUP($A220,Data!$A$2:$L$873,7)</f>
+        <v>25.729053579498387</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="20">
+        <v>39448</v>
+      </c>
+      <c r="B221">
+        <f>VLOOKUP($A221,Data!$A$2:$L$873,3)</f>
+        <v>3149.2957422198774</v>
+      </c>
+      <c r="C221">
+        <f>VLOOKUP($A221,Data!$A$2:$L$873,4)</f>
+        <v>1354.87</v>
+      </c>
+      <c r="D221">
+        <f>VLOOKUP($A221,Data!$A$2:$L$873,5)</f>
+        <v>28.11</v>
+      </c>
+      <c r="E221">
+        <f>VLOOKUP($A221,Data!$A$2:$L$873,6)</f>
+        <v>64.25</v>
+      </c>
+      <c r="F221">
+        <f>VLOOKUP($A221,Data!$A$2:$L$873,7)</f>
+        <v>23.495263401811787</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="19">
+        <v>39539</v>
+      </c>
+      <c r="B222">
+        <f>VLOOKUP($A222,Data!$A$2:$L$873,3)</f>
+        <v>3150.7766710054384</v>
+      </c>
+      <c r="C222">
+        <f>VLOOKUP($A222,Data!$A$2:$L$873,4)</f>
+        <v>1403.22</v>
+      </c>
+      <c r="D222">
+        <f>VLOOKUP($A222,Data!$A$2:$L$873,5)</f>
+        <v>28.573333333333334</v>
+      </c>
+      <c r="E222">
+        <f>VLOOKUP($A222,Data!$A$2:$L$873,6)</f>
+        <v>57.383333333333326</v>
+      </c>
+      <c r="F222">
+        <f>VLOOKUP($A222,Data!$A$2:$L$873,7)</f>
+        <v>23.696432116623178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="20">
+        <v>39630</v>
+      </c>
+      <c r="B223">
+        <f>VLOOKUP($A223,Data!$A$2:$L$873,3)</f>
+        <v>3125.0457930882521</v>
+      </c>
+      <c r="C223">
+        <f>VLOOKUP($A223,Data!$A$2:$L$873,4)</f>
+        <v>1281.47</v>
+      </c>
+      <c r="D223">
+        <f>VLOOKUP($A223,Data!$A$2:$L$873,5)</f>
+        <v>28.803333333333335</v>
+      </c>
+      <c r="E223">
+        <f>VLOOKUP($A223,Data!$A$2:$L$873,6)</f>
+        <v>49.563333333333333</v>
+      </c>
+      <c r="F223">
+        <f>VLOOKUP($A223,Data!$A$2:$L$873,7)</f>
+        <v>21.401617360047926</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="19">
+        <v>39722</v>
+      </c>
+      <c r="B224">
+        <f>VLOOKUP($A224,Data!$A$2:$L$873,3)</f>
+        <v>3150.2067598794047</v>
+      </c>
+      <c r="C224">
+        <f>VLOOKUP($A224,Data!$A$2:$L$873,4)</f>
+        <v>883.04</v>
+      </c>
+      <c r="D224">
+        <f>VLOOKUP($A224,Data!$A$2:$L$873,5)</f>
+        <v>28.543333333333333</v>
+      </c>
+      <c r="E224">
+        <f>VLOOKUP($A224,Data!$A$2:$L$873,6)</f>
+        <v>35.593333333333334</v>
+      </c>
+      <c r="F224">
+        <f>VLOOKUP($A224,Data!$A$2:$L$873,7)</f>
+        <v>15.259659405704577</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="20">
+        <v>39814</v>
+      </c>
+      <c r="B225">
+        <f>VLOOKUP($A225,Data!$A$2:$L$873,3)</f>
+        <v>3479.534395743266</v>
+      </c>
+      <c r="C225">
+        <f>VLOOKUP($A225,Data!$A$2:$L$873,4)</f>
+        <v>805.23</v>
+      </c>
+      <c r="D225">
+        <f>VLOOKUP($A225,Data!$A$2:$L$873,5)</f>
+        <v>27.63666666666667</v>
+      </c>
+      <c r="E225">
+        <f>VLOOKUP($A225,Data!$A$2:$L$873,6)</f>
+        <v>12.206666666666667</v>
+      </c>
+      <c r="F225">
+        <f>VLOOKUP($A225,Data!$A$2:$L$873,7)</f>
+        <v>14.122181801918893</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="19">
+        <v>39904</v>
+      </c>
+      <c r="B226">
+        <f>VLOOKUP($A226,Data!$A$2:$L$873,3)</f>
+        <v>3417.4904195846607</v>
+      </c>
+      <c r="C226">
+        <f>VLOOKUP($A226,Data!$A$2:$L$873,4)</f>
+        <v>902.41</v>
+      </c>
+      <c r="D226">
+        <f>VLOOKUP($A226,Data!$A$2:$L$873,5)</f>
+        <v>26.146666666666668</v>
+      </c>
+      <c r="E226">
+        <f>VLOOKUP($A226,Data!$A$2:$L$873,6)</f>
+        <v>7.0766666666666662</v>
+      </c>
+      <c r="F226">
+        <f>VLOOKUP($A226,Data!$A$2:$L$873,7)</f>
+        <v>15.996355755263151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="20">
+        <v>39995</v>
+      </c>
+      <c r="B227">
+        <f>VLOOKUP($A227,Data!$A$2:$L$873,3)</f>
+        <v>3343.8238939052239</v>
+      </c>
+      <c r="C227">
+        <f>VLOOKUP($A227,Data!$A$2:$L$873,4)</f>
+        <v>1009.73</v>
+      </c>
+      <c r="D227">
+        <f>VLOOKUP($A227,Data!$A$2:$L$873,5)</f>
+        <v>24.463333333333331</v>
+      </c>
+      <c r="E227">
+        <f>VLOOKUP($A227,Data!$A$2:$L$873,6)</f>
+        <v>9.1866666666666674</v>
+      </c>
+      <c r="F227">
+        <f>VLOOKUP($A227,Data!$A$2:$L$873,7)</f>
+        <v>18.094069801576079</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="19">
+        <v>40087</v>
+      </c>
+      <c r="B228">
+        <f>VLOOKUP($A228,Data!$A$2:$L$873,3)</f>
+        <v>3403.2083462883666</v>
+      </c>
+      <c r="C228">
+        <f>VLOOKUP($A228,Data!$A$2:$L$873,4)</f>
+        <v>1088.07</v>
+      </c>
+      <c r="D228">
+        <f>VLOOKUP($A228,Data!$A$2:$L$873,5)</f>
+        <v>22.906666666666666</v>
+      </c>
+      <c r="E228">
+        <f>VLOOKUP($A228,Data!$A$2:$L$873,6)</f>
+        <v>25.349999999999998</v>
+      </c>
+      <c r="F228">
+        <f>VLOOKUP($A228,Data!$A$2:$L$873,7)</f>
+        <v>19.812761079966055</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="20">
+        <v>40179</v>
+      </c>
+      <c r="B229">
+        <f>VLOOKUP($A229,Data!$A$2:$L$873,3)</f>
+        <v>3368.4848799472556</v>
+      </c>
+      <c r="C229">
+        <f>VLOOKUP($A229,Data!$A$2:$L$873,4)</f>
+        <v>1089.1600000000001</v>
+      </c>
+      <c r="D229">
+        <f>VLOOKUP($A229,Data!$A$2:$L$873,5)</f>
+        <v>22.07</v>
+      </c>
+      <c r="E229">
+        <f>VLOOKUP($A229,Data!$A$2:$L$873,6)</f>
+        <v>54.289999999999992</v>
+      </c>
+      <c r="F229">
+        <f>VLOOKUP($A229,Data!$A$2:$L$873,7)</f>
+        <v>19.920539306600443</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="19">
+        <v>40269</v>
+      </c>
+      <c r="B230">
+        <f>VLOOKUP($A230,Data!$A$2:$L$873,3)</f>
+        <v>3382.5736128400758</v>
+      </c>
+      <c r="C230">
+        <f>VLOOKUP($A230,Data!$A$2:$L$873,4)</f>
+        <v>1125.06</v>
+      </c>
+      <c r="D230">
+        <f>VLOOKUP($A230,Data!$A$2:$L$873,5)</f>
+        <v>21.993333333333332</v>
+      </c>
+      <c r="E230">
+        <f>VLOOKUP($A230,Data!$A$2:$L$873,6)</f>
+        <v>62.986666666666665</v>
+      </c>
+      <c r="F230">
+        <f>VLOOKUP($A230,Data!$A$2:$L$873,7)</f>
+        <v>20.480068638423408</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="20">
+        <v>40360</v>
+      </c>
+      <c r="B231">
+        <f>VLOOKUP($A231,Data!$A$2:$L$873,3)</f>
+        <v>3630.3379139950616</v>
+      </c>
+      <c r="C231">
+        <f>VLOOKUP($A231,Data!$A$2:$L$873,4)</f>
+        <v>1087.28</v>
+      </c>
+      <c r="D231">
+        <f>VLOOKUP($A231,Data!$A$2:$L$873,5)</f>
+        <v>22.246666666666666</v>
+      </c>
+      <c r="E231">
+        <f>VLOOKUP($A231,Data!$A$2:$L$873,6)</f>
+        <v>68.686666666666667</v>
+      </c>
+      <c r="F231">
+        <f>VLOOKUP($A231,Data!$A$2:$L$873,7)</f>
+        <v>19.770299174358573</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="19">
+        <v>40452</v>
+      </c>
+      <c r="B232">
+        <f>VLOOKUP($A232,Data!$A$2:$L$873,3)</f>
+        <v>3751.6526990518132</v>
+      </c>
+      <c r="C232">
+        <f>VLOOKUP($A232,Data!$A$2:$L$873,4)</f>
+        <v>1198.8900000000001</v>
+      </c>
+      <c r="D232">
+        <f>VLOOKUP($A232,Data!$A$2:$L$873,5)</f>
+        <v>22.603333333333335</v>
+      </c>
+      <c r="E232">
+        <f>VLOOKUP($A232,Data!$A$2:$L$873,6)</f>
+        <v>73.69</v>
+      </c>
+      <c r="F232">
+        <f>VLOOKUP($A232,Data!$A$2:$L$873,7)</f>
+        <v>21.700723827760605</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="20">
+        <v>40544</v>
+      </c>
+      <c r="B233">
+        <f>VLOOKUP($A233,Data!$A$2:$L$873,3)</f>
+        <v>3532.2337113592403</v>
+      </c>
+      <c r="C233">
+        <f>VLOOKUP($A233,Data!$A$2:$L$873,4)</f>
+        <v>1321.12</v>
+      </c>
+      <c r="D233">
+        <f>VLOOKUP($A233,Data!$A$2:$L$873,5)</f>
+        <v>23.196666666666665</v>
+      </c>
+      <c r="E233">
+        <f>VLOOKUP($A233,Data!$A$2:$L$873,6)</f>
+        <v>78.67</v>
+      </c>
+      <c r="F233">
+        <f>VLOOKUP($A233,Data!$A$2:$L$873,7)</f>
+        <v>23.489828703298517</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="19">
+        <v>40634</v>
+      </c>
+      <c r="B234">
+        <f>VLOOKUP($A234,Data!$A$2:$L$873,3)</f>
+        <v>3592.398009107425</v>
+      </c>
+      <c r="C234">
+        <f>VLOOKUP($A234,Data!$A$2:$L$873,4)</f>
+        <v>1338.31</v>
+      </c>
+      <c r="D234">
+        <f>VLOOKUP($A234,Data!$A$2:$L$873,5)</f>
+        <v>24.036666666666665</v>
+      </c>
+      <c r="E234">
+        <f>VLOOKUP($A234,Data!$A$2:$L$873,6)</f>
+        <v>82.163333333333341</v>
+      </c>
+      <c r="F234">
+        <f>VLOOKUP($A234,Data!$A$2:$L$873,7)</f>
+        <v>23.059491506095327</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="20">
+        <v>40725</v>
+      </c>
+      <c r="B235">
+        <f>VLOOKUP($A235,Data!$A$2:$L$873,3)</f>
+        <v>3776.47759230766</v>
+      </c>
+      <c r="C235">
+        <f>VLOOKUP($A235,Data!$A$2:$L$873,4)</f>
+        <v>1185.31</v>
+      </c>
+      <c r="D235">
+        <f>VLOOKUP($A235,Data!$A$2:$L$873,5)</f>
+        <v>24.9</v>
+      </c>
+      <c r="E235">
+        <f>VLOOKUP($A235,Data!$A$2:$L$873,6)</f>
+        <v>84.906666666666666</v>
+      </c>
+      <c r="F235">
+        <f>VLOOKUP($A235,Data!$A$2:$L$873,7)</f>
+        <v>20.049852721660486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="19">
+        <v>40817</v>
+      </c>
+      <c r="B236">
+        <f>VLOOKUP($A236,Data!$A$2:$L$873,3)</f>
+        <v>4016.5294400708149</v>
+      </c>
+      <c r="C236">
+        <f>VLOOKUP($A236,Data!$A$2:$L$873,4)</f>
+        <v>1226.42</v>
+      </c>
+      <c r="D236">
+        <f>VLOOKUP($A236,Data!$A$2:$L$873,5)</f>
+        <v>26.013333333333335</v>
+      </c>
+      <c r="E236">
+        <f>VLOOKUP($A236,Data!$A$2:$L$873,6)</f>
+        <v>86.97</v>
+      </c>
+      <c r="F236">
+        <f>VLOOKUP($A236,Data!$A$2:$L$873,7)</f>
+        <v>20.34524679764581</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="20">
+        <v>40909</v>
+      </c>
+      <c r="B237">
+        <f>VLOOKUP($A237,Data!$A$2:$L$873,3)</f>
+        <v>4161.3561927940082</v>
+      </c>
+      <c r="C237">
+        <f>VLOOKUP($A237,Data!$A$2:$L$873,4)</f>
+        <v>1352.49</v>
+      </c>
+      <c r="D237">
+        <f>VLOOKUP($A237,Data!$A$2:$L$873,5)</f>
+        <v>27.043333333333337</v>
+      </c>
+      <c r="E237">
+        <f>VLOOKUP($A237,Data!$A$2:$L$873,6)</f>
+        <v>87.48</v>
+      </c>
+      <c r="F237">
+        <f>VLOOKUP($A237,Data!$A$2:$L$873,7)</f>
+        <v>21.797435963717518</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="19">
+        <v>41000</v>
+      </c>
+      <c r="B238">
+        <f>VLOOKUP($A238,Data!$A$2:$L$873,3)</f>
+        <v>4136.2554770324787</v>
+      </c>
+      <c r="C238">
+        <f>VLOOKUP($A238,Data!$A$2:$L$873,4)</f>
+        <v>1341.27</v>
+      </c>
+      <c r="D238">
+        <f>VLOOKUP($A238,Data!$A$2:$L$873,5)</f>
+        <v>27.996666666666666</v>
+      </c>
+      <c r="E238">
+        <f>VLOOKUP($A238,Data!$A$2:$L$873,6)</f>
+        <v>88.333333333333343</v>
+      </c>
+      <c r="F238">
+        <f>VLOOKUP($A238,Data!$A$2:$L$873,7)</f>
+        <v>20.941467419743464</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="20">
+        <v>41091</v>
+      </c>
+      <c r="B239">
+        <f>VLOOKUP($A239,Data!$A$2:$L$873,3)</f>
+        <v>4321.9748235954767</v>
+      </c>
+      <c r="C239">
+        <f>VLOOKUP($A239,Data!$A$2:$L$873,4)</f>
+        <v>1403.45</v>
+      </c>
+      <c r="D239">
+        <f>VLOOKUP($A239,Data!$A$2:$L$873,5)</f>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="E239">
+        <f>VLOOKUP($A239,Data!$A$2:$L$873,6)</f>
+        <v>87.446666666666673</v>
+      </c>
+      <c r="F239">
+        <f>VLOOKUP($A239,Data!$A$2:$L$873,7)</f>
+        <v>21.410428453442922</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="19">
+        <v>41183</v>
+      </c>
+      <c r="B240">
+        <f>VLOOKUP($A240,Data!$A$2:$L$873,3)</f>
+        <v>4256.6271869349403</v>
+      </c>
+      <c r="C240">
+        <f>VLOOKUP($A240,Data!$A$2:$L$873,4)</f>
+        <v>1394.51</v>
+      </c>
+      <c r="D240">
+        <f>VLOOKUP($A240,Data!$A$2:$L$873,5)</f>
+        <v>30.696666666666665</v>
+      </c>
+      <c r="E240">
+        <f>VLOOKUP($A240,Data!$A$2:$L$873,6)</f>
+        <v>86.50333333333333</v>
+      </c>
+      <c r="F240">
+        <f>VLOOKUP($A240,Data!$A$2:$L$873,7)</f>
+        <v>20.898162059573689</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="20">
+        <v>41275</v>
+      </c>
+      <c r="B241">
+        <f>VLOOKUP($A241,Data!$A$2:$L$873,3)</f>
+        <v>4160.2272230549188</v>
+      </c>
+      <c r="C241">
+        <f>VLOOKUP($A241,Data!$A$2:$L$873,4)</f>
+        <v>1512.31</v>
+      </c>
+      <c r="D241">
+        <f>VLOOKUP($A241,Data!$A$2:$L$873,5)</f>
+        <v>31.823333333333331</v>
+      </c>
+      <c r="E241">
+        <f>VLOOKUP($A241,Data!$A$2:$L$873,6)</f>
+        <v>86.906666666666666</v>
+      </c>
+      <c r="F241">
+        <f>VLOOKUP($A241,Data!$A$2:$L$873,7)</f>
+        <v>22.052724336861932</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="19">
+        <v>41365</v>
+      </c>
+      <c r="B242">
+        <f>VLOOKUP($A242,Data!$A$2:$L$873,3)</f>
+        <v>4302.131094286754</v>
+      </c>
+      <c r="C242">
+        <f>VLOOKUP($A242,Data!$A$2:$L$873,4)</f>
+        <v>1639.84</v>
+      </c>
+      <c r="D242">
+        <f>VLOOKUP($A242,Data!$A$2:$L$873,5)</f>
+        <v>32.88333333333334</v>
+      </c>
+      <c r="E242">
+        <f>VLOOKUP($A242,Data!$A$2:$L$873,6)</f>
+        <v>88.783333333333331</v>
+      </c>
+      <c r="F242">
+        <f>VLOOKUP($A242,Data!$A$2:$L$873,7)</f>
+        <v>23.411841781842398</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="20">
+        <v>41456</v>
+      </c>
+      <c r="B243">
+        <f>VLOOKUP($A243,Data!$A$2:$L$873,3)</f>
+        <v>3990.5770025199627</v>
+      </c>
+      <c r="C243">
+        <f>VLOOKUP($A243,Data!$A$2:$L$873,4)</f>
+        <v>1670.09</v>
+      </c>
+      <c r="D243">
+        <f>VLOOKUP($A243,Data!$A$2:$L$873,5)</f>
+        <v>34.023333333333333</v>
+      </c>
+      <c r="E243">
+        <f>VLOOKUP($A243,Data!$A$2:$L$873,6)</f>
+        <v>92.09</v>
+      </c>
+      <c r="F243">
+        <f>VLOOKUP($A243,Data!$A$2:$L$873,7)</f>
+        <v>23.356649094916087</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="19">
+        <v>41548</v>
+      </c>
+      <c r="B244">
+        <f>VLOOKUP($A244,Data!$A$2:$L$873,3)</f>
+        <v>4027.405155914033</v>
+      </c>
+      <c r="C244">
+        <f>VLOOKUP($A244,Data!$A$2:$L$873,4)</f>
+        <v>1783.54</v>
+      </c>
+      <c r="D244">
+        <f>VLOOKUP($A244,Data!$A$2:$L$873,5)</f>
+        <v>34.793333333333337</v>
+      </c>
+      <c r="E244">
+        <f>VLOOKUP($A244,Data!$A$2:$L$873,6)</f>
+        <v>96.313333333333333</v>
+      </c>
+      <c r="F244">
+        <f>VLOOKUP($A244,Data!$A$2:$L$873,7)</f>
+        <v>24.642077092412048</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="20">
+        <v>41640</v>
+      </c>
+      <c r="B245">
+        <f>VLOOKUP($A245,Data!$A$2:$L$873,3)</f>
+        <v>4018.9112072227058</v>
+      </c>
+      <c r="C245">
+        <f>VLOOKUP($A245,Data!$A$2:$L$873,4)</f>
+        <v>1817.04</v>
+      </c>
+      <c r="D245">
+        <f>VLOOKUP($A245,Data!$A$2:$L$873,5)</f>
+        <v>35.816666666666663</v>
+      </c>
+      <c r="E245">
+        <f>VLOOKUP($A245,Data!$A$2:$L$873,6)</f>
+        <v>100.41666666666666</v>
+      </c>
+      <c r="F245">
+        <f>VLOOKUP($A245,Data!$A$2:$L$873,7)</f>
+        <v>24.590930877894124</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="19">
+        <v>41730</v>
+      </c>
+      <c r="B246">
+        <f>VLOOKUP($A246,Data!$A$2:$L$873,3)</f>
+        <v>4045.9084128555996</v>
+      </c>
+      <c r="C246">
+        <f>VLOOKUP($A246,Data!$A$2:$L$873,4)</f>
+        <v>1889.77</v>
+      </c>
+      <c r="D246">
+        <f>VLOOKUP($A246,Data!$A$2:$L$873,5)</f>
+        <v>36.99666666666667</v>
+      </c>
+      <c r="E246">
+        <f>VLOOKUP($A246,Data!$A$2:$L$873,6)</f>
+        <v>101.60666666666667</v>
+      </c>
+      <c r="F246">
+        <f>VLOOKUP($A246,Data!$A$2:$L$873,7)</f>
+        <v>24.943274109902582</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="20">
+        <v>41821</v>
+      </c>
+      <c r="B247">
+        <f>VLOOKUP($A247,Data!$A$2:$L$873,3)</f>
+        <v>4103.44688060712</v>
+      </c>
+      <c r="C247">
+        <f>VLOOKUP($A247,Data!$A$2:$L$873,4)</f>
+        <v>1961.53</v>
+      </c>
+      <c r="D247">
+        <f>VLOOKUP($A247,Data!$A$2:$L$873,5)</f>
+        <v>38.120000000000005</v>
+      </c>
+      <c r="E247">
+        <f>VLOOKUP($A247,Data!$A$2:$L$873,6)</f>
+        <v>104.06666666666666</v>
+      </c>
+      <c r="F247">
+        <f>VLOOKUP($A247,Data!$A$2:$L$873,7)</f>
+        <v>25.617606421799398</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="19">
+        <v>41913</v>
+      </c>
+      <c r="B248">
+        <f>VLOOKUP($A248,Data!$A$2:$L$873,3)</f>
+        <v>4211.9544981603276</v>
+      </c>
+      <c r="C248">
+        <f>VLOOKUP($A248,Data!$A$2:$L$873,4)</f>
+        <v>2044.57</v>
+      </c>
+      <c r="D248">
+        <f>VLOOKUP($A248,Data!$A$2:$L$873,5)</f>
+        <v>39.123333333333335</v>
+      </c>
+      <c r="E248">
+        <f>VLOOKUP($A248,Data!$A$2:$L$873,6)</f>
+        <v>104.74333333333334</v>
+      </c>
+      <c r="F248">
+        <f>VLOOKUP($A248,Data!$A$2:$L$873,7)</f>
+        <v>26.606817147143424</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="20">
+        <v>42005</v>
+      </c>
+      <c r="B249">
+        <f>VLOOKUP($A249,Data!$A$2:$L$873,3)</f>
+        <v>4494.6218325690888</v>
+      </c>
+      <c r="C249">
+        <f>VLOOKUP($A249,Data!$A$2:$L$873,4)</f>
+        <v>2082.1999999999998</v>
+      </c>
+      <c r="D249">
+        <f>VLOOKUP($A249,Data!$A$2:$L$873,5)</f>
+        <v>40.353333333333332</v>
+      </c>
+      <c r="E249">
+        <f>VLOOKUP($A249,Data!$A$2:$L$873,6)</f>
+        <v>101.28999999999999</v>
+      </c>
+      <c r="F249">
+        <f>VLOOKUP($A249,Data!$A$2:$L$873,7)</f>
+        <v>26.995513699383242</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="19">
+        <v>42095</v>
+      </c>
+      <c r="B250">
+        <f>VLOOKUP($A250,Data!$A$2:$L$873,3)</f>
+        <v>4366.8240066412172</v>
+      </c>
+      <c r="C250">
+        <f>VLOOKUP($A250,Data!$A$2:$L$873,4)</f>
+        <v>2111.94</v>
+      </c>
+      <c r="D250">
+        <f>VLOOKUP($A250,Data!$A$2:$L$873,5)</f>
+        <v>41.43</v>
+      </c>
+      <c r="E250">
+        <f>VLOOKUP($A250,Data!$A$2:$L$873,6)</f>
+        <v>97.803333333333342</v>
+      </c>
+      <c r="F250">
+        <f>VLOOKUP($A250,Data!$A$2:$L$873,7)</f>
+        <v>26.806111379650826</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="20">
+        <v>42186</v>
+      </c>
+      <c r="B251">
+        <f>VLOOKUP($A251,Data!$A$2:$L$873,3)</f>
+        <v>4331.8676277242866</v>
+      </c>
+      <c r="C251">
+        <f>VLOOKUP($A251,Data!$A$2:$L$873,4)</f>
+        <v>2039.87</v>
+      </c>
+      <c r="D251">
+        <f>VLOOKUP($A251,Data!$A$2:$L$873,5)</f>
+        <v>42.25333333333333</v>
+      </c>
+      <c r="E251">
+        <f>VLOOKUP($A251,Data!$A$2:$L$873,6)</f>
+        <v>93.493333333333339</v>
+      </c>
+      <c r="F251">
+        <f>VLOOKUP($A251,Data!$A$2:$L$873,7)</f>
+        <v>25.693658417057698</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="19">
+        <v>42278</v>
+      </c>
+      <c r="B252">
+        <f>VLOOKUP($A252,Data!$A$2:$L$873,3)</f>
+        <v>4370.4743275437331</v>
+      </c>
+      <c r="C252">
+        <f>VLOOKUP($A252,Data!$A$2:$L$873,4)</f>
+        <v>2080.62</v>
+      </c>
+      <c r="D252">
+        <f>VLOOKUP($A252,Data!$A$2:$L$873,5)</f>
+        <v>43.096666666666664</v>
+      </c>
+      <c r="E252">
+        <f>VLOOKUP($A252,Data!$A$2:$L$873,6)</f>
+        <v>89.283333333333331</v>
+      </c>
+      <c r="F252">
+        <f>VLOOKUP($A252,Data!$A$2:$L$873,7)</f>
+        <v>26.225851890971931</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="20">
+        <v>42370</v>
+      </c>
+      <c r="B253">
+        <f>VLOOKUP($A253,Data!$A$2:$L$873,3)</f>
+        <v>4480.8652894746319</v>
+      </c>
+      <c r="C253">
+        <f>VLOOKUP($A253,Data!$A$2:$L$873,4)</f>
+        <v>1904.42</v>
+      </c>
+      <c r="D253">
+        <f>VLOOKUP($A253,Data!$A$2:$L$873,5)</f>
+        <v>43.716666666666669</v>
+      </c>
+      <c r="E253">
+        <f>VLOOKUP($A253,Data!$A$2:$L$873,6)</f>
+        <v>86.5</v>
+      </c>
+      <c r="F253">
+        <f>VLOOKUP($A253,Data!$A$2:$L$873,7)</f>
+        <v>24.002606777289763</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="19">
+        <v>42461</v>
+      </c>
+      <c r="B254">
+        <f>VLOOKUP($A254,Data!$A$2:$L$873,3)</f>
+        <v>4545.6629811913272</v>
+      </c>
+      <c r="C254">
+        <f>VLOOKUP($A254,Data!$A$2:$L$873,4)</f>
+        <v>2065.5500000000002</v>
+      </c>
+      <c r="D254">
+        <f>VLOOKUP($A254,Data!$A$2:$L$873,5)</f>
+        <v>44.266666666666666</v>
+      </c>
+      <c r="E254">
+        <f>VLOOKUP($A254,Data!$A$2:$L$873,6)</f>
+        <v>86.6</v>
+      </c>
+      <c r="F254">
+        <f>VLOOKUP($A254,Data!$A$2:$L$873,7)</f>
+        <v>25.694709923449981</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="20">
+        <v>42552</v>
+      </c>
+      <c r="B255">
+        <f>VLOOKUP($A255,Data!$A$2:$L$873,3)</f>
+        <v>4720.538548754057</v>
+      </c>
+      <c r="C255">
+        <f>VLOOKUP($A255,Data!$A$2:$L$873,4)</f>
+        <v>2170.9499999999998</v>
+      </c>
+      <c r="D255">
+        <f>VLOOKUP($A255,Data!$A$2:$L$873,5)</f>
+        <v>44.84</v>
+      </c>
+      <c r="E255">
+        <f>VLOOKUP($A255,Data!$A$2:$L$873,6)</f>
+        <v>87.643333333333331</v>
+      </c>
+      <c r="F255">
+        <f>VLOOKUP($A255,Data!$A$2:$L$873,7)</f>
+        <v>26.948872433723867</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="19">
+        <v>42644</v>
+      </c>
+      <c r="B256">
+        <f>VLOOKUP($A256,Data!$A$2:$L$873,3)</f>
+        <v>4577.1015622929945</v>
+      </c>
+      <c r="C256">
+        <f>VLOOKUP($A256,Data!$A$2:$L$873,4)</f>
+        <v>2164.9899999999998</v>
+      </c>
+      <c r="D256">
+        <f>VLOOKUP($A256,Data!$A$2:$L$873,5)</f>
+        <v>45.476666666666667</v>
+      </c>
+      <c r="E256">
+        <f>VLOOKUP($A256,Data!$A$2:$L$873,6)</f>
+        <v>90.91</v>
+      </c>
+      <c r="F256">
+        <f>VLOOKUP($A256,Data!$A$2:$L$873,7)</f>
+        <v>26.85095353105627</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="20">
+        <v>42736</v>
+      </c>
+      <c r="B257">
+        <f>VLOOKUP($A257,Data!$A$2:$L$873,3)</f>
+        <v>4357.7449013609594</v>
+      </c>
+      <c r="C257">
+        <f>VLOOKUP($A257,Data!$A$2:$L$873,4)</f>
+        <v>2329.91</v>
+      </c>
+      <c r="D257">
+        <f>VLOOKUP($A257,Data!$A$2:$L$873,5)</f>
+        <v>46.153333333333336</v>
+      </c>
+      <c r="E257">
+        <f>VLOOKUP($A257,Data!$A$2:$L$873,6)</f>
+        <v>96.463333333333338</v>
+      </c>
+      <c r="F257">
+        <f>VLOOKUP($A257,Data!$A$2:$L$873,7)</f>
+        <v>28.655106525184141</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="19">
+        <v>42826</v>
+      </c>
+      <c r="B258">
+        <f>VLOOKUP($A258,Data!$A$2:$L$873,3)</f>
+        <v>4445.7936204836396</v>
+      </c>
+      <c r="C258">
+        <f>VLOOKUP($A258,Data!$A$2:$L$873,4)</f>
+        <v>2395.35</v>
+      </c>
+      <c r="D258">
+        <f>VLOOKUP($A258,Data!$A$2:$L$873,5)</f>
+        <v>46.94</v>
+      </c>
+      <c r="E258">
+        <f>VLOOKUP($A258,Data!$A$2:$L$873,6)</f>
+        <v>101.53333333333333</v>
+      </c>
+      <c r="F258">
+        <f>VLOOKUP($A258,Data!$A$2:$L$873,7)</f>
+        <v>29.313344980271438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="20">
+        <v>42917</v>
+      </c>
+      <c r="B259">
+        <f>VLOOKUP($A259,Data!$A$2:$L$873,3)</f>
+        <v>4467.0069363216198</v>
+      </c>
+      <c r="C259">
+        <f>VLOOKUP($A259,Data!$A$2:$L$873,4)</f>
+        <v>2456.2199999999998</v>
+      </c>
+      <c r="D259">
+        <f>VLOOKUP($A259,Data!$A$2:$L$873,5)</f>
+        <v>47.853333333333339</v>
+      </c>
+      <c r="E259">
+        <f>VLOOKUP($A259,Data!$A$2:$L$873,6)</f>
+        <v>105.03999999999999</v>
+      </c>
+      <c r="F259">
+        <f>VLOOKUP($A259,Data!$A$2:$L$873,7)</f>
+        <v>29.914959397497491</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="19">
+        <v>43009</v>
+      </c>
+      <c r="B260">
+        <f>VLOOKUP($A260,Data!$A$2:$L$873,3)</f>
+        <v>4460.0959595550203</v>
+      </c>
+      <c r="C260">
+        <f>VLOOKUP($A260,Data!$A$2:$L$873,4)</f>
+        <v>2593.61</v>
+      </c>
+      <c r="D260">
+        <f>VLOOKUP($A260,Data!$A$2:$L$873,5)</f>
+        <v>48.676666666666662</v>
+      </c>
+      <c r="E260">
+        <f>VLOOKUP($A260,Data!$A$2:$L$873,6)</f>
+        <v>108.01333333333334</v>
+      </c>
+      <c r="F260">
+        <f>VLOOKUP($A260,Data!$A$2:$L$873,7)</f>
+        <v>31.298913333880272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="20">
+        <v>43101</v>
+      </c>
+      <c r="B261">
+        <f>VLOOKUP($A261,Data!$A$2:$L$873,3)</f>
+        <v>4355.4364041008612</v>
+      </c>
+      <c r="C261">
+        <f>VLOOKUP($A261,Data!$A$2:$L$873,4)</f>
+        <v>2705.16</v>
+      </c>
+      <c r="D261">
+        <f>VLOOKUP($A261,Data!$A$2:$L$873,5)</f>
+        <v>49.643333333333331</v>
+      </c>
+      <c r="E261">
+        <f>VLOOKUP($A261,Data!$A$2:$L$873,6)</f>
+        <v>111.73333333333332</v>
+      </c>
+      <c r="F261">
+        <f>VLOOKUP($A261,Data!$A$2:$L$873,7)</f>
+        <v>32.035382339250297</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="19">
+        <v>43191</v>
+      </c>
+      <c r="B262">
+        <f>VLOOKUP($A262,Data!$A$2:$L$873,3)</f>
+        <v>4299.5413941089819</v>
+      </c>
+      <c r="C262">
+        <f>VLOOKUP($A262,Data!$A$2:$L$873,4)</f>
+        <v>2701.49</v>
+      </c>
+      <c r="D262">
+        <f>VLOOKUP($A262,Data!$A$2:$L$873,5)</f>
+        <v>50.66</v>
+      </c>
+      <c r="E262">
+        <f>VLOOKUP($A262,Data!$A$2:$L$873,6)</f>
+        <v>117.78666666666666</v>
+      </c>
+      <c r="F262">
+        <f>VLOOKUP($A262,Data!$A$2:$L$873,7)</f>
+        <v>31.243615074864614</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="20">
+        <v>43282</v>
+      </c>
+      <c r="B263">
+        <f>VLOOKUP($A263,Data!$A$2:$L$873,3)</f>
+        <v>4326.6628894097539</v>
+      </c>
+      <c r="C263">
+        <f>VLOOKUP($A263,Data!$A$2:$L$873,4)</f>
+        <v>2857.82</v>
+      </c>
+      <c r="D263">
+        <f>VLOOKUP($A263,Data!$A$2:$L$873,5)</f>
+        <v>51.89</v>
+      </c>
+      <c r="E263">
+        <f>VLOOKUP($A263,Data!$A$2:$L$873,6)</f>
+        <v>125.11666666666667</v>
+      </c>
+      <c r="F263">
+        <f>VLOOKUP($A263,Data!$A$2:$L$873,7)</f>
+        <v>32.39027688030113</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="19">
+        <v>43374</v>
+      </c>
+      <c r="B264">
+        <f>VLOOKUP($A264,Data!$A$2:$L$873,3)</f>
+        <v>4288.6902499423404</v>
+      </c>
+      <c r="C264">
+        <f>VLOOKUP($A264,Data!$A$2:$L$873,4)</f>
+        <v>2723.23</v>
+      </c>
+      <c r="D264">
+        <f>VLOOKUP($A264,Data!$A$2:$L$873,5)</f>
+        <v>53.28</v>
+      </c>
+      <c r="E264">
+        <f>VLOOKUP($A264,Data!$A$2:$L$873,6)</f>
+        <v>131.05666666666667</v>
+      </c>
+      <c r="F264">
+        <f>VLOOKUP($A264,Data!$A$2:$L$873,7)</f>
+        <v>30.195583406705254</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="20">
+        <v>43466</v>
+      </c>
+      <c r="B265">
+        <f>VLOOKUP($A265,Data!$A$2:$L$873,3)</f>
+        <v>4515.8871899134656</v>
+      </c>
+      <c r="C265">
+        <f>VLOOKUP($A265,Data!$A$2:$L$873,4)</f>
+        <v>2754.86</v>
+      </c>
+      <c r="D265">
+        <f>VLOOKUP($A265,Data!$A$2:$L$873,5)</f>
+        <v>54.543333333333337</v>
+      </c>
+      <c r="E265">
+        <f>VLOOKUP($A265,Data!$A$2:$L$873,6)</f>
+        <v>133.05666666666664</v>
+      </c>
+      <c r="F265">
+        <f>VLOOKUP($A265,Data!$A$2:$L$873,7)</f>
+        <v>29.541548965131227</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="19">
+        <v>43556</v>
+      </c>
+      <c r="B266">
+        <f>VLOOKUP($A266,Data!$A$2:$L$873,3)</f>
+        <v>4591.8876954612178</v>
+      </c>
+      <c r="C266">
+        <f>VLOOKUP($A266,Data!$A$2:$L$873,4)</f>
+        <v>2854.71</v>
+      </c>
+      <c r="D266">
+        <f>VLOOKUP($A266,Data!$A$2:$L$873,5)</f>
+        <v>55.698183161185412</v>
+      </c>
+      <c r="E266">
+        <f>VLOOKUP($A266,Data!$A$2:$L$873,6)</f>
+        <v>134.68333333333334</v>
+      </c>
+      <c r="F266">
+        <f>VLOOKUP($A266,Data!$A$2:$L$873,7)</f>
+        <v>29.242030936939862</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="20">
+        <v>43647</v>
+      </c>
+      <c r="B267">
+        <f>VLOOKUP($A267,Data!$A$2:$L$873,3)</f>
+        <v>4820.041227725671</v>
+      </c>
+      <c r="C267">
+        <f>VLOOKUP($A267,Data!$A$2:$L$873,4)</f>
+        <v>2897.4981818181818</v>
+      </c>
+      <c r="D267">
+        <f>VLOOKUP($A267,Data!$A$2:$L$873,5)</f>
+        <v>56.839091580592708</v>
+      </c>
+      <c r="E267">
+        <f>VLOOKUP($A267,Data!$A$2:$L$873,6)</f>
+        <v>134.48000000000002</v>
+      </c>
+      <c r="F267">
+        <f>VLOOKUP($A267,Data!$A$2:$L$873,7)</f>
+        <v>28.705397371833087</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="19">
+        <v>43739</v>
+      </c>
+      <c r="B268">
+        <f>VLOOKUP($A268,Data!$A$2:$L$873,3)</f>
+        <v>4984.2217023308831</v>
+      </c>
+      <c r="C268">
+        <f>VLOOKUP($A268,Data!$A$2:$L$873,4)</f>
+        <v>3104.9044999999996</v>
+      </c>
+      <c r="D268">
+        <f>VLOOKUP($A268,Data!$A$2:$L$873,5)</f>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="E268">
+        <f>VLOOKUP($A268,Data!$A$2:$L$873,6)</f>
+        <v>135.09</v>
+      </c>
+      <c r="F268">
+        <f>VLOOKUP($A268,Data!$A$2:$L$873,7)</f>
+        <v>29.836867659083445</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="20">
+        <v>43831</v>
+      </c>
+      <c r="B269">
+        <f>VLOOKUP($A269,Data!$A$2:$L$873,3)</f>
+        <v>5087.7095238032498</v>
+      </c>
+      <c r="C269">
+        <f>VLOOKUP($A269,Data!$A$2:$L$873,4)</f>
+        <v>3277.3142105263164</v>
+      </c>
+      <c r="D269">
+        <f>VLOOKUP($A269,Data!$A$2:$L$873,5)</f>
+        <v>59.133735724253413</v>
+      </c>
+      <c r="E269">
+        <f>VLOOKUP($A269,Data!$A$2:$L$873,6)</f>
+        <v>131.75666666666666</v>
+      </c>
+      <c r="F269">
+        <f>VLOOKUP($A269,Data!$A$2:$L$873,7)</f>
+        <v>30.729689264735764</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="19">
+        <v>43922</v>
+      </c>
+      <c r="B270">
+        <f>VLOOKUP($A270,Data!$A$2:$L$873,3)</f>
+        <v>5531.7531045171963</v>
+      </c>
+      <c r="C270">
+        <f>VLOOKUP($A270,Data!$A$2:$L$873,4)</f>
+        <v>2919.6149999999998</v>
+      </c>
+      <c r="D270">
+        <f>VLOOKUP($A270,Data!$A$2:$L$873,5)</f>
+        <v>59.646867862126712</v>
+      </c>
+      <c r="E270">
+        <f>VLOOKUP($A270,Data!$A$2:$L$873,6)</f>
+        <v>110.63</v>
+      </c>
+      <c r="F270">
+        <f>VLOOKUP($A270,Data!$A$2:$L$873,7)</f>
+        <v>27.328480997698467</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="20">
+        <v>44013</v>
+      </c>
+      <c r="B271">
+        <f>VLOOKUP($A271,Data!$A$2:$L$873,3)</f>
+        <v>5588.7331634681022</v>
+      </c>
+      <c r="C271">
+        <f>VLOOKUP($A271,Data!$A$2:$L$873,4)</f>
+        <v>3391.71</v>
+      </c>
+      <c r="D271">
+        <f>VLOOKUP($A271,Data!$A$2:$L$873,5)</f>
+        <v>59.126666666666665</v>
+      </c>
+      <c r="E271">
+        <f>VLOOKUP($A271,Data!$A$2:$L$873,6)</f>
+        <v>98.893333333333345</v>
+      </c>
+      <c r="F271">
+        <f>VLOOKUP($A271,Data!$A$2:$L$873,7)</f>
+        <v>31.158208965355229</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="19">
+        <v>44105</v>
+      </c>
+      <c r="B272">
+        <f>VLOOKUP($A272,Data!$A$2:$L$873,3)</f>
+        <v>5423.4039527918658</v>
+      </c>
+      <c r="C272">
+        <f>VLOOKUP($A272,Data!$A$2:$L$873,4)</f>
+        <v>3548.9925000000012</v>
+      </c>
+      <c r="D272">
+        <f>VLOOKUP($A272,Data!$A$2:$L$873,5)</f>
+        <v>58.469230757340114</v>
+      </c>
+      <c r="E272">
+        <f>VLOOKUP($A272,Data!$A$2:$L$873,6)</f>
+        <v>96.856666666666669</v>
+      </c>
+      <c r="F272">
+        <f>VLOOKUP($A272,Data!$A$2:$L$873,7)</f>
+        <v>32.473204096612569</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="20">
+        <v>44197</v>
+      </c>
+      <c r="B273">
+        <f>VLOOKUP($A273,Data!$A$2:$L$873,3)</f>
+        <v>5318.5105428490315</v>
+      </c>
+      <c r="C273">
+        <f>VLOOKUP($A273,Data!$A$2:$L$873,4)</f>
+        <v>3883.4321052631576</v>
+      </c>
+      <c r="D273">
+        <f>VLOOKUP($A273,Data!$A$2:$L$873,5)</f>
+        <v>57.848540088605162</v>
+      </c>
+      <c r="E273">
+        <f>VLOOKUP($A273,Data!$A$2:$L$873,6)</f>
+        <v>105.48666666666665</v>
+      </c>
+      <c r="F273">
+        <f>VLOOKUP($A273,Data!$A$2:$L$873,7)</f>
+        <v>35.103907171969837</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="19">
+        <v>44287</v>
+      </c>
+      <c r="B274">
+        <f>VLOOKUP($A274,Data!$A$2:$L$873,3)</f>
+        <v>5076.0125773350264</v>
+      </c>
+      <c r="C274">
+        <f>VLOOKUP($A274,Data!$A$2:$L$873,4)</f>
+        <v>4167.8495000000012</v>
+      </c>
+      <c r="D274">
+        <f>VLOOKUP($A274,Data!$A$2:$L$873,5)</f>
+        <v>57.787823777911655</v>
+      </c>
+      <c r="E274">
+        <f>VLOOKUP($A274,Data!$A$2:$L$873,6)</f>
+        <v>138.38666666666666</v>
+      </c>
+      <c r="F274">
+        <f>VLOOKUP($A274,Data!$A$2:$L$873,7)</f>
+        <v>36.552133989799074</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="20">
+        <v>44378</v>
+      </c>
+      <c r="B275">
+        <f>VLOOKUP($A275,Data!$A$2:$L$873,3)</f>
+        <v>5290.9831779440356</v>
+      </c>
+      <c r="C275">
+        <f>VLOOKUP($A275,Data!$A$2:$L$873,4)</f>
+        <v>4454.2063636363628</v>
+      </c>
+      <c r="D275">
+        <f>VLOOKUP($A275,Data!$A$2:$L$873,5)</f>
+        <v>58.791335877168187</v>
+      </c>
+      <c r="E275">
+        <f>VLOOKUP($A275,Data!$A$2:$L$873,6)</f>
+        <v>164.31666666666666</v>
+      </c>
+      <c r="F275">
+        <f>VLOOKUP($A275,Data!$A$2:$L$873,7)</f>
+        <v>37.973500614070495</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="19">
+        <v>44470</v>
+      </c>
+      <c r="B276">
+        <f>VLOOKUP($A276,Data!$A$2:$L$873,3)</f>
+        <v>5158.7636568726321</v>
+      </c>
+      <c r="C276">
+        <f>VLOOKUP($A276,Data!$A$2:$L$873,4)</f>
+        <v>4667.3866666666672</v>
+      </c>
+      <c r="D276">
+        <f>VLOOKUP($A276,Data!$A$2:$L$873,5)</f>
+        <v>60.016239104443123</v>
+      </c>
+      <c r="E276">
+        <f>VLOOKUP($A276,Data!$A$2:$L$873,6)</f>
+        <v>182.91</v>
+      </c>
+      <c r="F276">
+        <f>VLOOKUP($A276,Data!$A$2:$L$873,7)</f>
+        <v>38.582627497719223</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="20">
+        <v>44562</v>
+      </c>
+      <c r="B277">
+        <f>VLOOKUP($A277,Data!$A$2:$L$873,3)</f>
+        <v>5065.4469439743616</v>
+      </c>
+      <c r="C277">
+        <f>VLOOKUP($A277,Data!$A$2:$L$873,4)</f>
+        <v>4435.9805263157887</v>
+      </c>
+      <c r="D277">
+        <f>VLOOKUP($A277,Data!$A$2:$L$873,5)</f>
+        <v>61.445688643514018</v>
+      </c>
+      <c r="E277">
+        <f>VLOOKUP($A277,Data!$A$2:$L$873,6)</f>
+        <v>197.88333333333333</v>
+      </c>
+      <c r="F277">
+        <f>VLOOKUP($A277,Data!$A$2:$L$873,7)</f>
+        <v>35.287149225694883</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="19">
+        <v>44652</v>
+      </c>
+      <c r="B278">
+        <f>VLOOKUP($A278,Data!$A$2:$L$873,3)</f>
+        <v>4616.8919484135386</v>
+      </c>
+      <c r="C278">
+        <f>VLOOKUP($A278,Data!$A$2:$L$873,4)</f>
+        <v>4040.3599999999997</v>
+      </c>
+      <c r="D278">
+        <f>VLOOKUP($A278,Data!$A$2:$L$873,5)</f>
+        <v>63.336658108024906</v>
+      </c>
+      <c r="E278">
+        <f>VLOOKUP($A278,Data!$A$2:$L$873,6)</f>
+        <v>196.02666666666664</v>
+      </c>
+      <c r="F278">
+        <f>VLOOKUP($A278,Data!$A$2:$L$873,7)</f>
+        <v>30.673155079545133</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="20">
+        <v>44743</v>
+      </c>
+      <c r="B279">
+        <f>VLOOKUP($A279,Data!$A$2:$L$873,3)</f>
+        <v>4738.4361904988282</v>
+      </c>
+      <c r="C279">
+        <f>VLOOKUP($A279,Data!$A$2:$L$873,4)</f>
+        <v>4158.5630434782615</v>
+      </c>
+      <c r="D279">
+        <f>VLOOKUP($A279,Data!$A$2:$L$873,5)</f>
+        <v>64.885536895671393</v>
+      </c>
+      <c r="E279">
+        <f>VLOOKUP($A279,Data!$A$2:$L$873,6)</f>
+        <v>190.58333333333331</v>
+      </c>
+      <c r="F279">
+        <f>VLOOKUP($A279,Data!$A$2:$L$873,7)</f>
+        <v>30.698763365175292</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="19">
+        <v>44835</v>
+      </c>
+      <c r="B280">
+        <f>VLOOKUP($A280,Data!$A$2:$L$873,3)</f>
+        <v>4234.4728925399113</v>
+      </c>
+      <c r="C280">
+        <f>VLOOKUP($A280,Data!$A$2:$L$873,4)</f>
+        <v>3917.488571428571</v>
+      </c>
+      <c r="D280">
+        <f>VLOOKUP($A280,Data!$A$2:$L$873,5)</f>
+        <v>66.386101781169032</v>
+      </c>
+      <c r="E280">
+        <f>VLOOKUP($A280,Data!$A$2:$L$873,6)</f>
+        <v>182.40333333333334</v>
+      </c>
+      <c r="F280">
+        <f>VLOOKUP($A280,Data!$A$2:$L$873,7)</f>
+        <v>28.378949016273317</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="20">
+        <v>44927</v>
+      </c>
+      <c r="B281">
+        <f>VLOOKUP($A281,Data!$A$2:$L$873,3)</f>
+        <v>4481.0519824848434</v>
+      </c>
+      <c r="C281">
+        <f>VLOOKUP($A281,Data!$A$2:$L$873,4)</f>
+        <v>4079.6847368421049</v>
+      </c>
+      <c r="D281">
+        <f>VLOOKUP($A281,Data!$A$2:$L$873,5)</f>
+        <v>67.78</v>
+      </c>
+      <c r="E281">
+        <f>VLOOKUP($A281,Data!$A$2:$L$873,6)</f>
+        <v>173.55666666666667</v>
+      </c>
+      <c r="F281">
+        <f>VLOOKUP($A281,Data!$A$2:$L$873,7)</f>
+        <v>28.919762943866633</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="19">
+        <v>45017</v>
+      </c>
+      <c r="B282">
+        <f>VLOOKUP($A282,Data!$A$2:$L$873,3)</f>
+        <v>4549.7852647026066</v>
+      </c>
+      <c r="C282">
+        <f>VLOOKUP($A282,Data!$A$2:$L$873,4)</f>
+        <v>4146.1731818181825</v>
+      </c>
+      <c r="D282">
+        <f>VLOOKUP($A282,Data!$A$2:$L$873,5)</f>
+        <v>68.543333333333322</v>
+      </c>
+      <c r="E282">
+        <f>VLOOKUP($A282,Data!$A$2:$L$873,6)</f>
+        <v>177.11666666666665</v>
+      </c>
+      <c r="F282">
+        <f>VLOOKUP($A282,Data!$A$2:$L$873,7)</f>
+        <v>28.762051343131233</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="20">
+        <v>45108</v>
+      </c>
+      <c r="B283">
+        <f>VLOOKUP($A283,Data!$A$2:$L$873,3)</f>
+        <v>4395.0865524307474</v>
+      </c>
+      <c r="C283">
+        <f>VLOOKUP($A283,Data!$A$2:$L$873,4)</f>
+        <v>4457.358695652174</v>
+      </c>
+      <c r="D283">
+        <f>VLOOKUP($A283,Data!$A$2:$L$873,5)</f>
+        <v>69.112090727081437</v>
+      </c>
+      <c r="E283">
+        <f>VLOOKUP($A283,Data!$A$2:$L$873,6)</f>
+        <v>182.09</v>
+      </c>
+      <c r="F283">
+        <f>VLOOKUP($A283,Data!$A$2:$L$873,7)</f>
+        <v>30.3047482453652</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="19">
+        <v>45200</v>
+      </c>
+      <c r="B284">
+        <f>VLOOKUP($A284,Data!$A$2:$L$873,3)</f>
+        <v>4130.5064162111148</v>
+      </c>
+      <c r="C284">
+        <f>VLOOKUP($A284,Data!$A$2:$L$873,4)</f>
+        <v>4460.0633333333317</v>
+      </c>
+      <c r="D284">
+        <f>VLOOKUP($A284,Data!$A$2:$L$873,5)</f>
+        <v>69.973506659365881</v>
+      </c>
+      <c r="E284">
+        <f>VLOOKUP($A284,Data!$A$2:$L$873,6)</f>
+        <v>186.97666666666666</v>
+      </c>
+      <c r="F284">
+        <f>VLOOKUP($A284,Data!$A$2:$L$873,7)</f>
+        <v>30.013224817381488</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B285">
+        <f>VLOOKUP($A285,Data!$A$2:$L$873,3)</f>
+        <v>4478.0880241211507</v>
+      </c>
+      <c r="C285">
+        <f>VLOOKUP($A285,Data!$A$2:$L$873,4)</f>
+        <v>5011.9615000000003</v>
+      </c>
+      <c r="D285">
+        <f>VLOOKUP($A285,Data!$A$2:$L$873,5)</f>
+        <v>70.651114469559431</v>
+      </c>
+      <c r="E285">
+        <f>VLOOKUP($A285,Data!$A$2:$L$873,6)</f>
+        <v>192.08333333333331</v>
+      </c>
+      <c r="F285">
+        <f>VLOOKUP($A285,Data!$A$2:$L$873,7)</f>
+        <v>33.037192685599045</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="19">
+        <v>45383</v>
+      </c>
+      <c r="B286">
+        <f>VLOOKUP($A286,Data!$A$2:$L$873,3)</f>
+        <v>4277.6636458274015</v>
+      </c>
+      <c r="C286">
+        <f>VLOOKUP($A286,Data!$A$2:$L$873,4)</f>
+        <v>5235.2254545454543</v>
+      </c>
+      <c r="D286">
+        <f>VLOOKUP($A286,Data!$A$2:$L$873,5)</f>
+        <v>71.592141647297069</v>
+      </c>
+      <c r="E286">
+        <f>VLOOKUP($A286,Data!$A$2:$L$873,6)</f>
+        <v>191.39</v>
+      </c>
+      <c r="F286">
+        <f>VLOOKUP($A286,Data!$A$2:$L$873,7)</f>
+        <v>33.844257859496473</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="20">
+        <v>45474</v>
+      </c>
+      <c r="B287">
+        <f>VLOOKUP($A287,Data!$A$2:$L$873,3)</f>
+        <v>4536.5675587826718</v>
+      </c>
+      <c r="C287">
+        <f>VLOOKUP($A287,Data!$A$2:$L$873,4)</f>
+        <v>5446.68</v>
+      </c>
+      <c r="D287">
+        <f>VLOOKUP($A287,Data!$A$2:$L$873,5)</f>
+        <v>71.97579960471046</v>
+      </c>
+      <c r="E287">
+        <f>VLOOKUP($A287,Data!$A$2:$L$873,6)</f>
+        <v>191.39</v>
+      </c>
+      <c r="F287">
+        <f>VLOOKUP($A287,Data!$A$2:$L$873,7)</f>
+        <v>35.081269831250687</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
